--- a/20-21汪鹏老师班-平时成绩单.xlsx
+++ b/20-21汪鹏老师班-平时成绩单.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B031B390-D09C-7A40-BD55-40757DC22454}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEDCC6D-A03B-7449-A8DE-CE5713FB54FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="19-20" sheetId="5" r:id="rId1"/>
+    <sheet name="20-21" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="169">
   <si>
     <t>序号</t>
   </si>
@@ -211,10 +211,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>注意：授课老师和助教研究生各批改1/2报告</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>竞赛加分：参加比赛有成绩加1分；省级或分区获奖2-3分；决赛获奖4-5分。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -282,223 +278,398 @@
     <t>71118311</t>
   </si>
   <si>
+    <t>71118313</t>
+  </si>
+  <si>
+    <t>张晓铮</t>
+  </si>
+  <si>
+    <t>71118314</t>
+  </si>
+  <si>
+    <t>谈金翰</t>
+  </si>
+  <si>
+    <t>71118315</t>
+  </si>
+  <si>
+    <t>71118316</t>
+  </si>
+  <si>
+    <t>钱会川</t>
+  </si>
+  <si>
+    <t>71118317</t>
+  </si>
+  <si>
+    <t>徐志文</t>
+  </si>
+  <si>
+    <t>71118320</t>
+  </si>
+  <si>
+    <t>陈瀚</t>
+  </si>
+  <si>
+    <t>71118324</t>
+  </si>
+  <si>
+    <t>71118370</t>
+  </si>
+  <si>
+    <t>夏遵辉</t>
+  </si>
+  <si>
+    <t>71118401</t>
+  </si>
+  <si>
+    <t>71118402</t>
+  </si>
+  <si>
+    <t>孙嘉旋</t>
+  </si>
+  <si>
+    <t>71118403</t>
+  </si>
+  <si>
+    <t>71118404</t>
+  </si>
+  <si>
+    <t>71118405</t>
+  </si>
+  <si>
+    <t>71118407</t>
+  </si>
+  <si>
+    <t>麻海涛</t>
+  </si>
+  <si>
+    <t>71118408</t>
+  </si>
+  <si>
+    <t>闫一潇</t>
+  </si>
+  <si>
+    <t>71118410</t>
+  </si>
+  <si>
+    <t>李咏新</t>
+  </si>
+  <si>
+    <t>71118411</t>
+  </si>
+  <si>
+    <t>李钰翰</t>
+  </si>
+  <si>
+    <t>71118414</t>
+  </si>
+  <si>
+    <t>魏浩东</t>
+  </si>
+  <si>
+    <t>71118415</t>
+  </si>
+  <si>
+    <t>叶宏庭</t>
+  </si>
+  <si>
+    <t>71118416</t>
+  </si>
+  <si>
+    <t>南希</t>
+  </si>
+  <si>
+    <t>71118417</t>
+  </si>
+  <si>
+    <t>刘隆琦</t>
+  </si>
+  <si>
+    <t>71118418</t>
+  </si>
+  <si>
+    <t>皮雳</t>
+  </si>
+  <si>
+    <t>71118419</t>
+  </si>
+  <si>
+    <t>洪焕荣</t>
+  </si>
+  <si>
+    <t>71118420</t>
+  </si>
+  <si>
+    <t>牛熠玮</t>
+  </si>
+  <si>
+    <t>71118422</t>
+  </si>
+  <si>
+    <t>71118470</t>
+  </si>
+  <si>
+    <t>仇嘉乐</t>
+  </si>
+  <si>
+    <t>71Y18104</t>
+  </si>
+  <si>
+    <t>张文韬</t>
+  </si>
+  <si>
+    <t>71Y18105</t>
+  </si>
+  <si>
+    <t>束新月</t>
+  </si>
+  <si>
+    <t>71Y18106</t>
+  </si>
+  <si>
+    <t>金煜</t>
+  </si>
+  <si>
+    <t>71Y18107</t>
+  </si>
+  <si>
+    <t>71Y18108</t>
+  </si>
+  <si>
+    <t>李渊</t>
+  </si>
+  <si>
+    <t>71Y18109</t>
+  </si>
+  <si>
+    <t>芦小栋</t>
+  </si>
+  <si>
+    <t>71Y18110</t>
+  </si>
+  <si>
+    <t>李潼泷</t>
+  </si>
+  <si>
+    <t>71Y18111</t>
+  </si>
+  <si>
+    <t>袁逸舟</t>
+  </si>
+  <si>
+    <t>71Y18112</t>
+  </si>
+  <si>
+    <t>71Y18113</t>
+  </si>
+  <si>
+    <t>盛鹏飞</t>
+  </si>
+  <si>
+    <t>程序流程图不能有多个出口，这是我们课上反复强调的；（6）的解答与题目要求不符合，从结果上看，混淆了路径覆盖和基本路径覆盖；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图中忽视了多个return语句，而将其直接合并了；这也导致语句覆盖中一条测试用例无法覆盖多个return语句；其它测试任务完成出色，但注意表格中准确区分条件和判定两个术语；对路径的估算思路清晰；MC/DC覆盖能注意到短路。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图清晰准确；多个测试任务表格中的路径应为“测试路径”，不是基本路径；MC/DC覆盖中同样要注意逻辑短路。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告思路清晰，对知识点掌握准确；在给定的约束下，这里的可能路径为56条。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王宸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告思路清晰，对知识点掌握准确；（6）中的路径覆盖不是指基本路径覆盖，两种测试方法不同；这里在给定约束条件下，可能的测试路径为56条。MC/DC覆盖注意逻辑短路；实验思考深刻！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞赛加分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张鹏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用soot生成流程图，有较强的动手能力；注意1条语句覆盖不了所有的return语句；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图准确；逻辑短路例子巧妙；能注意到各种情形下的逻辑短路问题；对知识点的掌握全面清晰。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC/DC覆盖中注意逻辑短路影响；缺少了逻辑短路程序示例的解答；对实验一的知识点掌握较好</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告思路清晰，对知识点掌握准确；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭文轩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序流程图中应区分不同的return语句，由此导致了语句覆盖没有覆盖所有的return语句；这里的路径覆盖不是指基本路径覆盖，二者不同；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨耀坤</t>
+  </si>
+  <si>
+    <t>流程图没有保证一个出口；MC/DC覆盖中同样要注意逻辑短路。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图尽量不要分开画，注意保证1个入口1个出口的原则；可能路径数目在分析时可以考虑给出的约束条件，这样得到的路径数会较少；MC/DC覆盖中如何体现条件对判定的独立影响？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不区分可达性，可能的路径数目为56条；MC/DC覆盖中注意逻辑短路问题；实验体会深刻；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在涉及条件的测试中注意逻辑短路，短路的条件没有被执行，因此测试中没有取值；7的分析可以在给定约束条件下，结合程序流程图进行路径数目分析；MC/DC覆盖同样要注意逻辑短路。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要保证程序流程图1个出口；在测试实践中能注意到逻辑短路；部分实验内容在实验报告上没有体现。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能较好掌握实验涉及的测试方法；在涉及条件的测试用例中建议把条件在测试中的取值给出来；可能的路径数目为56条；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图的开始和结束节点可以用标准的画法；语句覆盖中，一条测试用例无法覆盖所有的return语句；路径覆盖并不是指基本路径覆盖，二者有差别，需要注意；涉及判定和条件的测试用例，建议把判定或条件的取值明确给出来，比较清晰；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对本次实验的知识点掌握较好，概念理解准确；涉及判定和条件的测试用例，建议把判定或条件的取值明确给出来。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告规范，测试思路清晰，对知识点掌握准确；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>魏俊毅</t>
-  </si>
-  <si>
-    <t>71118313</t>
-  </si>
-  <si>
-    <t>张晓铮</t>
-  </si>
-  <si>
-    <t>71118314</t>
-  </si>
-  <si>
-    <t>谈金翰</t>
-  </si>
-  <si>
-    <t>71118315</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在给定约束条件下，路径覆盖中的路径数目为56条；注意MC/DC覆盖中同样要注意逻辑短路；实验总结深刻；建议以后提交PDF版本的报告；实验报告规范，内容详实，望继续保持。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在给定约束条件下，路径覆盖中的路径数目为56条；注意MC/DC覆盖中同样要注意逻辑短路</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告规范，测试思路清晰，对知识点掌握准确；分别用soot和手工两种方式生成程序流程图；路径的可达性要考虑程序的具体内容，比如这里考虑判定的内容可以发现56条路径中可能包含不可达路径；MC/DC覆盖中也要注意逻辑短路。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>陆舟洋</t>
-  </si>
-  <si>
-    <t>71118316</t>
-  </si>
-  <si>
-    <t>钱会川</t>
-  </si>
-  <si>
-    <t>71118317</t>
-  </si>
-  <si>
-    <t>徐志文</t>
-  </si>
-  <si>
-    <t>71118320</t>
-  </si>
-  <si>
-    <t>陈瀚</t>
-  </si>
-  <si>
-    <t>71118324</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意涉及到条件的测试中的逻辑短路；MC/DC覆盖中也要注意逻辑短路。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.流程图：绝大部分同学把握了一个入口一个出口的细节，流程图符号使用也是标准的，但要注意不能把流程图和程序流图混淆，二者对控制流的刻画力度和使用符号都有差异。
+2.验证语言存在逻辑短路的程序应该执行中能反应出由于存在逻辑短路，使得结果和没有逻辑短路的情形不同。有小部分同学的程序看不出这点。例如第1个判定中的前2个条件也存在短路的情形，一些同学忽视了这些细节。
+3.对条件和判定的测试时，只有测试用例执行触发条件或判定时，条件/判定才有取值。
+4.MC/DC覆盖一样要根据程序语言考虑是否有逻辑短路，特别不要忽略第2，3个条件也可能逻辑短路；
+5.执行路径数要从流程图来具体分析，大多数同学都理解这点，老师分析的结果是56；
+6.测试循环，可考虑循环不执行、执行N次、循环结束等情况；对循环的测试不考虑其所包含的语句。	
+	</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意涉及到条件的测试中的逻辑短路；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告规范，测试思路清晰，对知识点掌握准确；流程图中要保证1个出口；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意涉及到条件的测试中的逻辑短路，例如，条件覆盖中对第1个判定中的前2个条件的短路；MC/DC覆盖中也要注意逻辑短路。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>李勃帆</t>
-  </si>
-  <si>
-    <t>71118370</t>
-  </si>
-  <si>
-    <t>夏遵辉</t>
-  </si>
-  <si>
-    <t>71118401</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>刘宇萌</t>
-  </si>
-  <si>
-    <t>71118402</t>
-  </si>
-  <si>
-    <t>孙嘉旋</t>
-  </si>
-  <si>
-    <t>71118403</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>毛雪芸</t>
-  </si>
-  <si>
-    <t>71118404</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告规范，测试思路清晰，对知识点掌握准确；流程图中要保证1个出口；MC/DC第2条测试用例中，条件c是短路的。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>修娜娜</t>
-  </si>
-  <si>
-    <t>71118405</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>张音祺</t>
-  </si>
-  <si>
-    <t>71118407</t>
-  </si>
-  <si>
-    <t>麻海涛</t>
-  </si>
-  <si>
-    <t>71118408</t>
-  </si>
-  <si>
-    <t>闫一潇</t>
-  </si>
-  <si>
-    <t>71118410</t>
-  </si>
-  <si>
-    <t>李咏新</t>
-  </si>
-  <si>
-    <t>71118411</t>
-  </si>
-  <si>
-    <t>李钰翰</t>
-  </si>
-  <si>
-    <t>71118414</t>
-  </si>
-  <si>
-    <t>魏浩东</t>
-  </si>
-  <si>
-    <t>71118415</t>
-  </si>
-  <si>
-    <t>叶宏庭</t>
-  </si>
-  <si>
-    <t>71118416</t>
-  </si>
-  <si>
-    <t>南希</t>
-  </si>
-  <si>
-    <t>71118417</t>
-  </si>
-  <si>
-    <t>刘隆琦</t>
-  </si>
-  <si>
-    <t>71118418</t>
-  </si>
-  <si>
-    <t>皮雳</t>
-  </si>
-  <si>
-    <t>71118419</t>
-  </si>
-  <si>
-    <t>洪焕荣</t>
-  </si>
-  <si>
-    <t>71118420</t>
-  </si>
-  <si>
-    <t>牛熠玮</t>
-  </si>
-  <si>
-    <t>71118422</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意涉及到条件的测试中的逻辑短路，例如，条件覆盖中对第1个判定中的前2个条件的短路；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意涉及到条件的测试中的逻辑短路，例如，条件覆盖中对第1个判定中的前2个条件的短路；MC/DC覆盖中也要注意逻辑短路;在给定约束条件下，路径覆盖中的路径数目为56条；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意涉及到条件的测试中的逻辑短路，例如，条件覆盖中对第1个判定中的前2个条件的短路；MC/DC覆盖中也要注意逻辑短路;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>蔡林希</t>
-  </si>
-  <si>
-    <t>71118470</t>
-  </si>
-  <si>
-    <t>仇嘉乐</t>
-  </si>
-  <si>
-    <t>71Y18104</t>
-  </si>
-  <si>
-    <t>张文韬</t>
-  </si>
-  <si>
-    <t>71Y18105</t>
-  </si>
-  <si>
-    <t>束新月</t>
-  </si>
-  <si>
-    <t>71Y18106</t>
-  </si>
-  <si>
-    <t>金煜</t>
-  </si>
-  <si>
-    <t>71Y18107</t>
-  </si>
-  <si>
-    <t>王宸</t>
-  </si>
-  <si>
-    <t>71Y18108</t>
-  </si>
-  <si>
-    <t>李渊</t>
-  </si>
-  <si>
-    <t>71Y18109</t>
-  </si>
-  <si>
-    <t>芦小栋</t>
-  </si>
-  <si>
-    <t>71Y18110</t>
-  </si>
-  <si>
-    <t>李潼泷</t>
-  </si>
-  <si>
-    <t>71Y18111</t>
-  </si>
-  <si>
-    <t>袁逸舟</t>
-  </si>
-  <si>
-    <t>71Y18112</t>
-  </si>
-  <si>
-    <t>杭文轩</t>
-  </si>
-  <si>
-    <t>71Y18113</t>
-  </si>
-  <si>
-    <t>盛鹏飞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏俊毅，陆舟洋, 李勃帆，刘宇萌，毛雪芸，修娜娜，张音祺，蔡林希, 王宸，李潼泷，杭文轩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -657,13 +828,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -778,6 +942,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -811,7 +982,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1083,17 +1254,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1670,7 +1830,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1743,12 +1903,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1761,33 +1915,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1797,7 +1951,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1806,16 +1960,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1824,13 +1978,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1840,40 +1991,37 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1900,17 +2048,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1921,10 +2114,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1933,92 +2126,50 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="554">
@@ -2880,10 +3031,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X98"/>
+  <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2892,8 +3043,8 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="44.83203125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="44.83203125" style="28" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
     <col min="8" max="8" width="30.6640625" customWidth="1"/>
     <col min="9" max="9" width="6.1640625" customWidth="1"/>
@@ -2908,66 +3059,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="43" customHeight="1" thickBot="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
     </row>
     <row r="2" spans="1:24" ht="16" thickBot="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109" t="s">
+      <c r="F2" s="94"/>
+      <c r="G2" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="107" t="s">
+      <c r="H2" s="96"/>
+      <c r="I2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="110"/>
-      <c r="K2" s="107" t="s">
+      <c r="J2" s="96"/>
+      <c r="K2" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="110"/>
-      <c r="M2" s="107" t="s">
+      <c r="L2" s="96"/>
+      <c r="M2" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="110"/>
+      <c r="N2" s="96"/>
       <c r="O2" s="27" t="s">
         <v>29</v>
       </c>
@@ -2998,10 +3149,10 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="15">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="117"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
@@ -3048,28 +3199,28 @@
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:24" s="6" customFormat="1" ht="16">
-      <c r="A4" s="120">
+      <c r="A4" s="86">
         <v>1</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="D4" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="111"/>
+      <c r="E4" s="82"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="59"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="56"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="19"/>
@@ -3081,32 +3232,36 @@
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A5" s="120">
+    <row r="5" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A5" s="86">
         <v>2</v>
       </c>
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="D5" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="34"/>
+      <c r="E5" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="32"/>
       <c r="H5" s="22"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="74"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="70"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
-      <c r="Q5" s="84"/>
+      <c r="Q5" s="80"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
@@ -3115,32 +3270,36 @@
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A6" s="120">
+    <row r="6" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A6" s="86">
         <v>3</v>
       </c>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="121" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="74"/>
+      <c r="D6" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="70"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
-      <c r="Q6" s="84"/>
+      <c r="Q6" s="80"/>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
@@ -3149,32 +3308,36 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A7" s="120">
+    <row r="7" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A7" s="86">
         <v>4</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="121" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="74"/>
+      <c r="D7" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="70"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
-      <c r="Q7" s="84"/>
+      <c r="Q7" s="80"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -3183,32 +3346,36 @@
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A8" s="120">
+    <row r="8" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A8" s="86">
         <v>5</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="121" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="75"/>
+      <c r="D8" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="71"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
-      <c r="Q8" s="84"/>
+      <c r="Q8" s="80"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
@@ -3217,32 +3384,36 @@
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A9" s="120">
+    <row r="9" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A9" s="86">
         <v>6</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="121" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="76"/>
+      <c r="D9" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="72"/>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
-      <c r="Q9" s="84"/>
+      <c r="Q9" s="80"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
@@ -3252,32 +3423,32 @@
       <c r="X9" s="13"/>
     </row>
     <row r="10" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A10" s="120">
+      <c r="A10" s="86">
         <v>7</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="121" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="74"/>
+      <c r="D10" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="82"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="70"/>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="65"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="62"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
@@ -3285,32 +3456,36 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A11" s="120">
+    <row r="11" spans="1:24" s="6" customFormat="1" ht="75">
+      <c r="A11" s="86">
         <v>8</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="121" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="111"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="76"/>
+      <c r="D11" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="72"/>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
-      <c r="Q11" s="84"/>
+      <c r="Q11" s="80"/>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
@@ -3319,32 +3494,36 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A12" s="120">
+    <row r="12" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A12" s="86">
         <v>9</v>
       </c>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="42"/>
+      <c r="D12" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="40"/>
       <c r="H12" s="22"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="77"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="73"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
-      <c r="Q12" s="84"/>
+      <c r="Q12" s="80"/>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
@@ -3354,31 +3533,35 @@
       <c r="X12" s="13"/>
     </row>
     <row r="13" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A13" s="120">
+      <c r="A13" s="86">
         <v>10</v>
       </c>
-      <c r="B13" s="120" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="121" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="112"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="29"/>
       <c r="H13" s="22"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="76"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="72"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
-      <c r="Q13" s="84"/>
+      <c r="Q13" s="80"/>
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
@@ -3387,32 +3570,36 @@
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A14" s="120">
+    <row r="14" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A14" s="86">
         <v>11</v>
       </c>
-      <c r="B14" s="120" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="121" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="74"/>
+      <c r="B14" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="70"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
-      <c r="Q14" s="84"/>
+      <c r="Q14" s="80"/>
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
@@ -3421,32 +3608,36 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A15" s="120">
+    <row r="15" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A15" s="86">
         <v>12</v>
       </c>
-      <c r="B15" s="120" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="121" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="29"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="74"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="70"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
-      <c r="Q15" s="84"/>
+      <c r="Q15" s="80"/>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
@@ -3455,32 +3646,36 @@
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
     </row>
-    <row r="16" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A16" s="120">
+    <row r="16" spans="1:24" s="6" customFormat="1" ht="75">
+      <c r="A16" s="86">
         <v>13</v>
       </c>
-      <c r="B16" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="121" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="111"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="76"/>
+      <c r="B16" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="72"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
-      <c r="Q16" s="84"/>
+      <c r="Q16" s="80"/>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
@@ -3489,32 +3684,36 @@
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
     </row>
-    <row r="17" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A17" s="120">
+    <row r="17" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A17" s="86">
         <v>14</v>
       </c>
-      <c r="B17" s="120" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="121" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="76"/>
+      <c r="B17" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="72"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
-      <c r="Q17" s="84"/>
+      <c r="Q17" s="80"/>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
@@ -3523,32 +3722,36 @@
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
     </row>
-    <row r="18" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A18" s="120">
+    <row r="18" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A18" s="86">
         <v>15</v>
       </c>
-      <c r="B18" s="120" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="121" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="111"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="29"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="76"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="72"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
-      <c r="Q18" s="84"/>
+      <c r="Q18" s="80"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
@@ -3557,32 +3760,36 @@
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
     </row>
-    <row r="19" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A19" s="120">
+    <row r="19" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A19" s="86">
         <v>16</v>
       </c>
-      <c r="B19" s="120" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="121" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="111"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="76"/>
+      <c r="B19" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="60"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="72"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
-      <c r="Q19" s="84"/>
+      <c r="Q19" s="80"/>
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
@@ -3592,31 +3799,35 @@
       <c r="X19" s="13"/>
     </row>
     <row r="20" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A20" s="120">
+      <c r="A20" s="86">
         <v>17</v>
       </c>
-      <c r="B20" s="120" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="111"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="31"/>
+      <c r="B20" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="29"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="76"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="72"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
-      <c r="Q20" s="84"/>
+      <c r="Q20" s="80"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
@@ -3626,31 +3837,35 @@
       <c r="X20" s="13"/>
     </row>
     <row r="21" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A21" s="120">
+      <c r="A21" s="86">
         <v>18</v>
       </c>
-      <c r="B21" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="121" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="76"/>
+      <c r="B21" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="72"/>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
-      <c r="Q21" s="84"/>
+      <c r="Q21" s="80"/>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
@@ -3659,32 +3874,36 @@
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
     </row>
-    <row r="22" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A22" s="120">
+    <row r="22" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A22" s="86">
         <v>19</v>
       </c>
-      <c r="B22" s="120" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="111"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="76"/>
+      <c r="B22" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="72"/>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
-      <c r="Q22" s="84"/>
+      <c r="Q22" s="80"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
@@ -3693,32 +3912,36 @@
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
     </row>
-    <row r="23" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A23" s="120">
+    <row r="23" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A23" s="86">
         <v>20</v>
       </c>
-      <c r="B23" s="120" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="121" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="113"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="76"/>
+      <c r="B23" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="36"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="72"/>
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
-      <c r="Q23" s="84"/>
+      <c r="Q23" s="80"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
@@ -3728,31 +3951,35 @@
       <c r="X23" s="13"/>
     </row>
     <row r="24" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A24" s="120">
+      <c r="A24" s="86">
         <v>21</v>
       </c>
-      <c r="B24" s="120" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="114"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="76"/>
+      <c r="B24" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="37"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="72"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
-      <c r="Q24" s="84"/>
+      <c r="Q24" s="80"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
@@ -3761,32 +3988,36 @@
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
     </row>
-    <row r="25" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A25" s="120">
+    <row r="25" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A25" s="86">
         <v>22</v>
       </c>
-      <c r="B25" s="120" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="111"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="76"/>
+      <c r="B25" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="72"/>
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
-      <c r="Q25" s="84"/>
+      <c r="Q25" s="80"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
@@ -3795,32 +4026,36 @@
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
     </row>
-    <row r="26" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A26" s="120">
+    <row r="26" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A26" s="86">
         <v>23</v>
       </c>
-      <c r="B26" s="120" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="121" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="111"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="76"/>
+      <c r="B26" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="37"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="72"/>
       <c r="O26" s="20"/>
       <c r="P26" s="20"/>
-      <c r="Q26" s="84"/>
+      <c r="Q26" s="80"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
@@ -3829,32 +4064,36 @@
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
     </row>
-    <row r="27" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A27" s="120">
+    <row r="27" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A27" s="86">
         <v>24</v>
       </c>
-      <c r="B27" s="120" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="121" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="111"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="76"/>
+      <c r="B27" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="72"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
-      <c r="Q27" s="84"/>
+      <c r="Q27" s="80"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
@@ -3863,32 +4102,36 @@
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
     </row>
-    <row r="28" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A28" s="120">
+    <row r="28" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A28" s="86">
         <v>25</v>
       </c>
-      <c r="B28" s="120" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="121" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="111"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="76"/>
+      <c r="B28" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="72"/>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
-      <c r="Q28" s="84"/>
+      <c r="Q28" s="80"/>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
@@ -3897,32 +4140,36 @@
       <c r="W28" s="13"/>
       <c r="X28" s="13"/>
     </row>
-    <row r="29" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A29" s="120">
+    <row r="29" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A29" s="86">
         <v>26</v>
       </c>
-      <c r="B29" s="120" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="121" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="113"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="38"/>
+      <c r="B29" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="36"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="78"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="74"/>
       <c r="O29" s="20"/>
       <c r="P29" s="20"/>
-      <c r="Q29" s="84"/>
+      <c r="Q29" s="80"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
@@ -3932,31 +4179,31 @@
       <c r="X29" s="13"/>
     </row>
     <row r="30" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A30" s="120">
+      <c r="A30" s="86">
         <v>27</v>
       </c>
-      <c r="B30" s="120" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="121" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="111"/>
+      <c r="B30" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="82"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="56"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="53"/>
       <c r="O30" s="20"/>
       <c r="P30" s="20"/>
-      <c r="Q30" s="84"/>
+      <c r="Q30" s="80"/>
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
@@ -3965,32 +4212,36 @@
       <c r="W30" s="13"/>
       <c r="X30" s="13"/>
     </row>
-    <row r="31" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A31" s="120">
+    <row r="31" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A31" s="86">
         <v>28</v>
       </c>
-      <c r="B31" s="120" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="121" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="112"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="76"/>
+      <c r="B31" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="72"/>
       <c r="O31" s="20"/>
       <c r="P31" s="20"/>
-      <c r="Q31" s="84"/>
+      <c r="Q31" s="80"/>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
       <c r="T31" s="13"/>
@@ -3999,32 +4250,36 @@
       <c r="W31" s="13"/>
       <c r="X31" s="13"/>
     </row>
-    <row r="32" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A32" s="120">
+    <row r="32" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A32" s="86">
         <v>29</v>
       </c>
-      <c r="B32" s="120" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="121" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="111"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="38"/>
+      <c r="B32" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" s="36"/>
       <c r="H32" s="21"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="76"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="72"/>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
-      <c r="Q32" s="84"/>
+      <c r="Q32" s="80"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
@@ -4033,32 +4288,36 @@
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
     </row>
-    <row r="33" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A33" s="120">
+    <row r="33" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A33" s="86">
         <v>30</v>
       </c>
-      <c r="B33" s="120" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="121" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="111"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="56"/>
+      <c r="B33" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="36"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="53"/>
       <c r="O33" s="20"/>
       <c r="P33" s="20"/>
-      <c r="Q33" s="84"/>
+      <c r="Q33" s="80"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
@@ -4067,32 +4326,36 @@
       <c r="W33" s="13"/>
       <c r="X33" s="13"/>
     </row>
-    <row r="34" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A34" s="120">
+    <row r="34" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A34" s="86">
         <v>31</v>
       </c>
-      <c r="B34" s="120" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="121" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="111"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="56"/>
+      <c r="B34" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="36"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="53"/>
       <c r="O34" s="20"/>
       <c r="P34" s="20"/>
-      <c r="Q34" s="84"/>
+      <c r="Q34" s="80"/>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
       <c r="T34" s="13"/>
@@ -4101,32 +4364,36 @@
       <c r="W34" s="13"/>
       <c r="X34" s="13"/>
     </row>
-    <row r="35" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A35" s="120">
+    <row r="35" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A35" s="86">
         <v>32</v>
       </c>
-      <c r="B35" s="120" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="121" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="111"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="56"/>
+      <c r="B35" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" s="36"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="53"/>
       <c r="O35" s="20"/>
       <c r="P35" s="20"/>
-      <c r="Q35" s="84"/>
+      <c r="Q35" s="80"/>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
       <c r="T35" s="13"/>
@@ -4135,32 +4402,36 @@
       <c r="W35" s="13"/>
       <c r="X35" s="13"/>
     </row>
-    <row r="36" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A36" s="120">
+    <row r="36" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A36" s="86">
         <v>33</v>
       </c>
-      <c r="B36" s="120" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="121" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="111"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="76"/>
+      <c r="B36" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="29"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="72"/>
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
-      <c r="Q36" s="84"/>
+      <c r="Q36" s="80"/>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
       <c r="T36" s="13"/>
@@ -4169,32 +4440,36 @@
       <c r="W36" s="13"/>
       <c r="X36" s="13"/>
     </row>
-    <row r="37" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A37" s="120">
+    <row r="37" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A37" s="86">
         <v>34</v>
       </c>
-      <c r="B37" s="120" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="111"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="76"/>
+      <c r="B37" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" s="29"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="72"/>
       <c r="O37" s="20"/>
       <c r="P37" s="20"/>
-      <c r="Q37" s="84"/>
+      <c r="Q37" s="80"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
@@ -4204,31 +4479,35 @@
       <c r="X37" s="13"/>
     </row>
     <row r="38" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A38" s="120">
+      <c r="A38" s="86">
         <v>35</v>
       </c>
-      <c r="B38" s="120" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="121" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="111"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="76"/>
+      <c r="B38" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="29"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="72"/>
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
-      <c r="Q38" s="84"/>
+      <c r="Q38" s="80"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
       <c r="T38" s="13"/>
@@ -4237,32 +4516,36 @@
       <c r="W38" s="13"/>
       <c r="X38" s="13"/>
     </row>
-    <row r="39" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A39" s="120">
+    <row r="39" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A39" s="86">
         <v>36</v>
       </c>
-      <c r="B39" s="120" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="121" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="111"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="76"/>
+      <c r="B39" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" s="29"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="72"/>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
-      <c r="Q39" s="84"/>
+      <c r="Q39" s="80"/>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
       <c r="T39" s="13"/>
@@ -4271,32 +4554,36 @@
       <c r="W39" s="13"/>
       <c r="X39" s="13"/>
     </row>
-    <row r="40" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A40" s="120">
+    <row r="40" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A40" s="86">
         <v>37</v>
       </c>
-      <c r="B40" s="120" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="111"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="76"/>
+      <c r="B40" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="29"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="72"/>
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
-      <c r="Q40" s="84"/>
+      <c r="Q40" s="80"/>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
       <c r="T40" s="13"/>
@@ -4305,33 +4592,37 @@
       <c r="W40" s="13"/>
       <c r="X40" s="13"/>
     </row>
-    <row r="41" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A41" s="120">
+    <row r="41" spans="1:24" s="6" customFormat="1" ht="75">
+      <c r="A41" s="86">
         <v>38</v>
       </c>
-      <c r="B41" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="121" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="111"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="31"/>
+      <c r="B41" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="29"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="29"/>
       <c r="L41" s="23"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="76"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="72"/>
       <c r="O41" s="20"/>
       <c r="P41" s="20"/>
-      <c r="Q41" s="84"/>
-      <c r="R41" s="65"/>
+      <c r="Q41" s="80"/>
+      <c r="R41" s="62"/>
       <c r="S41" s="13"/>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
@@ -4339,32 +4630,36 @@
       <c r="W41" s="13"/>
       <c r="X41" s="13"/>
     </row>
-    <row r="42" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A42" s="120">
+    <row r="42" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A42" s="86">
         <v>39</v>
       </c>
-      <c r="B42" s="120" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="121" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="111"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="31"/>
+      <c r="B42" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="29"/>
       <c r="L42" s="23"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="76"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="72"/>
       <c r="O42" s="20"/>
       <c r="P42" s="20"/>
-      <c r="Q42" s="84"/>
+      <c r="Q42" s="80"/>
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
       <c r="T42" s="13"/>
@@ -4373,32 +4668,36 @@
       <c r="W42" s="13"/>
       <c r="X42" s="13"/>
     </row>
-    <row r="43" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A43" s="120">
+    <row r="43" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A43" s="86">
         <v>40</v>
       </c>
-      <c r="B43" s="120" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="121" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="111"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="31"/>
+      <c r="B43" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="36"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="29"/>
       <c r="L43" s="23"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="56"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="53"/>
       <c r="O43" s="20"/>
       <c r="P43" s="20"/>
-      <c r="Q43" s="84"/>
+      <c r="Q43" s="80"/>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
       <c r="T43" s="13"/>
@@ -4407,32 +4706,36 @@
       <c r="W43" s="13"/>
       <c r="X43" s="13"/>
     </row>
-    <row r="44" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A44" s="120">
+    <row r="44" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A44" s="86">
         <v>41</v>
       </c>
-      <c r="B44" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="121" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="111"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="31"/>
+      <c r="B44" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" s="36"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="29"/>
       <c r="L44" s="23"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="56"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="53"/>
       <c r="O44" s="20"/>
       <c r="P44" s="20"/>
-      <c r="Q44" s="84"/>
+      <c r="Q44" s="80"/>
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
       <c r="T44" s="13"/>
@@ -4441,32 +4744,36 @@
       <c r="W44" s="13"/>
       <c r="X44" s="13"/>
     </row>
-    <row r="45" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A45" s="120">
+    <row r="45" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A45" s="86">
         <v>42</v>
       </c>
-      <c r="B45" s="120" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="121" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="111"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="39"/>
+      <c r="B45" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="36"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="37"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="76"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="72"/>
       <c r="O45" s="20"/>
       <c r="P45" s="20"/>
-      <c r="Q45" s="84"/>
+      <c r="Q45" s="80"/>
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
       <c r="T45" s="13"/>
@@ -4475,32 +4782,36 @@
       <c r="W45" s="13"/>
       <c r="X45" s="13"/>
     </row>
-    <row r="46" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A46" s="120">
+    <row r="46" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A46" s="86">
         <v>43</v>
       </c>
-      <c r="B46" s="120" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="121" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="111"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="39"/>
+      <c r="B46" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" s="32"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="37"/>
       <c r="L46" s="23"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="76"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="72"/>
       <c r="O46" s="20"/>
       <c r="P46" s="20"/>
-      <c r="Q46" s="84"/>
+      <c r="Q46" s="80"/>
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
       <c r="T46" s="13"/>
@@ -4509,32 +4820,36 @@
       <c r="W46" s="13"/>
       <c r="X46" s="13"/>
     </row>
-    <row r="47" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A47" s="120">
+    <row r="47" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A47" s="86">
         <v>44</v>
       </c>
-      <c r="B47" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="121" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="111"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="39"/>
+      <c r="B47" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" s="29"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="37"/>
       <c r="L47" s="23"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="56"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="53"/>
       <c r="O47" s="20"/>
       <c r="P47" s="20"/>
-      <c r="Q47" s="84"/>
+      <c r="Q47" s="80"/>
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
       <c r="T47" s="13"/>
@@ -4544,32 +4859,36 @@
       <c r="X47" s="13"/>
     </row>
     <row r="48" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A48" s="120">
+      <c r="A48" s="86">
         <v>45</v>
       </c>
-      <c r="B48" s="120" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="121" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="111"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="38"/>
+      <c r="B48" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="G48" s="29"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="36"/>
       <c r="L48" s="23"/>
-      <c r="M48" s="83"/>
-      <c r="N48" s="76"/>
+      <c r="M48" s="79"/>
+      <c r="N48" s="72"/>
       <c r="O48" s="20"/>
       <c r="P48" s="20"/>
-      <c r="Q48" s="84"/>
-      <c r="R48" s="65"/>
+      <c r="Q48" s="80"/>
+      <c r="R48" s="62"/>
       <c r="S48" s="13"/>
       <c r="T48" s="13"/>
       <c r="U48" s="13"/>
@@ -4577,32 +4896,36 @@
       <c r="W48" s="13"/>
       <c r="X48" s="13"/>
     </row>
-    <row r="49" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A49" s="120">
+    <row r="49" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A49" s="86">
         <v>46</v>
       </c>
-      <c r="B49" s="120" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="121" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" s="111"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="39"/>
+      <c r="B49" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49" s="37"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="37"/>
       <c r="L49" s="23"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="56"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="53"/>
       <c r="O49" s="20"/>
       <c r="P49" s="20"/>
-      <c r="Q49" s="84"/>
+      <c r="Q49" s="80"/>
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
       <c r="T49" s="13"/>
@@ -4611,26 +4934,34 @@
       <c r="W49" s="13"/>
       <c r="X49" s="13"/>
     </row>
-    <row r="50" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A50" s="120">
+    <row r="50" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A50" s="86">
         <v>47</v>
       </c>
-      <c r="B50" s="120"/>
-      <c r="C50" s="120"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="39"/>
+      <c r="B50" s="119">
+        <v>71117328</v>
+      </c>
+      <c r="C50" s="117" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="86"/>
+      <c r="E50" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="29"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="37"/>
       <c r="L50" s="23"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="56"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="53"/>
       <c r="O50" s="20"/>
       <c r="P50" s="20"/>
-      <c r="Q50" s="84"/>
+      <c r="Q50" s="80"/>
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
       <c r="T50" s="13"/>
@@ -4640,25 +4971,25 @@
       <c r="X50" s="13"/>
     </row>
     <row r="51" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A51" s="120">
+      <c r="A51" s="86">
         <v>48</v>
       </c>
-      <c r="B51" s="120"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="76"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="72"/>
       <c r="O51" s="20"/>
       <c r="P51" s="20"/>
-      <c r="Q51" s="84"/>
+      <c r="Q51" s="80"/>
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
@@ -4668,25 +4999,25 @@
       <c r="X51" s="13"/>
     </row>
     <row r="52" spans="1:24" s="7" customFormat="1" ht="17">
-      <c r="A52" s="120">
+      <c r="A52" s="86">
         <v>49</v>
       </c>
-      <c r="B52" s="120"/>
-      <c r="C52" s="120"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="39"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="37"/>
       <c r="L52" s="23"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="79"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="75"/>
       <c r="O52" s="20"/>
       <c r="P52" s="20"/>
-      <c r="Q52" s="84"/>
+      <c r="Q52" s="80"/>
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
       <c r="T52" s="13"/>
@@ -4695,26 +5026,26 @@
       <c r="W52" s="13"/>
       <c r="X52" s="13"/>
     </row>
-    <row r="53" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A53" s="120">
+    <row r="53" spans="1:24" s="6" customFormat="1" ht="18" thickBot="1">
+      <c r="A53" s="86">
         <v>50</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="111"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="39"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="37"/>
       <c r="L53" s="23"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="56"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="53"/>
       <c r="O53" s="20"/>
       <c r="P53" s="20"/>
-      <c r="Q53" s="84"/>
+      <c r="Q53" s="80"/>
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
       <c r="T53" s="13"/>
@@ -4723,26 +5054,26 @@
       <c r="W53" s="13"/>
       <c r="X53" s="13"/>
     </row>
-    <row r="54" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A54" s="120">
+    <row r="54" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A54" s="86">
         <v>51</v>
       </c>
-      <c r="B54" s="120"/>
-      <c r="C54" s="120"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="111"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="31"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="29"/>
       <c r="L54" s="23"/>
-      <c r="M54" s="58"/>
-      <c r="N54" s="76"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="72"/>
       <c r="O54" s="20"/>
       <c r="P54" s="20"/>
-      <c r="Q54" s="84"/>
+      <c r="Q54" s="80"/>
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
       <c r="T54" s="13"/>
@@ -4751,26 +5082,26 @@
       <c r="W54" s="13"/>
       <c r="X54" s="13"/>
     </row>
-    <row r="55" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A55" s="120">
+    <row r="55" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A55" s="86">
         <v>52</v>
       </c>
-      <c r="B55" s="120"/>
-      <c r="C55" s="120"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="111"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="39"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="37"/>
       <c r="L55" s="23"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="76"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="72"/>
       <c r="O55" s="20"/>
       <c r="P55" s="20"/>
-      <c r="Q55" s="84"/>
+      <c r="Q55" s="80"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
@@ -4779,26 +5110,26 @@
       <c r="W55" s="13"/>
       <c r="X55" s="13"/>
     </row>
-    <row r="56" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A56" s="120">
+    <row r="56" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A56" s="86">
         <v>53</v>
       </c>
-      <c r="B56" s="120"/>
-      <c r="C56" s="120"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="111"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="31"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="29"/>
       <c r="L56" s="23"/>
-      <c r="M56" s="58"/>
-      <c r="N56" s="79"/>
+      <c r="M56" s="55"/>
+      <c r="N56" s="75"/>
       <c r="O56" s="20"/>
       <c r="P56" s="20"/>
-      <c r="Q56" s="84"/>
+      <c r="Q56" s="80"/>
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
       <c r="T56" s="13"/>
@@ -4807,26 +5138,26 @@
       <c r="W56" s="13"/>
       <c r="X56" s="13"/>
     </row>
-    <row r="57" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A57" s="120">
+    <row r="57" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A57" s="86">
         <v>54</v>
       </c>
-      <c r="B57" s="120"/>
-      <c r="C57" s="120"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="111"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="82"/>
       <c r="F57" s="21"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="31"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="29"/>
       <c r="L57" s="23"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="79"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="75"/>
       <c r="O57" s="20"/>
       <c r="P57" s="20"/>
-      <c r="Q57" s="84"/>
+      <c r="Q57" s="80"/>
       <c r="R57" s="13"/>
       <c r="S57" s="13"/>
       <c r="T57" s="13"/>
@@ -4835,26 +5166,26 @@
       <c r="W57" s="13"/>
       <c r="X57" s="13"/>
     </row>
-    <row r="58" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A58" s="120">
+    <row r="58" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A58" s="86">
         <v>55</v>
       </c>
-      <c r="B58" s="120"/>
-      <c r="C58" s="120"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="111"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="82"/>
       <c r="F58" s="21"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="31"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="29"/>
       <c r="L58" s="23"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="79"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="75"/>
       <c r="O58" s="20"/>
       <c r="P58" s="20"/>
-      <c r="Q58" s="84"/>
+      <c r="Q58" s="80"/>
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
       <c r="T58" s="13"/>
@@ -4863,26 +5194,26 @@
       <c r="W58" s="13"/>
       <c r="X58" s="13"/>
     </row>
-    <row r="59" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A59" s="120">
+    <row r="59" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A59" s="86">
         <v>56</v>
       </c>
-      <c r="B59" s="120"/>
-      <c r="C59" s="122"/>
-      <c r="D59" s="120"/>
-      <c r="E59" s="111"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="82"/>
       <c r="F59" s="21"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="31"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="29"/>
       <c r="L59" s="23"/>
-      <c r="M59" s="58"/>
-      <c r="N59" s="76"/>
+      <c r="M59" s="55"/>
+      <c r="N59" s="72"/>
       <c r="O59" s="20"/>
       <c r="P59" s="20"/>
-      <c r="Q59" s="84"/>
+      <c r="Q59" s="80"/>
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
       <c r="T59" s="13"/>
@@ -4891,26 +5222,26 @@
       <c r="W59" s="13"/>
       <c r="X59" s="13"/>
     </row>
-    <row r="60" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A60" s="120">
+    <row r="60" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A60" s="86">
         <v>57</v>
       </c>
-      <c r="B60" s="120"/>
-      <c r="C60" s="120"/>
-      <c r="D60" s="120"/>
-      <c r="E60" s="111"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="82"/>
       <c r="F60" s="21"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="31"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="29"/>
       <c r="L60" s="20"/>
       <c r="M60" s="20"/>
-      <c r="N60" s="79"/>
+      <c r="N60" s="75"/>
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
-      <c r="Q60" s="84"/>
+      <c r="Q60" s="80"/>
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
       <c r="T60" s="13"/>
@@ -4919,26 +5250,26 @@
       <c r="W60" s="13"/>
       <c r="X60" s="13"/>
     </row>
-    <row r="61" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A61" s="120">
+    <row r="61" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A61" s="86">
         <v>58</v>
       </c>
-      <c r="B61" s="120"/>
-      <c r="C61" s="120"/>
-      <c r="D61" s="120"/>
-      <c r="E61" s="111"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="82"/>
       <c r="F61" s="21"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="31"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="29"/>
       <c r="L61" s="23"/>
-      <c r="M61" s="58"/>
-      <c r="N61" s="76"/>
+      <c r="M61" s="55"/>
+      <c r="N61" s="72"/>
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
-      <c r="Q61" s="84"/>
+      <c r="Q61" s="80"/>
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
       <c r="T61" s="13"/>
@@ -4947,26 +5278,26 @@
       <c r="W61" s="13"/>
       <c r="X61" s="13"/>
     </row>
-    <row r="62" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A62" s="120">
+    <row r="62" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A62" s="86">
         <v>59</v>
       </c>
-      <c r="B62" s="120"/>
-      <c r="C62" s="120"/>
-      <c r="D62" s="120"/>
-      <c r="E62" s="111"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="82"/>
       <c r="F62" s="21"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="31"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="29"/>
       <c r="L62" s="23"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="79"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="75"/>
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
-      <c r="Q62" s="84"/>
+      <c r="Q62" s="80"/>
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
       <c r="T62" s="13"/>
@@ -4975,26 +5306,26 @@
       <c r="W62" s="13"/>
       <c r="X62" s="13"/>
     </row>
-    <row r="63" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A63" s="120">
+    <row r="63" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A63" s="86">
         <v>60</v>
       </c>
-      <c r="B63" s="120"/>
-      <c r="C63" s="120"/>
-      <c r="D63" s="120"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="31"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="29"/>
       <c r="L63" s="23"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="79"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="75"/>
       <c r="O63" s="20"/>
       <c r="P63" s="20"/>
-      <c r="Q63" s="84"/>
+      <c r="Q63" s="80"/>
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
       <c r="T63" s="13"/>
@@ -5003,26 +5334,26 @@
       <c r="W63" s="13"/>
       <c r="X63" s="13"/>
     </row>
-    <row r="64" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A64" s="120">
+    <row r="64" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A64" s="86">
         <v>61</v>
       </c>
-      <c r="B64" s="120"/>
-      <c r="C64" s="120"/>
-      <c r="D64" s="120"/>
-      <c r="E64" s="115"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="31"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="29"/>
       <c r="L64" s="23"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="79"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="75"/>
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
-      <c r="Q64" s="84"/>
+      <c r="Q64" s="80"/>
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
       <c r="T64" s="13"/>
@@ -5031,26 +5362,26 @@
       <c r="W64" s="13"/>
       <c r="X64" s="13"/>
     </row>
-    <row r="65" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A65" s="120">
+    <row r="65" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A65" s="86">
         <v>62</v>
       </c>
-      <c r="B65" s="120"/>
-      <c r="C65" s="122"/>
-      <c r="D65" s="120"/>
-      <c r="E65" s="111"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="82"/>
       <c r="F65" s="22"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="31"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="29"/>
       <c r="L65" s="23"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="79"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="75"/>
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
-      <c r="Q65" s="84"/>
+      <c r="Q65" s="80"/>
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
       <c r="T65" s="13"/>
@@ -5059,26 +5390,26 @@
       <c r="W65" s="13"/>
       <c r="X65" s="13"/>
     </row>
-    <row r="66" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A66" s="120">
+    <row r="66" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A66" s="86">
         <v>63</v>
       </c>
-      <c r="B66" s="120"/>
-      <c r="C66" s="120"/>
-      <c r="D66" s="120"/>
-      <c r="E66" s="111"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="82"/>
       <c r="F66" s="21"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="69"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="31"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="29"/>
       <c r="L66" s="23"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="79"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="75"/>
       <c r="O66" s="20"/>
       <c r="P66" s="20"/>
-      <c r="Q66" s="84"/>
+      <c r="Q66" s="80"/>
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
       <c r="T66" s="13"/>
@@ -5087,26 +5418,26 @@
       <c r="W66" s="13"/>
       <c r="X66" s="13"/>
     </row>
-    <row r="67" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A67" s="120">
+    <row r="67" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A67" s="86">
         <v>64</v>
       </c>
-      <c r="B67" s="120"/>
-      <c r="C67" s="120"/>
-      <c r="D67" s="120"/>
-      <c r="E67" s="111"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="82"/>
       <c r="F67" s="21"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="31"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="29"/>
       <c r="L67" s="23"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="79"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="75"/>
       <c r="O67" s="20"/>
       <c r="P67" s="20"/>
-      <c r="Q67" s="84"/>
+      <c r="Q67" s="80"/>
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
       <c r="T67" s="13"/>
@@ -5115,26 +5446,26 @@
       <c r="W67" s="13"/>
       <c r="X67" s="13"/>
     </row>
-    <row r="68" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A68" s="120">
+    <row r="68" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A68" s="86">
         <v>65</v>
       </c>
-      <c r="B68" s="120"/>
-      <c r="C68" s="122"/>
-      <c r="D68" s="120"/>
-      <c r="E68" s="116"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="85"/>
       <c r="F68" s="21"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="31"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="29"/>
       <c r="L68" s="23"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="79"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="75"/>
       <c r="O68" s="20"/>
       <c r="P68" s="20"/>
-      <c r="Q68" s="84"/>
+      <c r="Q68" s="80"/>
       <c r="R68" s="13"/>
       <c r="S68" s="13"/>
       <c r="T68" s="13"/>
@@ -5143,26 +5474,26 @@
       <c r="W68" s="13"/>
       <c r="X68" s="13"/>
     </row>
-    <row r="69" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A69" s="120">
+    <row r="69" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A69" s="86">
         <v>66</v>
       </c>
-      <c r="B69" s="120"/>
-      <c r="C69" s="120"/>
-      <c r="D69" s="120"/>
-      <c r="E69" s="115"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="31"/>
+      <c r="B69" s="86"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="29"/>
       <c r="L69" s="23"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="79"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="75"/>
       <c r="O69" s="20"/>
       <c r="P69" s="20"/>
-      <c r="Q69" s="84"/>
+      <c r="Q69" s="80"/>
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
       <c r="T69" s="13"/>
@@ -5171,26 +5502,26 @@
       <c r="W69" s="13"/>
       <c r="X69" s="13"/>
     </row>
-    <row r="70" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A70" s="120">
+    <row r="70" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A70" s="86">
         <v>67</v>
       </c>
-      <c r="B70" s="120"/>
-      <c r="C70" s="120"/>
-      <c r="D70" s="120"/>
-      <c r="E70" s="115"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="31"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="29"/>
       <c r="L70" s="23"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="79"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="75"/>
       <c r="O70" s="20"/>
       <c r="P70" s="20"/>
-      <c r="Q70" s="84"/>
+      <c r="Q70" s="80"/>
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
       <c r="T70" s="13"/>
@@ -5199,26 +5530,26 @@
       <c r="W70" s="13"/>
       <c r="X70" s="13"/>
     </row>
-    <row r="71" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A71" s="120">
+    <row r="71" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A71" s="86">
         <v>68</v>
       </c>
-      <c r="B71" s="120"/>
-      <c r="C71" s="120"/>
-      <c r="D71" s="120"/>
-      <c r="E71" s="115"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="31"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="31"/>
-      <c r="N71" s="49"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="47"/>
       <c r="O71" s="20"/>
       <c r="P71" s="20"/>
-      <c r="Q71" s="84"/>
+      <c r="Q71" s="80"/>
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
       <c r="T71" s="13"/>
@@ -5227,26 +5558,26 @@
       <c r="W71" s="13"/>
       <c r="X71" s="13"/>
     </row>
-    <row r="72" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A72" s="120">
+    <row r="72" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A72" s="86">
         <v>69</v>
       </c>
-      <c r="B72" s="120"/>
-      <c r="C72" s="120"/>
-      <c r="D72" s="120"/>
-      <c r="E72" s="111"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="86"/>
+      <c r="E72" s="82"/>
       <c r="F72" s="21"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="31"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="31"/>
-      <c r="N72" s="49"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="47"/>
       <c r="O72" s="20"/>
       <c r="P72" s="20"/>
-      <c r="Q72" s="84"/>
+      <c r="Q72" s="80"/>
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
       <c r="T72" s="13"/>
@@ -5255,26 +5586,26 @@
       <c r="W72" s="13"/>
       <c r="X72" s="13"/>
     </row>
-    <row r="73" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A73" s="120">
+    <row r="73" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A73" s="86">
         <v>70</v>
       </c>
-      <c r="B73" s="120"/>
-      <c r="C73" s="120"/>
-      <c r="D73" s="120"/>
-      <c r="E73" s="111"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="86"/>
+      <c r="E73" s="82"/>
       <c r="F73" s="21"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="31"/>
-      <c r="N73" s="49"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="47"/>
       <c r="O73" s="20"/>
       <c r="P73" s="20"/>
-      <c r="Q73" s="84"/>
+      <c r="Q73" s="80"/>
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
       <c r="T73" s="13"/>
@@ -5283,26 +5614,26 @@
       <c r="W73" s="13"/>
       <c r="X73" s="13"/>
     </row>
-    <row r="74" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A74" s="120">
+    <row r="74" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A74" s="86">
         <v>71</v>
       </c>
-      <c r="B74" s="120"/>
-      <c r="C74" s="120"/>
-      <c r="D74" s="120"/>
-      <c r="E74" s="111"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="86"/>
+      <c r="E74" s="82"/>
       <c r="F74" s="21"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="80"/>
-      <c r="N74" s="49"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="76"/>
+      <c r="N74" s="47"/>
       <c r="O74" s="20"/>
       <c r="P74" s="20"/>
-      <c r="Q74" s="84"/>
+      <c r="Q74" s="80"/>
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
       <c r="T74" s="13"/>
@@ -5311,26 +5642,26 @@
       <c r="W74" s="13"/>
       <c r="X74" s="13"/>
     </row>
-    <row r="75" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A75" s="120">
+    <row r="75" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A75" s="86">
         <v>72</v>
       </c>
-      <c r="B75" s="120"/>
-      <c r="C75" s="120"/>
-      <c r="D75" s="120"/>
-      <c r="E75" s="111"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="82"/>
       <c r="F75" s="21"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="49"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="31"/>
-      <c r="N75" s="49"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="47"/>
       <c r="O75" s="20"/>
       <c r="P75" s="20"/>
-      <c r="Q75" s="84"/>
+      <c r="Q75" s="80"/>
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
       <c r="T75" s="13"/>
@@ -5339,26 +5670,26 @@
       <c r="W75" s="13"/>
       <c r="X75" s="13"/>
     </row>
-    <row r="76" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A76" s="120">
+    <row r="76" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A76" s="86">
         <v>73</v>
       </c>
-      <c r="B76" s="120"/>
-      <c r="C76" s="120"/>
-      <c r="D76" s="120"/>
-      <c r="E76" s="111"/>
+      <c r="B76" s="86"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="86"/>
+      <c r="E76" s="82"/>
       <c r="F76" s="21"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="49"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="49"/>
-      <c r="M76" s="31"/>
-      <c r="N76" s="49"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="47"/>
       <c r="O76" s="20"/>
       <c r="P76" s="20"/>
-      <c r="Q76" s="84"/>
+      <c r="Q76" s="80"/>
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
       <c r="T76" s="13"/>
@@ -5367,26 +5698,26 @@
       <c r="W76" s="13"/>
       <c r="X76" s="13"/>
     </row>
-    <row r="77" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A77" s="120">
+    <row r="77" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A77" s="86">
         <v>74</v>
       </c>
-      <c r="B77" s="120"/>
-      <c r="C77" s="120"/>
-      <c r="D77" s="120"/>
-      <c r="E77" s="111"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="82"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="49"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="49"/>
-      <c r="M77" s="31"/>
-      <c r="N77" s="49"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="47"/>
       <c r="O77" s="20"/>
       <c r="P77" s="20"/>
-      <c r="Q77" s="84"/>
+      <c r="Q77" s="80"/>
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
       <c r="T77" s="13"/>
@@ -5395,26 +5726,26 @@
       <c r="W77" s="13"/>
       <c r="X77" s="13"/>
     </row>
-    <row r="78" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A78" s="120">
+    <row r="78" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A78" s="86">
         <v>75</v>
       </c>
-      <c r="B78" s="120"/>
-      <c r="C78" s="120"/>
-      <c r="D78" s="120"/>
-      <c r="E78" s="111"/>
-      <c r="F78" s="68"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="47"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="52"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="81"/>
+      <c r="B78" s="86"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="86"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="77"/>
       <c r="O78" s="20"/>
       <c r="P78" s="20"/>
-      <c r="Q78" s="84"/>
+      <c r="Q78" s="80"/>
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
       <c r="T78" s="13"/>
@@ -5423,26 +5754,26 @@
       <c r="W78" s="13"/>
       <c r="X78" s="13"/>
     </row>
-    <row r="79" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A79" s="120">
+    <row r="79" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
+      <c r="A79" s="86">
         <v>76</v>
       </c>
-      <c r="B79" s="120"/>
-      <c r="C79" s="120"/>
-      <c r="D79" s="120"/>
-      <c r="E79" s="111"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="31"/>
-      <c r="L79" s="52"/>
-      <c r="M79" s="31"/>
-      <c r="N79" s="82"/>
+      <c r="B79" s="86"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="86"/>
+      <c r="E79" s="82"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="52"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="78"/>
       <c r="O79" s="20"/>
       <c r="P79" s="20"/>
-      <c r="Q79" s="84"/>
+      <c r="Q79" s="80"/>
       <c r="R79" s="13"/>
       <c r="S79" s="13"/>
       <c r="T79" s="13"/>
@@ -5451,26 +5782,24 @@
       <c r="W79" s="13"/>
       <c r="X79" s="13"/>
     </row>
-    <row r="80" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A80" s="120">
-        <v>77</v>
-      </c>
-      <c r="B80" s="120"/>
-      <c r="C80" s="120"/>
-      <c r="D80" s="120"/>
-      <c r="E80" s="111"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="49"/>
-      <c r="K80" s="31"/>
-      <c r="L80" s="49"/>
-      <c r="M80" s="31"/>
-      <c r="N80" s="49"/>
-      <c r="O80" s="20"/>
-      <c r="P80" s="20"/>
-      <c r="Q80" s="84"/>
+    <row r="80" spans="1:24" s="6" customFormat="1" ht="15" thickBot="1">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="13"/>
       <c r="R80" s="13"/>
       <c r="S80" s="13"/>
       <c r="T80" s="13"/>
@@ -5479,405 +5808,180 @@
       <c r="W80" s="13"/>
       <c r="X80" s="13"/>
     </row>
-    <row r="81" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A81" s="120">
-        <v>78</v>
-      </c>
-      <c r="B81" s="120"/>
-      <c r="C81" s="120"/>
-      <c r="D81" s="120"/>
-      <c r="E81" s="111"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="49"/>
-      <c r="K81" s="31"/>
-      <c r="L81" s="52"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="81"/>
-      <c r="O81" s="20"/>
-      <c r="P81" s="20"/>
-      <c r="Q81" s="84"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
-      <c r="T81" s="13"/>
-      <c r="U81" s="13"/>
-      <c r="V81" s="13"/>
-      <c r="W81" s="13"/>
-      <c r="X81" s="13"/>
-    </row>
-    <row r="82" spans="1:24" s="6" customFormat="1" ht="15" thickBot="1">
-      <c r="A82" s="118"/>
-      <c r="B82" s="119"/>
-      <c r="C82" s="119"/>
-      <c r="D82" s="119"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="55"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="49"/>
-      <c r="M82" s="20"/>
-      <c r="N82" s="49"/>
-      <c r="O82" s="20"/>
-      <c r="P82" s="20"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="13"/>
-      <c r="T82" s="13"/>
-      <c r="U82" s="13"/>
-      <c r="V82" s="13"/>
-      <c r="W82" s="13"/>
-      <c r="X82" s="13"/>
-    </row>
-    <row r="83" spans="1:24" s="6" customFormat="1" ht="15" thickBot="1">
-      <c r="A83" s="1"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="47"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="43"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="49"/>
-      <c r="M83" s="20"/>
-      <c r="N83" s="49"/>
-      <c r="O83" s="20"/>
-      <c r="P83" s="20"/>
-      <c r="Q83" s="19"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="13"/>
-      <c r="T83" s="13"/>
-      <c r="U83" s="13"/>
-      <c r="V83" s="13"/>
-      <c r="W83" s="13"/>
-      <c r="X83" s="13"/>
-    </row>
-    <row r="84" spans="1:24" s="6" customFormat="1" ht="15" thickBot="1">
-      <c r="A84" s="1"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="47"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="43"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="49"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="49"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="13"/>
-      <c r="T84" s="13"/>
-      <c r="U84" s="13"/>
-      <c r="V84" s="13"/>
-      <c r="W84" s="13"/>
-      <c r="X84" s="13"/>
-    </row>
-    <row r="85" spans="1:24" s="6" customFormat="1" ht="15" thickBot="1">
-      <c r="A85" s="1"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="43"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="49"/>
-      <c r="M85" s="20"/>
-      <c r="N85" s="49"/>
-      <c r="O85" s="20"/>
-      <c r="P85" s="20"/>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="13"/>
-      <c r="S85" s="13"/>
-      <c r="T85" s="13"/>
-      <c r="U85" s="13"/>
-      <c r="V85" s="13"/>
-      <c r="W85" s="13"/>
-      <c r="X85" s="13"/>
-    </row>
-    <row r="86" spans="1:24" s="6" customFormat="1" ht="15" thickBot="1">
-      <c r="A86" s="1"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="43"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="49"/>
-      <c r="M86" s="20"/>
-      <c r="N86" s="49"/>
-      <c r="O86" s="20"/>
-      <c r="P86" s="20"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="13"/>
-      <c r="S86" s="13"/>
-      <c r="T86" s="13"/>
-      <c r="U86" s="13"/>
-      <c r="V86" s="13"/>
-      <c r="W86" s="13"/>
-      <c r="X86" s="13"/>
-    </row>
-    <row r="87" spans="1:24" s="6" customFormat="1" ht="15" thickBot="1">
-      <c r="A87" s="1"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="43"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="49"/>
-      <c r="M87" s="20"/>
-      <c r="N87" s="49"/>
-      <c r="O87" s="20"/>
-      <c r="P87" s="20"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="13"/>
-      <c r="S87" s="13"/>
-      <c r="T87" s="13"/>
-      <c r="U87" s="13"/>
-      <c r="V87" s="13"/>
-      <c r="W87" s="13"/>
-      <c r="X87" s="13"/>
-    </row>
-    <row r="88" spans="1:24" s="6" customFormat="1" ht="15" thickBot="1">
-      <c r="A88" s="1"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="47"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="43"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="49"/>
-      <c r="M88" s="20"/>
-      <c r="N88" s="49"/>
-      <c r="O88" s="20"/>
-      <c r="P88" s="20"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="13"/>
-      <c r="S88" s="13"/>
-      <c r="T88" s="13"/>
-      <c r="U88" s="13"/>
-      <c r="V88" s="13"/>
-      <c r="W88" s="13"/>
-      <c r="X88" s="13"/>
-    </row>
-    <row r="89" spans="1:24" s="6" customFormat="1" ht="15" thickBot="1">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="20"/>
-      <c r="O89" s="20"/>
-      <c r="P89" s="20"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="13"/>
-      <c r="S89" s="13"/>
-      <c r="T89" s="13"/>
-      <c r="U89" s="13"/>
-      <c r="V89" s="13"/>
-      <c r="W89" s="13"/>
-      <c r="X89" s="13"/>
-    </row>
-    <row r="90" spans="1:24" s="6" customFormat="1" ht="15" thickBot="1">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="11"/>
-      <c r="O90" s="12"/>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="13"/>
-      <c r="R90" s="13"/>
-      <c r="S90" s="13"/>
-      <c r="T90" s="13"/>
-      <c r="U90" s="13"/>
-      <c r="V90" s="13"/>
-      <c r="W90" s="13"/>
-      <c r="X90" s="13"/>
-    </row>
-    <row r="91" spans="1:24" ht="76" customHeight="1" thickBot="1">
-      <c r="A91" s="87" t="s">
+    <row r="81" spans="1:24" ht="76" customHeight="1" thickBot="1">
+      <c r="A81" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="B91" s="88"/>
-      <c r="C91" s="88"/>
-      <c r="D91" s="89"/>
-      <c r="E91" s="90"/>
-      <c r="F91" s="91"/>
-      <c r="G91" s="90"/>
-      <c r="H91" s="91"/>
-      <c r="I91" s="90"/>
-      <c r="J91" s="91"/>
-      <c r="K91" s="104"/>
-      <c r="L91" s="105"/>
-      <c r="M91" s="104"/>
-      <c r="N91" s="105"/>
-      <c r="O91" s="16"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="18"/>
-      <c r="R91" s="18"/>
-      <c r="S91" s="18"/>
-      <c r="T91" s="18"/>
-      <c r="U91" s="18"/>
-      <c r="V91" s="18"/>
-      <c r="W91" s="18"/>
-      <c r="X91" s="18"/>
-    </row>
-    <row r="92" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A92" s="94" t="s">
+      <c r="B81" s="99"/>
+      <c r="C81" s="99"/>
+      <c r="D81" s="100"/>
+      <c r="E81" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="F81" s="102"/>
+      <c r="G81" s="101"/>
+      <c r="H81" s="102"/>
+      <c r="I81" s="101"/>
+      <c r="J81" s="102"/>
+      <c r="K81" s="113"/>
+      <c r="L81" s="114"/>
+      <c r="M81" s="113"/>
+      <c r="N81" s="114"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="18"/>
+      <c r="U81" s="18"/>
+      <c r="V81" s="18"/>
+      <c r="W81" s="18"/>
+      <c r="X81" s="18"/>
+    </row>
+    <row r="82" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A82" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="98" t="s">
+      <c r="B82" s="107"/>
+      <c r="C82" s="108"/>
+      <c r="D82" s="108"/>
+      <c r="E82" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" s="106"/>
+      <c r="G82" s="103"/>
+      <c r="H82" s="103"/>
+      <c r="I82" s="103"/>
+      <c r="J82" s="103"/>
+      <c r="K82" s="103"/>
+      <c r="L82" s="103"/>
+      <c r="M82" s="104"/>
+      <c r="N82" s="104"/>
+      <c r="O82" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="P82" s="103"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="18"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="18"/>
+      <c r="U82" s="18"/>
+      <c r="V82" s="18"/>
+      <c r="W82" s="18"/>
+      <c r="X82" s="18"/>
+    </row>
+    <row r="83" spans="1:24">
+      <c r="A83" s="91"/>
+      <c r="B83" s="109"/>
+      <c r="C83" s="110"/>
+      <c r="D83" s="110"/>
+      <c r="E83" s="106"/>
+      <c r="F83" s="106"/>
+      <c r="G83" s="103"/>
+      <c r="H83" s="103"/>
+      <c r="I83" s="103"/>
+      <c r="J83" s="103"/>
+      <c r="K83" s="103"/>
+      <c r="L83" s="103"/>
+      <c r="M83" s="104"/>
+      <c r="N83" s="104"/>
+      <c r="O83" s="103"/>
+      <c r="P83" s="103"/>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="18"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="18"/>
+      <c r="U83" s="18"/>
+      <c r="V83" s="18"/>
+      <c r="W83" s="18"/>
+      <c r="X83" s="18"/>
+    </row>
+    <row r="84" spans="1:24" ht="261" customHeight="1" thickBot="1">
+      <c r="A84" s="105"/>
+      <c r="B84" s="111"/>
+      <c r="C84" s="112"/>
+      <c r="D84" s="112"/>
+      <c r="E84" s="106"/>
+      <c r="F84" s="106"/>
+      <c r="G84" s="103"/>
+      <c r="H84" s="103"/>
+      <c r="I84" s="103"/>
+      <c r="J84" s="103"/>
+      <c r="K84" s="103"/>
+      <c r="L84" s="103"/>
+      <c r="M84" s="104"/>
+      <c r="N84" s="104"/>
+      <c r="O84" s="103"/>
+      <c r="P84" s="103"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="18"/>
+      <c r="U84" s="18"/>
+      <c r="V84" s="18"/>
+      <c r="W84" s="18"/>
+      <c r="X84" s="18"/>
+    </row>
+    <row r="86" spans="1:24" s="97" customFormat="1">
+      <c r="A86" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="C92" s="99"/>
-      <c r="D92" s="99"/>
-      <c r="E92" s="97"/>
-      <c r="F92" s="97"/>
-      <c r="G92" s="92"/>
-      <c r="H92" s="92"/>
-      <c r="I92" s="92"/>
-      <c r="J92" s="92"/>
-      <c r="K92" s="92"/>
-      <c r="L92" s="92"/>
-      <c r="M92" s="93"/>
-      <c r="N92" s="93"/>
-      <c r="O92" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="P92" s="92"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
-      <c r="U92" s="18"/>
-      <c r="V92" s="18"/>
-      <c r="W92" s="18"/>
-      <c r="X92" s="18"/>
+    </row>
+    <row r="87" spans="1:24" s="97" customFormat="1">
+      <c r="A87" s="97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
+      <c r="A88" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="57"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+    </row>
+    <row r="92" spans="1:24">
+      <c r="A92" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="116">
+        <v>71118307</v>
+      </c>
+      <c r="C92" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="93" spans="1:24">
-      <c r="A93" s="95"/>
-      <c r="B93" s="100"/>
-      <c r="C93" s="101"/>
-      <c r="D93" s="101"/>
-      <c r="E93" s="97"/>
-      <c r="F93" s="97"/>
-      <c r="G93" s="92"/>
-      <c r="H93" s="92"/>
-      <c r="I93" s="92"/>
-      <c r="J93" s="92"/>
-      <c r="K93" s="92"/>
-      <c r="L93" s="92"/>
-      <c r="M93" s="93"/>
-      <c r="N93" s="93"/>
-      <c r="O93" s="92"/>
-      <c r="P93" s="92"/>
-      <c r="Q93" s="18"/>
-      <c r="R93" s="18"/>
-      <c r="S93" s="18"/>
-      <c r="T93" s="18"/>
-      <c r="U93" s="18"/>
-      <c r="V93" s="18"/>
-      <c r="W93" s="18"/>
-      <c r="X93" s="18"/>
-    </row>
-    <row r="94" spans="1:24" ht="261" customHeight="1" thickBot="1">
-      <c r="A94" s="96"/>
-      <c r="B94" s="102"/>
-      <c r="C94" s="103"/>
-      <c r="D94" s="103"/>
-      <c r="E94" s="97"/>
-      <c r="F94" s="97"/>
-      <c r="G94" s="92"/>
-      <c r="H94" s="92"/>
-      <c r="I94" s="92"/>
-      <c r="J94" s="92"/>
-      <c r="K94" s="92"/>
-      <c r="L94" s="92"/>
-      <c r="M94" s="93"/>
-      <c r="N94" s="93"/>
-      <c r="O94" s="92"/>
-      <c r="P94" s="92"/>
-      <c r="Q94" s="18"/>
-      <c r="R94" s="18"/>
-      <c r="S94" s="18"/>
-      <c r="T94" s="18"/>
-      <c r="U94" s="18"/>
-      <c r="V94" s="18"/>
-      <c r="W94" s="18"/>
-      <c r="X94" s="18"/>
-    </row>
-    <row r="96" spans="1:24" s="86" customFormat="1">
-      <c r="A96" s="86" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="86" customFormat="1">
-      <c r="A97" s="86" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="B98" s="60"/>
-      <c r="C98" s="60"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="60"/>
-      <c r="G98" s="60"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="60"/>
+      <c r="B93" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A86:XFD86"/>
+    <mergeCell ref="A87:XFD87"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="K82:L84"/>
+    <mergeCell ref="O82:P84"/>
+    <mergeCell ref="M82:N84"/>
+    <mergeCell ref="G82:H84"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="E82:F84"/>
+    <mergeCell ref="B82:D84"/>
+    <mergeCell ref="I82:J84"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -5888,22 +5992,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A96:XFD96"/>
-    <mergeCell ref="A97:XFD97"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="K92:L94"/>
-    <mergeCell ref="O92:P94"/>
-    <mergeCell ref="M92:N94"/>
-    <mergeCell ref="G92:H94"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="E92:F94"/>
-    <mergeCell ref="B92:D94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="K91:L91"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20-21汪鹏老师班-平时成绩单.xlsx
+++ b/20-21汪鹏老师班-平时成绩单.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEDCC6D-A03B-7449-A8DE-CE5713FB54FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B186A5-E25D-6F4A-A937-BFF8753BF2E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20-21" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="199">
   <si>
     <t>序号</t>
   </si>
@@ -539,9 +539,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>杨耀坤</t>
-  </si>
-  <si>
     <t>流程图没有保证一个出口；MC/DC覆盖中同样要注意逻辑短路。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -669,6 +666,141 @@
   </si>
   <si>
     <t>魏俊毅，陆舟洋, 李勃帆，刘宇萌，毛雪芸，修娜娜，张音祺，蔡林希, 王宸，李潼泷，杭文轩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶宏庭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入全国决赛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加比赛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入复赛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>谈金翰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙嘉旋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李咏新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李渊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨耀坤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏浩东</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">71Y18112	</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张俪蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐志文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张晓铮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛熠玮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫一潇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意例如判定2中3个条件的短路情况；MC/DC覆盖中同样要注意逻辑短路；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 流图绘制中，要处理复合条件，即条件对控制流的影响要刻画出来；
+2. 流图的刻画粒度细，同时也会引入不可达路径，这是正常的；
+3. 承认流图中的不可达路径，不用刻意为其去设计测试用例，或者刻意去回避不可达路径；
+4. 基本路径测试并不能替代对全部执行路径的测试；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告规范，测试思路清晰，对知识点掌握准确；我们没有强调过“所有基本路径集合中都有不可达路径”，而是反复提醒大家存在基本路径是不可达的情况。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告规范，测试思路清晰，对知识点掌握准确；报告内容尽量不要用截图，如果需要截图则要指出图的出处。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动手能力强！实验报告规范，测试思路清晰，对知识点掌握准确，思考深入；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A++</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流图不对，请检查是否正确处理判定中所有的条件。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流图要保证一个出口。图中的边尽量不要交叉。流图正确是基本路径测试的基础。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流图要保证一个出口。图中的边尽量不要交叉。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告规范，测试思路清晰，对知识点掌握准确；建议及时复习，准确掌握课堂讨论的内容。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告规范，测试思路清晰，对知识点掌握准确；实验总结和思考深入。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告规范，测试思路清晰，对知识点掌握准确；流图开始和结束也用圈来表示。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意getResult()的圈复杂度为9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getResult()中，针对整个流图计算圈复杂度，不用单独计算循环内部圈复杂度。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈婉艺 唐科 张鹏 胡景淞 周贵育
+谈金翰 陆舟洋 钱会川 徐志文 陈瀚
+李勃帆 夏遵辉 刘宇萌 孙嘉旋 毛雪芸
+修娜娜 麻海涛 闫一潇 李咏新 李钰翰
+魏浩东 叶宏庭 南希 皮雳 洪焕荣
+牛熠玮 蔡林希 仇嘉乐 张文韬 金煜
+王宸 李渊 芦小栋 李潼泷 袁逸舟
+杭文轩 盛鹏飞 魏俊毅</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -679,7 +811,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,13 +1073,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1830,7 +1955,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1948,9 +2073,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1996,9 +2118,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2080,6 +2199,21 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2156,20 +2290,8 @@
     <xf numFmtId="49" fontId="33" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="554">
@@ -3031,10 +3153,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X93"/>
+  <dimension ref="A1:X106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -3059,66 +3181,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="43" customHeight="1" thickBot="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
     </row>
     <row r="2" spans="1:24" ht="16" thickBot="1">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="95" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="93" t="s">
+      <c r="H2" s="99"/>
+      <c r="I2" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="93" t="s">
+      <c r="J2" s="99"/>
+      <c r="K2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="96"/>
-      <c r="M2" s="93" t="s">
+      <c r="L2" s="99"/>
+      <c r="M2" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="96"/>
+      <c r="N2" s="99"/>
       <c r="O2" s="27" t="s">
         <v>29</v>
       </c>
@@ -3149,10 +3271,10 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="15">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
@@ -3199,28 +3321,28 @@
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:24" s="6" customFormat="1" ht="16">
-      <c r="A4" s="86">
+      <c r="A4" s="84">
         <v>1</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="82"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="22"/>
       <c r="G4" s="32"/>
-      <c r="H4" s="44"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="32"/>
-      <c r="J4" s="49"/>
+      <c r="J4" s="48"/>
       <c r="K4" s="29"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="56"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="55"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="19"/>
@@ -3233,35 +3355,39 @@
       <c r="X4" s="13"/>
     </row>
     <row r="5" spans="1:24" s="6" customFormat="1" ht="60">
-      <c r="A5" s="86">
+      <c r="A5" s="84">
         <v>2</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="80" t="s">
         <v>124</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="22"/>
+        <v>138</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>190</v>
+      </c>
       <c r="I5" s="32"/>
-      <c r="J5" s="47"/>
+      <c r="J5" s="46"/>
       <c r="K5" s="37"/>
-      <c r="L5" s="53"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="29"/>
-      <c r="N5" s="70"/>
+      <c r="N5" s="68"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
-      <c r="Q5" s="80"/>
+      <c r="Q5" s="78"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
@@ -3270,36 +3396,40 @@
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A6" s="86">
+    <row r="6" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A6" s="84">
         <v>3</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="44"/>
+        <v>139</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>191</v>
+      </c>
       <c r="I6" s="32"/>
-      <c r="J6" s="50"/>
+      <c r="J6" s="49"/>
       <c r="K6" s="29"/>
-      <c r="L6" s="53"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="29"/>
-      <c r="N6" s="70"/>
+      <c r="N6" s="68"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
-      <c r="Q6" s="80"/>
+      <c r="Q6" s="78"/>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
@@ -3309,35 +3439,39 @@
       <c r="X6" s="13"/>
     </row>
     <row r="7" spans="1:24" s="6" customFormat="1" ht="60">
-      <c r="A7" s="86">
+      <c r="A7" s="84">
         <v>4</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="80" t="s">
         <v>124</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="59"/>
+        <v>140</v>
+      </c>
+      <c r="G7" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I7" s="40"/>
-      <c r="J7" s="67"/>
+      <c r="J7" s="65"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="70"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="68"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
-      <c r="Q7" s="80"/>
+      <c r="Q7" s="78"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -3347,35 +3481,39 @@
       <c r="X7" s="13"/>
     </row>
     <row r="8" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A8" s="86">
+      <c r="A8" s="84">
         <v>5</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="82" t="s">
-        <v>143</v>
+      <c r="E8" s="80" t="s">
+        <v>142</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="50"/>
+        <v>141</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>192</v>
+      </c>
       <c r="I8" s="29"/>
-      <c r="J8" s="51"/>
+      <c r="J8" s="50"/>
       <c r="K8" s="29"/>
-      <c r="L8" s="53"/>
+      <c r="L8" s="52"/>
       <c r="M8" s="29"/>
-      <c r="N8" s="71"/>
+      <c r="N8" s="69"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
-      <c r="Q8" s="80"/>
+      <c r="Q8" s="78"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
@@ -3385,35 +3523,39 @@
       <c r="X8" s="13"/>
     </row>
     <row r="9" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A9" s="86">
+      <c r="A9" s="84">
         <v>6</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="50"/>
+        <v>143</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I9" s="37"/>
-      <c r="J9" s="48"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="29"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="72"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="70"/>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
-      <c r="Q9" s="80"/>
+      <c r="Q9" s="78"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
@@ -3422,33 +3564,41 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A10" s="86">
+    <row r="10" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A10" s="84">
         <v>7</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="50"/>
+      <c r="E10" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I10" s="37"/>
-      <c r="J10" s="52"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="29"/>
-      <c r="L10" s="53"/>
+      <c r="L10" s="52"/>
       <c r="M10" s="29"/>
-      <c r="N10" s="70"/>
+      <c r="N10" s="68"/>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="62"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="60"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
@@ -3457,35 +3607,39 @@
       <c r="X10" s="13"/>
     </row>
     <row r="11" spans="1:24" s="6" customFormat="1" ht="75">
-      <c r="A11" s="86">
+      <c r="A11" s="84">
         <v>8</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="82" t="s">
-        <v>143</v>
+      <c r="E11" s="80" t="s">
+        <v>142</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="59"/>
+        <v>144</v>
+      </c>
+      <c r="G11" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>193</v>
+      </c>
       <c r="I11" s="32"/>
-      <c r="J11" s="67"/>
+      <c r="J11" s="65"/>
       <c r="K11" s="29"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="72"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="70"/>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
-      <c r="Q11" s="80"/>
+      <c r="Q11" s="78"/>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
@@ -3495,35 +3649,39 @@
       <c r="X11" s="13"/>
     </row>
     <row r="12" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A12" s="86">
+      <c r="A12" s="84">
         <v>9</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="22"/>
       <c r="I12" s="36"/>
-      <c r="J12" s="68"/>
+      <c r="J12" s="66"/>
       <c r="K12" s="29"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="73"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="71"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
-      <c r="Q12" s="80"/>
+      <c r="Q12" s="78"/>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
@@ -3532,36 +3690,40 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A13" s="86">
+    <row r="13" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A13" s="84">
         <v>10</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="87" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="87" t="s">
+      <c r="C13" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="118" t="s">
+      <c r="E13" s="89" t="s">
         <v>125</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="22"/>
+        <v>146</v>
+      </c>
+      <c r="G13" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>194</v>
+      </c>
       <c r="I13" s="37"/>
-      <c r="J13" s="52"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="29"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="72"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="70"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
-      <c r="Q13" s="80"/>
+      <c r="Q13" s="78"/>
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
@@ -3571,35 +3733,35 @@
       <c r="X13" s="13"/>
     </row>
     <row r="14" spans="1:24" s="6" customFormat="1" ht="60">
-      <c r="A14" s="86">
+      <c r="A14" s="84">
         <v>11</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="82" t="s">
+      <c r="E14" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G14" s="29"/>
-      <c r="H14" s="59"/>
+      <c r="H14" s="58"/>
       <c r="I14" s="37"/>
-      <c r="J14" s="48"/>
+      <c r="J14" s="47"/>
       <c r="K14" s="29"/>
-      <c r="L14" s="53"/>
+      <c r="L14" s="52"/>
       <c r="M14" s="29"/>
-      <c r="N14" s="70"/>
+      <c r="N14" s="68"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
-      <c r="Q14" s="80"/>
+      <c r="Q14" s="78"/>
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
@@ -3609,35 +3771,39 @@
       <c r="X14" s="13"/>
     </row>
     <row r="15" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A15" s="86">
+      <c r="A15" s="84">
         <v>12</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="82" t="s">
+      <c r="E15" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="22"/>
+        <v>149</v>
+      </c>
+      <c r="G15" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I15" s="36"/>
-      <c r="J15" s="52"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="29"/>
-      <c r="L15" s="53"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="29"/>
-      <c r="N15" s="70"/>
+      <c r="N15" s="68"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
-      <c r="Q15" s="80"/>
+      <c r="Q15" s="78"/>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
@@ -3647,35 +3813,39 @@
       <c r="X15" s="13"/>
     </row>
     <row r="16" spans="1:24" s="6" customFormat="1" ht="75">
-      <c r="A16" s="86">
+      <c r="A16" s="84">
         <v>13</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="87" t="s">
+      <c r="C16" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="81" t="s">
         <v>125</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="59"/>
+        <v>150</v>
+      </c>
+      <c r="G16" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I16" s="37"/>
-      <c r="J16" s="48"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="37"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="72"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="70"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
-      <c r="Q16" s="80"/>
+      <c r="Q16" s="78"/>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
@@ -3685,35 +3855,39 @@
       <c r="X16" s="13"/>
     </row>
     <row r="17" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A17" s="86">
+      <c r="A17" s="84">
         <v>14</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="82" t="s">
+      <c r="E17" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="59"/>
+        <v>152</v>
+      </c>
+      <c r="G17" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I17" s="37"/>
-      <c r="J17" s="52"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="29"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="72"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="70"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
-      <c r="Q17" s="80"/>
+      <c r="Q17" s="78"/>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
@@ -3723,35 +3897,39 @@
       <c r="X17" s="13"/>
     </row>
     <row r="18" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A18" s="86">
+      <c r="A18" s="84">
         <v>15</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="87" t="s">
+      <c r="D18" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="82" t="s">
+      <c r="E18" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="22"/>
+        <v>152</v>
+      </c>
+      <c r="G18" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I18" s="37"/>
-      <c r="J18" s="52"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="29"/>
-      <c r="L18" s="53"/>
+      <c r="L18" s="52"/>
       <c r="M18" s="29"/>
-      <c r="N18" s="72"/>
+      <c r="N18" s="70"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
-      <c r="Q18" s="80"/>
+      <c r="Q18" s="78"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
@@ -3761,35 +3939,39 @@
       <c r="X18" s="13"/>
     </row>
     <row r="19" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A19" s="86">
+      <c r="A19" s="84">
         <v>16</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="87" t="s">
+      <c r="C19" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="87" t="s">
+      <c r="D19" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="82" t="s">
+      <c r="E19" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="58"/>
+        <v>152</v>
+      </c>
+      <c r="G19" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I19" s="29"/>
-      <c r="J19" s="47"/>
+      <c r="J19" s="46"/>
       <c r="K19" s="29"/>
-      <c r="L19" s="53"/>
+      <c r="L19" s="52"/>
       <c r="M19" s="29"/>
-      <c r="N19" s="72"/>
+      <c r="N19" s="70"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
-      <c r="Q19" s="80"/>
+      <c r="Q19" s="78"/>
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
@@ -3798,36 +3980,40 @@
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
     </row>
-    <row r="20" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A20" s="86">
+    <row r="20" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A20" s="84">
         <v>17</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="87" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" s="87" t="s">
+      <c r="C20" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="81" t="s">
         <v>125</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="22"/>
+        <v>146</v>
+      </c>
+      <c r="G20" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>195</v>
+      </c>
       <c r="I20" s="37"/>
-      <c r="J20" s="52"/>
+      <c r="J20" s="51"/>
       <c r="K20" s="37"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="72"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="70"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
-      <c r="Q20" s="80"/>
+      <c r="Q20" s="78"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
@@ -3836,36 +4022,40 @@
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
     </row>
-    <row r="21" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A21" s="86">
+    <row r="21" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A21" s="84">
         <v>18</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="87" t="s">
+      <c r="D21" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="82" t="s">
+      <c r="E21" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="59"/>
+        <v>154</v>
+      </c>
+      <c r="G21" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I21" s="29"/>
-      <c r="J21" s="52"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="29"/>
-      <c r="L21" s="54"/>
+      <c r="L21" s="53"/>
       <c r="M21" s="29"/>
-      <c r="N21" s="72"/>
+      <c r="N21" s="70"/>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
-      <c r="Q21" s="80"/>
+      <c r="Q21" s="78"/>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
@@ -3875,35 +4065,39 @@
       <c r="X21" s="13"/>
     </row>
     <row r="22" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A22" s="86">
+      <c r="A22" s="84">
         <v>19</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="87" t="s">
+      <c r="C22" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="81" t="s">
         <v>125</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="59"/>
+        <v>155</v>
+      </c>
+      <c r="G22" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I22" s="37"/>
-      <c r="J22" s="48"/>
+      <c r="J22" s="47"/>
       <c r="K22" s="29"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="72"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="70"/>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
-      <c r="Q22" s="80"/>
+      <c r="Q22" s="78"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
@@ -3913,35 +4107,39 @@
       <c r="X22" s="13"/>
     </row>
     <row r="23" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A23" s="86">
+      <c r="A23" s="84">
         <v>20</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="87" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="87" t="s">
+      <c r="C23" s="85" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="82" t="s">
+      <c r="E23" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="59"/>
+        <v>156</v>
+      </c>
+      <c r="G23" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>195</v>
+      </c>
       <c r="I23" s="40"/>
-      <c r="J23" s="52"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="72"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="70"/>
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
-      <c r="Q23" s="80"/>
+      <c r="Q23" s="78"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
@@ -3950,36 +4148,40 @@
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
     </row>
-    <row r="24" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A24" s="86">
+    <row r="24" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A24" s="84">
         <v>21</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="87" t="s">
+      <c r="C24" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="83" t="s">
+      <c r="E24" s="81" t="s">
         <v>125</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="59"/>
+        <v>146</v>
+      </c>
+      <c r="G24" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I24" s="37"/>
-      <c r="J24" s="52"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="37"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="72"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="70"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
-      <c r="Q24" s="80"/>
+      <c r="Q24" s="78"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
@@ -3989,35 +4191,39 @@
       <c r="X24" s="13"/>
     </row>
     <row r="25" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A25" s="86">
+      <c r="A25" s="84">
         <v>22</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="87" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="87" t="s">
+      <c r="C25" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="83" t="s">
+      <c r="E25" s="81" t="s">
         <v>125</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="59"/>
+        <v>160</v>
+      </c>
+      <c r="G25" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I25" s="37"/>
-      <c r="J25" s="48"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="37"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="72"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="70"/>
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
-      <c r="Q25" s="80"/>
+      <c r="Q25" s="78"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
@@ -4027,35 +4233,35 @@
       <c r="X25" s="13"/>
     </row>
     <row r="26" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A26" s="86">
+      <c r="A26" s="84">
         <v>23</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="87" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" s="87" t="s">
+      <c r="C26" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="83" t="s">
+      <c r="E26" s="81" t="s">
         <v>125</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="43"/>
+        <v>155</v>
+      </c>
+      <c r="G26" s="81"/>
+      <c r="H26" s="46"/>
       <c r="I26" s="37"/>
-      <c r="J26" s="52"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="37"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="72"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="70"/>
       <c r="O26" s="20"/>
       <c r="P26" s="20"/>
-      <c r="Q26" s="80"/>
+      <c r="Q26" s="78"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
@@ -4064,36 +4270,40 @@
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
     </row>
-    <row r="27" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A27" s="86">
+    <row r="27" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A27" s="84">
         <v>24</v>
       </c>
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="87" t="s">
+      <c r="C27" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="87" t="s">
+      <c r="D27" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="82" t="s">
+      <c r="E27" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="59"/>
+        <v>163</v>
+      </c>
+      <c r="G27" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>195</v>
+      </c>
       <c r="I27" s="42"/>
-      <c r="J27" s="52"/>
+      <c r="J27" s="51"/>
       <c r="K27" s="37"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="72"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="70"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
-      <c r="Q27" s="80"/>
+      <c r="Q27" s="78"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
@@ -4102,36 +4312,40 @@
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
     </row>
-    <row r="28" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A28" s="86">
+    <row r="28" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A28" s="84">
         <v>25</v>
       </c>
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="87" t="s">
+      <c r="C28" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="87" t="s">
+      <c r="D28" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="82" t="s">
+      <c r="E28" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="59"/>
+        <v>163</v>
+      </c>
+      <c r="G28" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>195</v>
+      </c>
       <c r="I28" s="37"/>
-      <c r="J28" s="69"/>
+      <c r="J28" s="67"/>
       <c r="K28" s="37"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="72"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="70"/>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
-      <c r="Q28" s="80"/>
+      <c r="Q28" s="78"/>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
@@ -4141,35 +4355,39 @@
       <c r="X28" s="13"/>
     </row>
     <row r="29" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A29" s="86">
+      <c r="A29" s="84">
         <v>26</v>
       </c>
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="87" t="s">
+      <c r="D29" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="82" t="s">
+      <c r="E29" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="21"/>
+        <v>163</v>
+      </c>
+      <c r="G29" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I29" s="37"/>
-      <c r="J29" s="48"/>
+      <c r="J29" s="47"/>
       <c r="K29" s="40"/>
-      <c r="L29" s="53"/>
+      <c r="L29" s="52"/>
       <c r="M29" s="29"/>
-      <c r="N29" s="74"/>
+      <c r="N29" s="72"/>
       <c r="O29" s="20"/>
       <c r="P29" s="20"/>
-      <c r="Q29" s="80"/>
+      <c r="Q29" s="78"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
@@ -4179,31 +4397,31 @@
       <c r="X29" s="13"/>
     </row>
     <row r="30" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A30" s="86">
+      <c r="A30" s="84">
         <v>27</v>
       </c>
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="87" t="s">
+      <c r="C30" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="87" t="s">
+      <c r="D30" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="82"/>
+      <c r="E30" s="80"/>
       <c r="F30" s="21"/>
       <c r="G30" s="36"/>
-      <c r="H30" s="47"/>
+      <c r="H30" s="46"/>
       <c r="I30" s="29"/>
-      <c r="J30" s="47"/>
+      <c r="J30" s="46"/>
       <c r="K30" s="36"/>
-      <c r="L30" s="53"/>
+      <c r="L30" s="52"/>
       <c r="M30" s="29"/>
-      <c r="N30" s="53"/>
+      <c r="N30" s="52"/>
       <c r="O30" s="20"/>
       <c r="P30" s="20"/>
-      <c r="Q30" s="80"/>
+      <c r="Q30" s="78"/>
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
@@ -4212,36 +4430,40 @@
       <c r="W30" s="13"/>
       <c r="X30" s="13"/>
     </row>
-    <row r="31" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A31" s="86">
+    <row r="31" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A31" s="84">
         <v>28</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="87" t="s">
+      <c r="C31" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="87" t="s">
+      <c r="D31" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="82" t="s">
+      <c r="E31" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="45"/>
+        <v>163</v>
+      </c>
+      <c r="G31" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>195</v>
+      </c>
       <c r="I31" s="29"/>
-      <c r="J31" s="51"/>
+      <c r="J31" s="50"/>
       <c r="K31" s="36"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="72"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="70"/>
       <c r="O31" s="20"/>
       <c r="P31" s="20"/>
-      <c r="Q31" s="80"/>
+      <c r="Q31" s="78"/>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
       <c r="T31" s="13"/>
@@ -4251,35 +4473,39 @@
       <c r="X31" s="13"/>
     </row>
     <row r="32" spans="1:24" s="6" customFormat="1" ht="60">
-      <c r="A32" s="86">
+      <c r="A32" s="84">
         <v>29</v>
       </c>
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="87" t="s">
+      <c r="D32" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="82" t="s">
+      <c r="E32" s="80" t="s">
         <v>124</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="G32" s="36"/>
-      <c r="H32" s="21"/>
+        <v>164</v>
+      </c>
+      <c r="G32" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I32" s="32"/>
-      <c r="J32" s="48"/>
+      <c r="J32" s="47"/>
       <c r="K32" s="36"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="72"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="70"/>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
-      <c r="Q32" s="80"/>
+      <c r="Q32" s="78"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
@@ -4289,35 +4515,39 @@
       <c r="X32" s="13"/>
     </row>
     <row r="33" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A33" s="86">
+      <c r="A33" s="84">
         <v>30</v>
       </c>
-      <c r="B33" s="86" t="s">
+      <c r="B33" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="87" t="s">
+      <c r="D33" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="82" t="s">
+      <c r="E33" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G33" s="36"/>
-      <c r="H33" s="59"/>
+        <v>163</v>
+      </c>
+      <c r="G33" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I33" s="36"/>
-      <c r="J33" s="47"/>
+      <c r="J33" s="46"/>
       <c r="K33" s="36"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="52"/>
       <c r="O33" s="20"/>
       <c r="P33" s="20"/>
-      <c r="Q33" s="80"/>
+      <c r="Q33" s="78"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
@@ -4327,35 +4557,35 @@
       <c r="X33" s="13"/>
     </row>
     <row r="34" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A34" s="86">
+      <c r="A34" s="84">
         <v>31</v>
       </c>
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="87" t="s">
+      <c r="C34" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="87" t="s">
+      <c r="D34" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="82" t="s">
+      <c r="E34" s="80" t="s">
         <v>124</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G34" s="36"/>
-      <c r="H34" s="46"/>
+      <c r="H34" s="45"/>
       <c r="I34" s="37"/>
-      <c r="J34" s="47"/>
+      <c r="J34" s="46"/>
       <c r="K34" s="36"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="52"/>
       <c r="O34" s="20"/>
       <c r="P34" s="20"/>
-      <c r="Q34" s="80"/>
+      <c r="Q34" s="78"/>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
       <c r="T34" s="13"/>
@@ -4365,35 +4595,39 @@
       <c r="X34" s="13"/>
     </row>
     <row r="35" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A35" s="86">
+      <c r="A35" s="84">
         <v>32</v>
       </c>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="87" t="s">
+      <c r="C35" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="87" t="s">
+      <c r="D35" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="82" t="s">
+      <c r="E35" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="42"/>
+        <v>163</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>196</v>
+      </c>
       <c r="I35" s="36"/>
-      <c r="J35" s="47"/>
+      <c r="J35" s="46"/>
       <c r="K35" s="36"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="53"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="52"/>
       <c r="O35" s="20"/>
       <c r="P35" s="20"/>
-      <c r="Q35" s="80"/>
+      <c r="Q35" s="78"/>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
       <c r="T35" s="13"/>
@@ -4403,35 +4637,39 @@
       <c r="X35" s="13"/>
     </row>
     <row r="36" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A36" s="86">
+      <c r="A36" s="84">
         <v>33</v>
       </c>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="87" t="s">
+      <c r="C36" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="87" t="s">
+      <c r="D36" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="82" t="s">
+      <c r="E36" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="45"/>
+        <v>163</v>
+      </c>
+      <c r="G36" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I36" s="37"/>
-      <c r="J36" s="47"/>
+      <c r="J36" s="46"/>
       <c r="K36" s="29"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="72"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="70"/>
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
-      <c r="Q36" s="80"/>
+      <c r="Q36" s="78"/>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
       <c r="T36" s="13"/>
@@ -4440,36 +4678,40 @@
       <c r="W36" s="13"/>
       <c r="X36" s="13"/>
     </row>
-    <row r="37" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A37" s="86">
+    <row r="37" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A37" s="84">
         <v>34</v>
       </c>
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="87" t="s">
+      <c r="C37" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="87" t="s">
+      <c r="D37" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="82" t="s">
+      <c r="E37" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="46"/>
+        <v>163</v>
+      </c>
+      <c r="G37" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>195</v>
+      </c>
       <c r="I37" s="32"/>
-      <c r="J37" s="47"/>
+      <c r="J37" s="46"/>
       <c r="K37" s="29"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="72"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="70"/>
       <c r="O37" s="20"/>
       <c r="P37" s="20"/>
-      <c r="Q37" s="80"/>
+      <c r="Q37" s="78"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
@@ -4478,36 +4720,40 @@
       <c r="W37" s="13"/>
       <c r="X37" s="13"/>
     </row>
-    <row r="38" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A38" s="86">
+    <row r="38" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A38" s="84">
         <v>35</v>
       </c>
-      <c r="B38" s="86" t="s">
+      <c r="B38" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="87" t="s">
-        <v>167</v>
-      </c>
-      <c r="D38" s="87" t="s">
+      <c r="C38" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="83" t="s">
+      <c r="E38" s="81" t="s">
         <v>125</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="45"/>
+        <v>146</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" s="44" t="s">
+        <v>197</v>
+      </c>
       <c r="I38" s="37"/>
-      <c r="J38" s="52"/>
+      <c r="J38" s="51"/>
       <c r="K38" s="29"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="72"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="70"/>
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
-      <c r="Q38" s="80"/>
+      <c r="Q38" s="78"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
       <c r="T38" s="13"/>
@@ -4517,35 +4763,39 @@
       <c r="X38" s="13"/>
     </row>
     <row r="39" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A39" s="86">
+      <c r="A39" s="84">
         <v>36</v>
       </c>
-      <c r="B39" s="86" t="s">
+      <c r="B39" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="87" t="s">
+      <c r="C39" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="87" t="s">
+      <c r="D39" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="82" t="s">
+      <c r="E39" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="45"/>
+        <v>163</v>
+      </c>
+      <c r="G39" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I39" s="37"/>
-      <c r="J39" s="47"/>
+      <c r="J39" s="46"/>
       <c r="K39" s="29"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="72"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="70"/>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
-      <c r="Q39" s="80"/>
+      <c r="Q39" s="78"/>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
       <c r="T39" s="13"/>
@@ -4555,35 +4805,39 @@
       <c r="X39" s="13"/>
     </row>
     <row r="40" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A40" s="86">
+      <c r="A40" s="84">
         <v>37</v>
       </c>
-      <c r="B40" s="86" t="s">
+      <c r="B40" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="87" t="s">
+      <c r="D40" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="82" t="s">
+      <c r="E40" s="80" t="s">
         <v>120</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="45"/>
+      <c r="G40" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I40" s="37"/>
-      <c r="J40" s="47"/>
+      <c r="J40" s="46"/>
       <c r="K40" s="29"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="72"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="70"/>
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
-      <c r="Q40" s="80"/>
+      <c r="Q40" s="78"/>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
       <c r="T40" s="13"/>
@@ -4593,36 +4847,36 @@
       <c r="X40" s="13"/>
     </row>
     <row r="41" spans="1:24" s="6" customFormat="1" ht="75">
-      <c r="A41" s="86">
+      <c r="A41" s="84">
         <v>38</v>
       </c>
-      <c r="B41" s="86" t="s">
+      <c r="B41" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="87" t="s">
+      <c r="C41" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="87" t="s">
+      <c r="D41" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="82" t="s">
+      <c r="E41" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F41" s="33" t="s">
         <v>121</v>
       </c>
       <c r="G41" s="29"/>
-      <c r="H41" s="45"/>
+      <c r="H41" s="41"/>
       <c r="I41" s="37"/>
-      <c r="J41" s="47"/>
+      <c r="J41" s="46"/>
       <c r="K41" s="29"/>
       <c r="L41" s="23"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="72"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="70"/>
       <c r="O41" s="20"/>
       <c r="P41" s="20"/>
-      <c r="Q41" s="80"/>
-      <c r="R41" s="62"/>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="60"/>
       <c r="S41" s="13"/>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
@@ -4630,36 +4884,40 @@
       <c r="W41" s="13"/>
       <c r="X41" s="13"/>
     </row>
-    <row r="42" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A42" s="86">
+    <row r="42" spans="1:24" s="6" customFormat="1" ht="75">
+      <c r="A42" s="84">
         <v>39</v>
       </c>
-      <c r="B42" s="86" t="s">
+      <c r="B42" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="87" t="s">
+      <c r="C42" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="87" t="s">
+      <c r="D42" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="82" t="s">
+      <c r="E42" s="80" t="s">
         <v>124</v>
       </c>
       <c r="F42" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="G42" s="36"/>
-      <c r="H42" s="41"/>
+      <c r="G42" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>186</v>
+      </c>
       <c r="I42" s="40"/>
-      <c r="J42" s="48"/>
+      <c r="J42" s="47"/>
       <c r="K42" s="29"/>
       <c r="L42" s="23"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="72"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="70"/>
       <c r="O42" s="20"/>
       <c r="P42" s="20"/>
-      <c r="Q42" s="80"/>
+      <c r="Q42" s="78"/>
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
       <c r="T42" s="13"/>
@@ -4669,35 +4927,39 @@
       <c r="X42" s="13"/>
     </row>
     <row r="43" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A43" s="86">
+      <c r="A43" s="84">
         <v>40</v>
       </c>
-      <c r="B43" s="86" t="s">
+      <c r="B43" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="87" t="s">
+      <c r="C43" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="87" t="s">
+      <c r="D43" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="E43" s="81" t="s">
         <v>125</v>
       </c>
       <c r="F43" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="36"/>
-      <c r="H43" s="45"/>
+      <c r="G43" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H43" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I43" s="29"/>
-      <c r="J43" s="52"/>
+      <c r="J43" s="51"/>
       <c r="K43" s="29"/>
       <c r="L43" s="23"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="53"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="52"/>
       <c r="O43" s="20"/>
       <c r="P43" s="20"/>
-      <c r="Q43" s="80"/>
+      <c r="Q43" s="78"/>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
       <c r="T43" s="13"/>
@@ -4707,35 +4969,39 @@
       <c r="X43" s="13"/>
     </row>
     <row r="44" spans="1:24" s="6" customFormat="1" ht="60">
-      <c r="A44" s="86">
+      <c r="A44" s="84">
         <v>41</v>
       </c>
-      <c r="B44" s="86" t="s">
+      <c r="B44" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="87" t="s">
+      <c r="C44" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="87" t="s">
+      <c r="D44" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="82" t="s">
+      <c r="E44" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F44" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="G44" s="36"/>
-      <c r="H44" s="45"/>
+      <c r="G44" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>187</v>
+      </c>
       <c r="I44" s="37"/>
-      <c r="J44" s="47"/>
+      <c r="J44" s="46"/>
       <c r="K44" s="29"/>
       <c r="L44" s="23"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="53"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="52"/>
       <c r="O44" s="20"/>
       <c r="P44" s="20"/>
-      <c r="Q44" s="80"/>
+      <c r="Q44" s="78"/>
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
       <c r="T44" s="13"/>
@@ -4744,36 +5010,40 @@
       <c r="W44" s="13"/>
       <c r="X44" s="13"/>
     </row>
-    <row r="45" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A45" s="86">
+    <row r="45" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A45" s="84">
         <v>42</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="87" t="s">
+      <c r="C45" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="87" t="s">
+      <c r="D45" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="82" t="s">
+      <c r="E45" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F45" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="G45" s="36"/>
-      <c r="H45" s="45"/>
+      <c r="G45" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>188</v>
+      </c>
       <c r="I45" s="37"/>
-      <c r="J45" s="47"/>
+      <c r="J45" s="46"/>
       <c r="K45" s="37"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="72"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="70"/>
       <c r="O45" s="20"/>
       <c r="P45" s="20"/>
-      <c r="Q45" s="80"/>
+      <c r="Q45" s="78"/>
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
       <c r="T45" s="13"/>
@@ -4783,35 +5053,39 @@
       <c r="X45" s="13"/>
     </row>
     <row r="46" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A46" s="86">
+      <c r="A46" s="84">
         <v>43</v>
       </c>
-      <c r="B46" s="86" t="s">
+      <c r="B46" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="87" t="s">
+      <c r="C46" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="87" t="s">
+      <c r="D46" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="83" t="s">
+      <c r="E46" s="81" t="s">
         <v>125</v>
       </c>
       <c r="F46" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="G46" s="32"/>
-      <c r="H46" s="38"/>
+      <c r="G46" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I46" s="37"/>
-      <c r="J46" s="47"/>
+      <c r="J46" s="46"/>
       <c r="K46" s="37"/>
       <c r="L46" s="23"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="72"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="70"/>
       <c r="O46" s="20"/>
       <c r="P46" s="20"/>
-      <c r="Q46" s="80"/>
+      <c r="Q46" s="78"/>
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
       <c r="T46" s="13"/>
@@ -4821,35 +5095,39 @@
       <c r="X46" s="13"/>
     </row>
     <row r="47" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A47" s="86">
+      <c r="A47" s="84">
         <v>44</v>
       </c>
-      <c r="B47" s="86" t="s">
+      <c r="B47" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="87" t="s">
+      <c r="C47" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="87" t="s">
+      <c r="D47" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="82" t="s">
+      <c r="E47" s="80" t="s">
         <v>122</v>
       </c>
       <c r="F47" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="45"/>
+      <c r="G47" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I47" s="29"/>
-      <c r="J47" s="52"/>
+      <c r="J47" s="51"/>
       <c r="K47" s="37"/>
       <c r="L47" s="23"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="53"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="52"/>
       <c r="O47" s="20"/>
       <c r="P47" s="20"/>
-      <c r="Q47" s="80"/>
+      <c r="Q47" s="78"/>
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
       <c r="T47" s="13"/>
@@ -4858,37 +5136,41 @@
       <c r="W47" s="13"/>
       <c r="X47" s="13"/>
     </row>
-    <row r="48" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A48" s="86">
+    <row r="48" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A48" s="84">
         <v>45</v>
       </c>
-      <c r="B48" s="86" t="s">
+      <c r="B48" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="87" t="s">
+      <c r="C48" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="87" t="s">
+      <c r="D48" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="83" t="s">
+      <c r="E48" s="81" t="s">
         <v>125</v>
       </c>
       <c r="F48" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="45"/>
+      <c r="G48" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="H48" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I48" s="36"/>
-      <c r="J48" s="48"/>
+      <c r="J48" s="47"/>
       <c r="K48" s="36"/>
       <c r="L48" s="23"/>
-      <c r="M48" s="79"/>
-      <c r="N48" s="72"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="70"/>
       <c r="O48" s="20"/>
       <c r="P48" s="20"/>
-      <c r="Q48" s="80"/>
-      <c r="R48" s="62"/>
+      <c r="Q48" s="78"/>
+      <c r="R48" s="60"/>
       <c r="S48" s="13"/>
       <c r="T48" s="13"/>
       <c r="U48" s="13"/>
@@ -4897,35 +5179,39 @@
       <c r="X48" s="13"/>
     </row>
     <row r="49" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A49" s="86">
+      <c r="A49" s="84">
         <v>46</v>
       </c>
-      <c r="B49" s="86" t="s">
+      <c r="B49" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="87" t="s">
+      <c r="C49" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="87" t="s">
+      <c r="D49" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="82" t="s">
+      <c r="E49" s="80" t="s">
         <v>124</v>
       </c>
       <c r="F49" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G49" s="37"/>
-      <c r="H49" s="41"/>
+      <c r="G49" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="H49" s="46" t="s">
+        <v>146</v>
+      </c>
       <c r="I49" s="37"/>
-      <c r="J49" s="47"/>
+      <c r="J49" s="46"/>
       <c r="K49" s="37"/>
       <c r="L49" s="23"/>
       <c r="M49" s="29"/>
-      <c r="N49" s="53"/>
+      <c r="N49" s="52"/>
       <c r="O49" s="20"/>
       <c r="P49" s="20"/>
-      <c r="Q49" s="80"/>
+      <c r="Q49" s="78"/>
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
       <c r="T49" s="13"/>
@@ -4935,33 +5221,33 @@
       <c r="X49" s="13"/>
     </row>
     <row r="50" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A50" s="86">
+      <c r="A50" s="84">
         <v>47</v>
       </c>
-      <c r="B50" s="119">
+      <c r="B50" s="90">
         <v>71117328</v>
       </c>
-      <c r="C50" s="117" t="s">
+      <c r="C50" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="84"/>
+      <c r="E50" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="D50" s="86"/>
-      <c r="E50" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50" s="33" t="s">
-        <v>138</v>
-      </c>
       <c r="G50" s="29"/>
-      <c r="H50" s="45"/>
+      <c r="H50" s="44"/>
       <c r="I50" s="37"/>
-      <c r="J50" s="48"/>
+      <c r="J50" s="47"/>
       <c r="K50" s="37"/>
       <c r="L50" s="23"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="53"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="52"/>
       <c r="O50" s="20"/>
       <c r="P50" s="20"/>
-      <c r="Q50" s="80"/>
+      <c r="Q50" s="78"/>
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
       <c r="T50" s="13"/>
@@ -4971,25 +5257,25 @@
       <c r="X50" s="13"/>
     </row>
     <row r="51" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A51" s="86">
+      <c r="A51" s="84">
         <v>48</v>
       </c>
-      <c r="B51" s="86"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="82"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="80"/>
       <c r="F51" s="33"/>
       <c r="G51" s="36"/>
       <c r="H51" s="38"/>
       <c r="I51" s="36"/>
-      <c r="J51" s="48"/>
+      <c r="J51" s="47"/>
       <c r="K51" s="29"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="72"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="70"/>
       <c r="O51" s="20"/>
       <c r="P51" s="20"/>
-      <c r="Q51" s="80"/>
+      <c r="Q51" s="78"/>
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
@@ -4999,25 +5285,25 @@
       <c r="X51" s="13"/>
     </row>
     <row r="52" spans="1:24" s="7" customFormat="1" ht="17">
-      <c r="A52" s="86">
+      <c r="A52" s="84">
         <v>49</v>
       </c>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="82"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="80"/>
       <c r="F52" s="33"/>
       <c r="G52" s="37"/>
-      <c r="H52" s="46"/>
+      <c r="H52" s="45"/>
       <c r="I52" s="37"/>
-      <c r="J52" s="47"/>
+      <c r="J52" s="46"/>
       <c r="K52" s="37"/>
       <c r="L52" s="23"/>
-      <c r="M52" s="55"/>
-      <c r="N52" s="75"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="73"/>
       <c r="O52" s="20"/>
       <c r="P52" s="20"/>
-      <c r="Q52" s="80"/>
+      <c r="Q52" s="78"/>
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
       <c r="T52" s="13"/>
@@ -5027,25 +5313,25 @@
       <c r="X52" s="13"/>
     </row>
     <row r="53" spans="1:24" s="6" customFormat="1" ht="18" thickBot="1">
-      <c r="A53" s="86">
+      <c r="A53" s="84">
         <v>50</v>
       </c>
-      <c r="B53" s="86"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="82"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="80"/>
       <c r="F53" s="33"/>
       <c r="G53" s="36"/>
       <c r="H53" s="38"/>
       <c r="I53" s="37"/>
-      <c r="J53" s="47"/>
+      <c r="J53" s="46"/>
       <c r="K53" s="37"/>
       <c r="L53" s="23"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="53"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="52"/>
       <c r="O53" s="20"/>
       <c r="P53" s="20"/>
-      <c r="Q53" s="80"/>
+      <c r="Q53" s="78"/>
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
       <c r="T53" s="13"/>
@@ -5055,25 +5341,25 @@
       <c r="X53" s="13"/>
     </row>
     <row r="54" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A54" s="86">
+      <c r="A54" s="84">
         <v>51</v>
       </c>
-      <c r="B54" s="86"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="82"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="80"/>
       <c r="F54" s="33"/>
       <c r="G54" s="29"/>
-      <c r="H54" s="45"/>
+      <c r="H54" s="44"/>
       <c r="I54" s="37"/>
-      <c r="J54" s="52"/>
+      <c r="J54" s="51"/>
       <c r="K54" s="29"/>
       <c r="L54" s="23"/>
-      <c r="M54" s="55"/>
-      <c r="N54" s="72"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="70"/>
       <c r="O54" s="20"/>
       <c r="P54" s="20"/>
-      <c r="Q54" s="80"/>
+      <c r="Q54" s="78"/>
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
       <c r="T54" s="13"/>
@@ -5083,25 +5369,25 @@
       <c r="X54" s="13"/>
     </row>
     <row r="55" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A55" s="86">
+      <c r="A55" s="84">
         <v>52</v>
       </c>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="82"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="80"/>
       <c r="F55" s="33"/>
       <c r="G55" s="37"/>
       <c r="H55" s="42"/>
       <c r="I55" s="37"/>
-      <c r="J55" s="52"/>
+      <c r="J55" s="51"/>
       <c r="K55" s="37"/>
       <c r="L55" s="23"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="72"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="70"/>
       <c r="O55" s="20"/>
       <c r="P55" s="20"/>
-      <c r="Q55" s="80"/>
+      <c r="Q55" s="78"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
@@ -5111,25 +5397,25 @@
       <c r="X55" s="13"/>
     </row>
     <row r="56" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A56" s="86">
+      <c r="A56" s="84">
         <v>53</v>
       </c>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="82"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="80"/>
       <c r="F56" s="33"/>
       <c r="G56" s="36"/>
-      <c r="H56" s="61"/>
+      <c r="H56" s="59"/>
       <c r="I56" s="36"/>
-      <c r="J56" s="52"/>
+      <c r="J56" s="51"/>
       <c r="K56" s="29"/>
       <c r="L56" s="23"/>
-      <c r="M56" s="55"/>
-      <c r="N56" s="75"/>
+      <c r="M56" s="54"/>
+      <c r="N56" s="73"/>
       <c r="O56" s="20"/>
       <c r="P56" s="20"/>
-      <c r="Q56" s="80"/>
+      <c r="Q56" s="78"/>
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
       <c r="T56" s="13"/>
@@ -5139,25 +5425,25 @@
       <c r="X56" s="13"/>
     </row>
     <row r="57" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A57" s="86">
+      <c r="A57" s="84">
         <v>54</v>
       </c>
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="82"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="80"/>
       <c r="F57" s="21"/>
       <c r="G57" s="37"/>
-      <c r="H57" s="46"/>
+      <c r="H57" s="45"/>
       <c r="I57" s="37"/>
-      <c r="J57" s="52"/>
+      <c r="J57" s="51"/>
       <c r="K57" s="29"/>
       <c r="L57" s="23"/>
-      <c r="M57" s="55"/>
-      <c r="N57" s="75"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="73"/>
       <c r="O57" s="20"/>
       <c r="P57" s="20"/>
-      <c r="Q57" s="80"/>
+      <c r="Q57" s="78"/>
       <c r="R57" s="13"/>
       <c r="S57" s="13"/>
       <c r="T57" s="13"/>
@@ -5167,25 +5453,25 @@
       <c r="X57" s="13"/>
     </row>
     <row r="58" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A58" s="86">
+      <c r="A58" s="84">
         <v>55</v>
       </c>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="82"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="80"/>
       <c r="F58" s="21"/>
       <c r="G58" s="40"/>
-      <c r="H58" s="45"/>
+      <c r="H58" s="44"/>
       <c r="I58" s="37"/>
-      <c r="J58" s="47"/>
+      <c r="J58" s="46"/>
       <c r="K58" s="29"/>
       <c r="L58" s="23"/>
       <c r="M58" s="29"/>
-      <c r="N58" s="75"/>
+      <c r="N58" s="73"/>
       <c r="O58" s="20"/>
       <c r="P58" s="20"/>
-      <c r="Q58" s="80"/>
+      <c r="Q58" s="78"/>
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
       <c r="T58" s="13"/>
@@ -5195,25 +5481,25 @@
       <c r="X58" s="13"/>
     </row>
     <row r="59" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A59" s="86">
+      <c r="A59" s="84">
         <v>56</v>
       </c>
-      <c r="B59" s="86"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="82"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="80"/>
       <c r="F59" s="21"/>
       <c r="G59" s="37"/>
-      <c r="H59" s="65"/>
+      <c r="H59" s="63"/>
       <c r="I59" s="36"/>
-      <c r="J59" s="52"/>
+      <c r="J59" s="51"/>
       <c r="K59" s="29"/>
       <c r="L59" s="23"/>
-      <c r="M59" s="55"/>
-      <c r="N59" s="72"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="70"/>
       <c r="O59" s="20"/>
       <c r="P59" s="20"/>
-      <c r="Q59" s="80"/>
+      <c r="Q59" s="78"/>
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
       <c r="T59" s="13"/>
@@ -5223,25 +5509,25 @@
       <c r="X59" s="13"/>
     </row>
     <row r="60" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A60" s="86">
+      <c r="A60" s="84">
         <v>57</v>
       </c>
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="86"/>
-      <c r="E60" s="82"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="80"/>
       <c r="F60" s="21"/>
       <c r="G60" s="29"/>
-      <c r="H60" s="45"/>
+      <c r="H60" s="44"/>
       <c r="I60" s="29"/>
-      <c r="J60" s="52"/>
+      <c r="J60" s="51"/>
       <c r="K60" s="29"/>
       <c r="L60" s="20"/>
       <c r="M60" s="20"/>
-      <c r="N60" s="75"/>
+      <c r="N60" s="73"/>
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
-      <c r="Q60" s="80"/>
+      <c r="Q60" s="78"/>
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
       <c r="T60" s="13"/>
@@ -5251,25 +5537,25 @@
       <c r="X60" s="13"/>
     </row>
     <row r="61" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A61" s="86">
+      <c r="A61" s="84">
         <v>58</v>
       </c>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="82"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="80"/>
       <c r="F61" s="21"/>
       <c r="G61" s="29"/>
-      <c r="H61" s="65"/>
+      <c r="H61" s="63"/>
       <c r="I61" s="36"/>
-      <c r="J61" s="52"/>
+      <c r="J61" s="51"/>
       <c r="K61" s="29"/>
       <c r="L61" s="23"/>
-      <c r="M61" s="55"/>
-      <c r="N61" s="72"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="70"/>
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
-      <c r="Q61" s="80"/>
+      <c r="Q61" s="78"/>
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
       <c r="T61" s="13"/>
@@ -5279,25 +5565,25 @@
       <c r="X61" s="13"/>
     </row>
     <row r="62" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A62" s="86">
+      <c r="A62" s="84">
         <v>59</v>
       </c>
-      <c r="B62" s="86"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="82"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="80"/>
       <c r="F62" s="21"/>
       <c r="G62" s="36"/>
-      <c r="H62" s="65"/>
+      <c r="H62" s="63"/>
       <c r="I62" s="36"/>
-      <c r="J62" s="52"/>
+      <c r="J62" s="51"/>
       <c r="K62" s="29"/>
       <c r="L62" s="23"/>
       <c r="M62" s="29"/>
-      <c r="N62" s="75"/>
+      <c r="N62" s="73"/>
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
-      <c r="Q62" s="80"/>
+      <c r="Q62" s="78"/>
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
       <c r="T62" s="13"/>
@@ -5307,25 +5593,25 @@
       <c r="X62" s="13"/>
     </row>
     <row r="63" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A63" s="86">
+      <c r="A63" s="84">
         <v>60</v>
       </c>
-      <c r="B63" s="86"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="86"/>
-      <c r="E63" s="84"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="82"/>
       <c r="F63" s="34"/>
       <c r="G63" s="29"/>
-      <c r="H63" s="45"/>
+      <c r="H63" s="44"/>
       <c r="I63" s="37"/>
-      <c r="J63" s="52"/>
+      <c r="J63" s="51"/>
       <c r="K63" s="29"/>
       <c r="L63" s="23"/>
       <c r="M63" s="29"/>
-      <c r="N63" s="75"/>
+      <c r="N63" s="73"/>
       <c r="O63" s="20"/>
       <c r="P63" s="20"/>
-      <c r="Q63" s="80"/>
+      <c r="Q63" s="78"/>
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
       <c r="T63" s="13"/>
@@ -5335,25 +5621,25 @@
       <c r="X63" s="13"/>
     </row>
     <row r="64" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A64" s="86">
+      <c r="A64" s="84">
         <v>61</v>
       </c>
-      <c r="B64" s="86"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="84"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="82"/>
       <c r="F64" s="34"/>
       <c r="G64" s="29"/>
-      <c r="H64" s="45"/>
+      <c r="H64" s="44"/>
       <c r="I64" s="37"/>
-      <c r="J64" s="47"/>
+      <c r="J64" s="46"/>
       <c r="K64" s="29"/>
       <c r="L64" s="23"/>
       <c r="M64" s="29"/>
-      <c r="N64" s="75"/>
+      <c r="N64" s="73"/>
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
-      <c r="Q64" s="80"/>
+      <c r="Q64" s="78"/>
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
       <c r="T64" s="13"/>
@@ -5363,25 +5649,25 @@
       <c r="X64" s="13"/>
     </row>
     <row r="65" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A65" s="86">
+      <c r="A65" s="84">
         <v>62</v>
       </c>
-      <c r="B65" s="86"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="82"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="80"/>
       <c r="F65" s="22"/>
       <c r="G65" s="29"/>
-      <c r="H65" s="65"/>
+      <c r="H65" s="63"/>
       <c r="I65" s="36"/>
-      <c r="J65" s="47"/>
+      <c r="J65" s="46"/>
       <c r="K65" s="29"/>
       <c r="L65" s="23"/>
       <c r="M65" s="29"/>
-      <c r="N65" s="75"/>
+      <c r="N65" s="73"/>
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
-      <c r="Q65" s="80"/>
+      <c r="Q65" s="78"/>
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
       <c r="T65" s="13"/>
@@ -5391,25 +5677,25 @@
       <c r="X65" s="13"/>
     </row>
     <row r="66" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A66" s="86">
+      <c r="A66" s="84">
         <v>63</v>
       </c>
-      <c r="B66" s="86"/>
-      <c r="C66" s="86"/>
-      <c r="D66" s="86"/>
-      <c r="E66" s="82"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="80"/>
       <c r="F66" s="21"/>
       <c r="G66" s="32"/>
-      <c r="H66" s="65"/>
+      <c r="H66" s="63"/>
       <c r="I66" s="29"/>
-      <c r="J66" s="47"/>
+      <c r="J66" s="46"/>
       <c r="K66" s="29"/>
       <c r="L66" s="23"/>
       <c r="M66" s="29"/>
-      <c r="N66" s="75"/>
+      <c r="N66" s="73"/>
       <c r="O66" s="20"/>
       <c r="P66" s="20"/>
-      <c r="Q66" s="80"/>
+      <c r="Q66" s="78"/>
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
       <c r="T66" s="13"/>
@@ -5419,25 +5705,25 @@
       <c r="X66" s="13"/>
     </row>
     <row r="67" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A67" s="86">
+      <c r="A67" s="84">
         <v>64</v>
       </c>
-      <c r="B67" s="86"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="82"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="80"/>
       <c r="F67" s="21"/>
       <c r="G67" s="37"/>
-      <c r="H67" s="46"/>
+      <c r="H67" s="45"/>
       <c r="I67" s="29"/>
-      <c r="J67" s="52"/>
+      <c r="J67" s="51"/>
       <c r="K67" s="29"/>
       <c r="L67" s="23"/>
       <c r="M67" s="29"/>
-      <c r="N67" s="75"/>
+      <c r="N67" s="73"/>
       <c r="O67" s="20"/>
       <c r="P67" s="20"/>
-      <c r="Q67" s="80"/>
+      <c r="Q67" s="78"/>
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
       <c r="T67" s="13"/>
@@ -5447,25 +5733,25 @@
       <c r="X67" s="13"/>
     </row>
     <row r="68" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A68" s="86">
+      <c r="A68" s="84">
         <v>65</v>
       </c>
-      <c r="B68" s="86"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="85"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="83"/>
       <c r="F68" s="21"/>
       <c r="G68" s="37"/>
-      <c r="H68" s="65"/>
+      <c r="H68" s="63"/>
       <c r="I68" s="37"/>
-      <c r="J68" s="52"/>
+      <c r="J68" s="51"/>
       <c r="K68" s="29"/>
       <c r="L68" s="23"/>
       <c r="M68" s="29"/>
-      <c r="N68" s="75"/>
+      <c r="N68" s="73"/>
       <c r="O68" s="20"/>
       <c r="P68" s="20"/>
-      <c r="Q68" s="80"/>
+      <c r="Q68" s="78"/>
       <c r="R68" s="13"/>
       <c r="S68" s="13"/>
       <c r="T68" s="13"/>
@@ -5475,25 +5761,25 @@
       <c r="X68" s="13"/>
     </row>
     <row r="69" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A69" s="86">
+      <c r="A69" s="84">
         <v>66</v>
       </c>
-      <c r="B69" s="86"/>
-      <c r="C69" s="86"/>
-      <c r="D69" s="86"/>
-      <c r="E69" s="84"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="82"/>
       <c r="F69" s="34"/>
       <c r="G69" s="29"/>
-      <c r="H69" s="45"/>
+      <c r="H69" s="44"/>
       <c r="I69" s="29"/>
-      <c r="J69" s="52"/>
+      <c r="J69" s="51"/>
       <c r="K69" s="29"/>
       <c r="L69" s="23"/>
       <c r="M69" s="29"/>
-      <c r="N69" s="75"/>
+      <c r="N69" s="73"/>
       <c r="O69" s="20"/>
       <c r="P69" s="20"/>
-      <c r="Q69" s="80"/>
+      <c r="Q69" s="78"/>
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
       <c r="T69" s="13"/>
@@ -5503,25 +5789,25 @@
       <c r="X69" s="13"/>
     </row>
     <row r="70" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A70" s="86">
+      <c r="A70" s="84">
         <v>67</v>
       </c>
-      <c r="B70" s="86"/>
-      <c r="C70" s="86"/>
-      <c r="D70" s="86"/>
-      <c r="E70" s="84"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="82"/>
       <c r="F70" s="35"/>
       <c r="G70" s="29"/>
-      <c r="H70" s="45"/>
+      <c r="H70" s="44"/>
       <c r="I70" s="29"/>
-      <c r="J70" s="52"/>
+      <c r="J70" s="51"/>
       <c r="K70" s="29"/>
       <c r="L70" s="23"/>
       <c r="M70" s="29"/>
-      <c r="N70" s="75"/>
+      <c r="N70" s="73"/>
       <c r="O70" s="20"/>
       <c r="P70" s="20"/>
-      <c r="Q70" s="80"/>
+      <c r="Q70" s="78"/>
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
       <c r="T70" s="13"/>
@@ -5531,25 +5817,25 @@
       <c r="X70" s="13"/>
     </row>
     <row r="71" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A71" s="86">
+      <c r="A71" s="84">
         <v>68</v>
       </c>
-      <c r="B71" s="86"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="84"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="82"/>
       <c r="F71" s="34"/>
       <c r="G71" s="29"/>
       <c r="H71" s="39"/>
       <c r="I71" s="29"/>
-      <c r="J71" s="47"/>
+      <c r="J71" s="46"/>
       <c r="K71" s="29"/>
-      <c r="L71" s="47"/>
+      <c r="L71" s="46"/>
       <c r="M71" s="29"/>
-      <c r="N71" s="47"/>
+      <c r="N71" s="46"/>
       <c r="O71" s="20"/>
       <c r="P71" s="20"/>
-      <c r="Q71" s="80"/>
+      <c r="Q71" s="78"/>
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
       <c r="T71" s="13"/>
@@ -5559,25 +5845,25 @@
       <c r="X71" s="13"/>
     </row>
     <row r="72" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A72" s="86">
+      <c r="A72" s="84">
         <v>69</v>
       </c>
-      <c r="B72" s="86"/>
-      <c r="C72" s="86"/>
-      <c r="D72" s="86"/>
-      <c r="E72" s="82"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="80"/>
       <c r="F72" s="21"/>
       <c r="G72" s="40"/>
-      <c r="H72" s="45"/>
+      <c r="H72" s="44"/>
       <c r="I72" s="40"/>
-      <c r="J72" s="52"/>
+      <c r="J72" s="51"/>
       <c r="K72" s="29"/>
-      <c r="L72" s="47"/>
+      <c r="L72" s="46"/>
       <c r="M72" s="29"/>
-      <c r="N72" s="47"/>
+      <c r="N72" s="46"/>
       <c r="O72" s="20"/>
       <c r="P72" s="20"/>
-      <c r="Q72" s="80"/>
+      <c r="Q72" s="78"/>
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
       <c r="T72" s="13"/>
@@ -5587,25 +5873,25 @@
       <c r="X72" s="13"/>
     </row>
     <row r="73" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A73" s="86">
+      <c r="A73" s="84">
         <v>70</v>
       </c>
-      <c r="B73" s="86"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="86"/>
-      <c r="E73" s="82"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="80"/>
       <c r="F73" s="21"/>
       <c r="G73" s="29"/>
-      <c r="H73" s="45"/>
+      <c r="H73" s="44"/>
       <c r="I73" s="29"/>
-      <c r="J73" s="47"/>
+      <c r="J73" s="46"/>
       <c r="K73" s="29"/>
-      <c r="L73" s="47"/>
+      <c r="L73" s="46"/>
       <c r="M73" s="29"/>
-      <c r="N73" s="47"/>
+      <c r="N73" s="46"/>
       <c r="O73" s="20"/>
       <c r="P73" s="20"/>
-      <c r="Q73" s="80"/>
+      <c r="Q73" s="78"/>
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
       <c r="T73" s="13"/>
@@ -5615,25 +5901,25 @@
       <c r="X73" s="13"/>
     </row>
     <row r="74" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A74" s="86">
+      <c r="A74" s="84">
         <v>71</v>
       </c>
-      <c r="B74" s="86"/>
-      <c r="C74" s="86"/>
-      <c r="D74" s="86"/>
-      <c r="E74" s="82"/>
+      <c r="B74" s="84"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="80"/>
       <c r="F74" s="21"/>
       <c r="G74" s="40"/>
-      <c r="H74" s="45"/>
+      <c r="H74" s="44"/>
       <c r="I74" s="40"/>
-      <c r="J74" s="52"/>
+      <c r="J74" s="51"/>
       <c r="K74" s="29"/>
-      <c r="L74" s="47"/>
-      <c r="M74" s="76"/>
-      <c r="N74" s="47"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="74"/>
+      <c r="N74" s="46"/>
       <c r="O74" s="20"/>
       <c r="P74" s="20"/>
-      <c r="Q74" s="80"/>
+      <c r="Q74" s="78"/>
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
       <c r="T74" s="13"/>
@@ -5643,25 +5929,25 @@
       <c r="X74" s="13"/>
     </row>
     <row r="75" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A75" s="86">
+      <c r="A75" s="84">
         <v>72</v>
       </c>
-      <c r="B75" s="86"/>
-      <c r="C75" s="86"/>
-      <c r="D75" s="86"/>
-      <c r="E75" s="82"/>
+      <c r="B75" s="84"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="80"/>
       <c r="F75" s="21"/>
-      <c r="G75" s="66"/>
+      <c r="G75" s="64"/>
       <c r="H75" s="39"/>
       <c r="I75" s="29"/>
-      <c r="J75" s="47"/>
+      <c r="J75" s="46"/>
       <c r="K75" s="32"/>
-      <c r="L75" s="47"/>
+      <c r="L75" s="46"/>
       <c r="M75" s="29"/>
-      <c r="N75" s="47"/>
+      <c r="N75" s="46"/>
       <c r="O75" s="20"/>
       <c r="P75" s="20"/>
-      <c r="Q75" s="80"/>
+      <c r="Q75" s="78"/>
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
       <c r="T75" s="13"/>
@@ -5671,25 +5957,25 @@
       <c r="X75" s="13"/>
     </row>
     <row r="76" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A76" s="86">
+      <c r="A76" s="84">
         <v>73</v>
       </c>
-      <c r="B76" s="86"/>
-      <c r="C76" s="86"/>
-      <c r="D76" s="86"/>
-      <c r="E76" s="82"/>
+      <c r="B76" s="84"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="80"/>
       <c r="F76" s="21"/>
       <c r="G76" s="29"/>
-      <c r="H76" s="45"/>
+      <c r="H76" s="44"/>
       <c r="I76" s="29"/>
-      <c r="J76" s="47"/>
+      <c r="J76" s="46"/>
       <c r="K76" s="29"/>
-      <c r="L76" s="47"/>
+      <c r="L76" s="46"/>
       <c r="M76" s="29"/>
-      <c r="N76" s="47"/>
+      <c r="N76" s="46"/>
       <c r="O76" s="20"/>
       <c r="P76" s="20"/>
-      <c r="Q76" s="80"/>
+      <c r="Q76" s="78"/>
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
       <c r="T76" s="13"/>
@@ -5699,25 +5985,25 @@
       <c r="X76" s="13"/>
     </row>
     <row r="77" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A77" s="86">
+      <c r="A77" s="84">
         <v>74</v>
       </c>
-      <c r="B77" s="86"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="86"/>
-      <c r="E77" s="82"/>
+      <c r="B77" s="84"/>
+      <c r="C77" s="84"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="80"/>
       <c r="F77" s="21"/>
       <c r="G77" s="29"/>
-      <c r="H77" s="45"/>
+      <c r="H77" s="44"/>
       <c r="I77" s="29"/>
-      <c r="J77" s="47"/>
+      <c r="J77" s="46"/>
       <c r="K77" s="29"/>
-      <c r="L77" s="47"/>
+      <c r="L77" s="46"/>
       <c r="M77" s="29"/>
-      <c r="N77" s="47"/>
+      <c r="N77" s="46"/>
       <c r="O77" s="20"/>
       <c r="P77" s="20"/>
-      <c r="Q77" s="80"/>
+      <c r="Q77" s="78"/>
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
       <c r="T77" s="13"/>
@@ -5727,25 +6013,25 @@
       <c r="X77" s="13"/>
     </row>
     <row r="78" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A78" s="86">
+      <c r="A78" s="84">
         <v>75</v>
       </c>
-      <c r="B78" s="86"/>
-      <c r="C78" s="86"/>
-      <c r="D78" s="86"/>
-      <c r="E78" s="82"/>
-      <c r="F78" s="64"/>
+      <c r="B78" s="84"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="80"/>
+      <c r="F78" s="62"/>
       <c r="G78" s="29"/>
-      <c r="H78" s="45"/>
+      <c r="H78" s="44"/>
       <c r="I78" s="29"/>
-      <c r="J78" s="45"/>
+      <c r="J78" s="44"/>
       <c r="K78" s="29"/>
-      <c r="L78" s="50"/>
+      <c r="L78" s="49"/>
       <c r="M78" s="29"/>
-      <c r="N78" s="77"/>
+      <c r="N78" s="75"/>
       <c r="O78" s="20"/>
       <c r="P78" s="20"/>
-      <c r="Q78" s="80"/>
+      <c r="Q78" s="78"/>
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
       <c r="T78" s="13"/>
@@ -5755,25 +6041,25 @@
       <c r="X78" s="13"/>
     </row>
     <row r="79" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A79" s="86">
+      <c r="A79" s="84">
         <v>76</v>
       </c>
-      <c r="B79" s="86"/>
-      <c r="C79" s="86"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="82"/>
-      <c r="F79" s="64"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="80"/>
+      <c r="F79" s="62"/>
       <c r="G79" s="29"/>
-      <c r="H79" s="45"/>
+      <c r="H79" s="44"/>
       <c r="I79" s="40"/>
-      <c r="J79" s="52"/>
+      <c r="J79" s="51"/>
       <c r="K79" s="29"/>
-      <c r="L79" s="50"/>
+      <c r="L79" s="49"/>
       <c r="M79" s="29"/>
-      <c r="N79" s="78"/>
+      <c r="N79" s="76"/>
       <c r="O79" s="20"/>
       <c r="P79" s="20"/>
-      <c r="Q79" s="80"/>
+      <c r="Q79" s="78"/>
       <c r="R79" s="13"/>
       <c r="S79" s="13"/>
       <c r="T79" s="13"/>
@@ -5809,24 +6095,26 @@
       <c r="X80" s="13"/>
     </row>
     <row r="81" spans="1:24" ht="76" customHeight="1" thickBot="1">
-      <c r="A81" s="98" t="s">
+      <c r="A81" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B81" s="99"/>
-      <c r="C81" s="99"/>
-      <c r="D81" s="100"/>
-      <c r="E81" s="101" t="s">
-        <v>168</v>
-      </c>
-      <c r="F81" s="102"/>
-      <c r="G81" s="101"/>
-      <c r="H81" s="102"/>
-      <c r="I81" s="101"/>
-      <c r="J81" s="102"/>
-      <c r="K81" s="113"/>
-      <c r="L81" s="114"/>
-      <c r="M81" s="113"/>
-      <c r="N81" s="114"/>
+      <c r="B81" s="102"/>
+      <c r="C81" s="102"/>
+      <c r="D81" s="103"/>
+      <c r="E81" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="F81" s="105"/>
+      <c r="G81" s="104" t="s">
+        <v>198</v>
+      </c>
+      <c r="H81" s="105"/>
+      <c r="I81" s="104"/>
+      <c r="J81" s="105"/>
+      <c r="K81" s="116"/>
+      <c r="L81" s="117"/>
+      <c r="M81" s="116"/>
+      <c r="N81" s="117"/>
       <c r="O81" s="16"/>
       <c r="P81" s="17"/>
       <c r="Q81" s="18"/>
@@ -5839,28 +6127,30 @@
       <c r="X81" s="18"/>
     </row>
     <row r="82" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A82" s="90" t="s">
+      <c r="A82" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B82" s="107"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="106" t="s">
-        <v>154</v>
-      </c>
-      <c r="F82" s="106"/>
-      <c r="G82" s="103"/>
-      <c r="H82" s="103"/>
-      <c r="I82" s="103"/>
-      <c r="J82" s="103"/>
-      <c r="K82" s="103"/>
-      <c r="L82" s="103"/>
-      <c r="M82" s="104"/>
-      <c r="N82" s="104"/>
-      <c r="O82" s="103" t="s">
+      <c r="B82" s="110"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="F82" s="109"/>
+      <c r="G82" s="118" t="s">
+        <v>185</v>
+      </c>
+      <c r="H82" s="118"/>
+      <c r="I82" s="106"/>
+      <c r="J82" s="106"/>
+      <c r="K82" s="106"/>
+      <c r="L82" s="106"/>
+      <c r="M82" s="107"/>
+      <c r="N82" s="107"/>
+      <c r="O82" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="P82" s="103"/>
+      <c r="P82" s="106"/>
       <c r="Q82" s="18"/>
       <c r="R82" s="18"/>
       <c r="S82" s="18"/>
@@ -5871,22 +6161,22 @@
       <c r="X82" s="18"/>
     </row>
     <row r="83" spans="1:24">
-      <c r="A83" s="91"/>
-      <c r="B83" s="109"/>
-      <c r="C83" s="110"/>
-      <c r="D83" s="110"/>
-      <c r="E83" s="106"/>
-      <c r="F83" s="106"/>
-      <c r="G83" s="103"/>
-      <c r="H83" s="103"/>
-      <c r="I83" s="103"/>
-      <c r="J83" s="103"/>
-      <c r="K83" s="103"/>
-      <c r="L83" s="103"/>
-      <c r="M83" s="104"/>
-      <c r="N83" s="104"/>
-      <c r="O83" s="103"/>
-      <c r="P83" s="103"/>
+      <c r="A83" s="94"/>
+      <c r="B83" s="112"/>
+      <c r="C83" s="113"/>
+      <c r="D83" s="113"/>
+      <c r="E83" s="109"/>
+      <c r="F83" s="109"/>
+      <c r="G83" s="118"/>
+      <c r="H83" s="118"/>
+      <c r="I83" s="106"/>
+      <c r="J83" s="106"/>
+      <c r="K83" s="106"/>
+      <c r="L83" s="106"/>
+      <c r="M83" s="107"/>
+      <c r="N83" s="107"/>
+      <c r="O83" s="106"/>
+      <c r="P83" s="106"/>
       <c r="Q83" s="18"/>
       <c r="R83" s="18"/>
       <c r="S83" s="18"/>
@@ -5897,22 +6187,22 @@
       <c r="X83" s="18"/>
     </row>
     <row r="84" spans="1:24" ht="261" customHeight="1" thickBot="1">
-      <c r="A84" s="105"/>
-      <c r="B84" s="111"/>
-      <c r="C84" s="112"/>
-      <c r="D84" s="112"/>
-      <c r="E84" s="106"/>
-      <c r="F84" s="106"/>
-      <c r="G84" s="103"/>
-      <c r="H84" s="103"/>
-      <c r="I84" s="103"/>
-      <c r="J84" s="103"/>
-      <c r="K84" s="103"/>
-      <c r="L84" s="103"/>
-      <c r="M84" s="104"/>
-      <c r="N84" s="104"/>
-      <c r="O84" s="103"/>
-      <c r="P84" s="103"/>
+      <c r="A84" s="108"/>
+      <c r="B84" s="114"/>
+      <c r="C84" s="115"/>
+      <c r="D84" s="115"/>
+      <c r="E84" s="109"/>
+      <c r="F84" s="109"/>
+      <c r="G84" s="118"/>
+      <c r="H84" s="118"/>
+      <c r="I84" s="106"/>
+      <c r="J84" s="106"/>
+      <c r="K84" s="106"/>
+      <c r="L84" s="106"/>
+      <c r="M84" s="107"/>
+      <c r="N84" s="107"/>
+      <c r="O84" s="106"/>
+      <c r="P84" s="106"/>
       <c r="Q84" s="18"/>
       <c r="R84" s="18"/>
       <c r="S84" s="18"/>
@@ -5922,46 +6212,196 @@
       <c r="W84" s="18"/>
       <c r="X84" s="18"/>
     </row>
-    <row r="86" spans="1:24" s="97" customFormat="1">
-      <c r="A86" s="97" t="s">
+    <row r="86" spans="1:24" s="100" customFormat="1">
+      <c r="A86" s="100" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:24" s="97" customFormat="1">
-      <c r="A87" s="97" t="s">
+    <row r="87" spans="1:24" s="100" customFormat="1">
+      <c r="A87" s="100" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:24">
-      <c r="A88" s="57" t="s">
+      <c r="A88" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="57"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="57"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="57"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="57"/>
-      <c r="I88" s="57"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="56"/>
     </row>
     <row r="92" spans="1:24">
       <c r="A92" t="s">
         <v>129</v>
       </c>
-      <c r="B92" s="116">
+      <c r="B92" s="88">
         <v>71118307</v>
       </c>
       <c r="C92" t="s">
         <v>130</v>
       </c>
+      <c r="D92" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="93" spans="1:24">
-      <c r="B93" s="115" t="s">
+      <c r="B93" s="87" t="s">
         <v>107</v>
       </c>
       <c r="C93" t="s">
         <v>127</v>
+      </c>
+      <c r="D93" t="s">
+        <v>169</v>
+      </c>
+      <c r="E93" s="91"/>
+    </row>
+    <row r="94" spans="1:24">
+      <c r="B94" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" t="s">
+        <v>168</v>
+      </c>
+      <c r="D94" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
+      <c r="B95" s="88">
+        <v>71118314</v>
+      </c>
+      <c r="C95" t="s">
+        <v>172</v>
+      </c>
+      <c r="D95" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
+      <c r="B96" s="88">
+        <v>71118402</v>
+      </c>
+      <c r="C96" t="s">
+        <v>72</v>
+      </c>
+      <c r="D96" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C97" t="s">
+        <v>174</v>
+      </c>
+      <c r="D97" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" t="s">
+        <v>175</v>
+      </c>
+      <c r="D98" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="C99" t="s">
+        <v>177</v>
+      </c>
+      <c r="D99" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="C100" t="s">
+        <v>179</v>
+      </c>
+      <c r="D100" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101" t="s">
+        <v>151</v>
+      </c>
+      <c r="D101" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C102" t="s">
+        <v>180</v>
+      </c>
+      <c r="D102" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103" t="s">
+        <v>181</v>
+      </c>
+      <c r="D103" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="C104" t="s">
+        <v>182</v>
+      </c>
+      <c r="D104" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C105" t="s">
+        <v>135</v>
+      </c>
+      <c r="D105" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" t="s">
+        <v>183</v>
+      </c>
+      <c r="D106" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/20-21汪鹏老师班-平时成绩单.xlsx
+++ b/20-21汪鹏老师班-平时成绩单.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B186A5-E25D-6F4A-A937-BFF8753BF2E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CF517F-02FA-4C41-BCC5-B9CD22A7472E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="24780" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20-21" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="224">
   <si>
     <t>序号</t>
   </si>
@@ -801,6 +801,107 @@
 牛熠玮 蔡林希 仇嘉乐 张文韬 金煜
 王宸 李渊 芦小栋 李潼泷 袁逸舟
 杭文轩 盛鹏飞 魏俊毅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 指针变量的定义分析要注意定义节点的确认，特别是变量没有出现在语句，而间接被定义的情形；
+2. char* eptr= encoded;由于不知道具体编译器对该语句的具体处理，所以视为eptr和*eptr的使用节点这里不算错。
+3. 实验中，encoded和decoded的作用是对eptr, dptr初始化，所以后面不再认为有其它的使用节点。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数据流测试的知识点掌握准确，测试思路清晰，测试用例设计准确。注意：9是encoded的USE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数据流测试的知识点掌握准确，测试思路清晰，测试用例设计准确。</t>
+  </si>
+  <si>
+    <t>对数据流测试的知识点掌握准确，测试思路清晰，测试数据详实，测试用例设计准确。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：22,23也是*eptr的USE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数据流测试的知识点掌握准确。建议把每个变量的USE和DEF明确列出来。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数据流测试的知识点掌握准确。注意:*dptr没有USE，且和dptr的分析混淆了。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意指针和指针变量的分析。例如，dptr只有10,33是USE。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>34也是*eptr的DEF和USE。dptr的分析存在问题，根据参考的结果再核对一下。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*eptr，eptr, *dptr等的DEF和USE分析存在问题，根据参考的结果再核对一下。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数据流测试的知识点掌握准确，测试思路清晰，测试用例设计准确。实验思考深入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数据流测试的知识点掌握准确，测试思路清晰，测试用例设计准确。注意，一般而言，14也是c的DEF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A++</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，*dptr没有USE, 且分析和dptr混淆了。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告规范，思路清晰！注意：eptr和dptr的定义节点分析存在问题。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验报告规范，思路清晰！注意：22,23也是*eptr的USE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：域的数目等于环复杂度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getResult()中，圈复杂度为什么不等于基本路径数目？</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1955,7 +2056,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2094,9 +2195,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2136,15 +2234,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2214,6 +2303,12 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2260,6 +2355,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2289,9 +2387,6 @@
     </xf>
     <xf numFmtId="49" fontId="33" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="554">
@@ -3153,10 +3248,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X106"/>
+  <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -3181,66 +3276,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="43" customHeight="1" thickBot="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
     </row>
     <row r="2" spans="1:24" ht="16" thickBot="1">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98" t="s">
+      <c r="F2" s="95"/>
+      <c r="G2" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="99"/>
-      <c r="I2" s="96" t="s">
+      <c r="H2" s="97"/>
+      <c r="I2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="96" t="s">
+      <c r="J2" s="97"/>
+      <c r="K2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="96" t="s">
+      <c r="L2" s="97"/>
+      <c r="M2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="99"/>
+      <c r="N2" s="97"/>
       <c r="O2" s="27" t="s">
         <v>29</v>
       </c>
@@ -3271,10 +3366,10 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="15">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
@@ -3321,28 +3416,28 @@
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:24" s="6" customFormat="1" ht="16">
-      <c r="A4" s="84">
+      <c r="A4" s="80">
         <v>1</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="80"/>
+      <c r="E4" s="76"/>
       <c r="F4" s="22"/>
       <c r="G4" s="32"/>
       <c r="H4" s="43"/>
       <c r="I4" s="32"/>
       <c r="J4" s="48"/>
       <c r="K4" s="29"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="55"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="54"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="19"/>
@@ -3355,19 +3450,19 @@
       <c r="X4" s="13"/>
     </row>
     <row r="5" spans="1:24" s="6" customFormat="1" ht="60">
-      <c r="A5" s="84">
+      <c r="A5" s="80">
         <v>2</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="76" t="s">
         <v>124</v>
       </c>
       <c r="F5" s="22" t="s">
@@ -3376,18 +3471,22 @@
       <c r="G5" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="46"/>
+      <c r="I5" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>208</v>
+      </c>
       <c r="K5" s="37"/>
-      <c r="L5" s="52"/>
+      <c r="L5" s="51"/>
       <c r="M5" s="29"/>
-      <c r="N5" s="68"/>
+      <c r="N5" s="64"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
-      <c r="Q5" s="78"/>
+      <c r="Q5" s="74"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
@@ -3397,19 +3496,19 @@
       <c r="X5" s="13"/>
     </row>
     <row r="6" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A6" s="84">
+      <c r="A6" s="80">
         <v>3</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="21" t="s">
@@ -3421,15 +3520,19 @@
       <c r="H6" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="49"/>
+      <c r="I6" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>209</v>
+      </c>
       <c r="K6" s="29"/>
-      <c r="L6" s="52"/>
+      <c r="L6" s="51"/>
       <c r="M6" s="29"/>
-      <c r="N6" s="68"/>
+      <c r="N6" s="64"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
-      <c r="Q6" s="78"/>
+      <c r="Q6" s="74"/>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
@@ -3439,39 +3542,43 @@
       <c r="X6" s="13"/>
     </row>
     <row r="7" spans="1:24" s="6" customFormat="1" ht="60">
-      <c r="A7" s="84">
+      <c r="A7" s="80">
         <v>4</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="76" t="s">
         <v>124</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H7" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="65"/>
+      <c r="I7" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K7" s="37"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="68"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="64"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
-      <c r="Q7" s="78"/>
+      <c r="Q7" s="74"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -3480,20 +3587,20 @@
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A8" s="84">
+    <row r="8" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A8" s="80">
         <v>5</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="76" t="s">
         <v>142</v>
       </c>
       <c r="F8" s="22" t="s">
@@ -3505,15 +3612,19 @@
       <c r="H8" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="50"/>
+      <c r="I8" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>211</v>
+      </c>
       <c r="K8" s="29"/>
-      <c r="L8" s="52"/>
+      <c r="L8" s="51"/>
       <c r="M8" s="29"/>
-      <c r="N8" s="69"/>
+      <c r="N8" s="65"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
-      <c r="Q8" s="78"/>
+      <c r="Q8" s="74"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
@@ -3523,39 +3634,43 @@
       <c r="X8" s="13"/>
     </row>
     <row r="9" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A9" s="84">
+      <c r="A9" s="80">
         <v>6</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H9" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="47"/>
+      <c r="I9" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K9" s="29"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="70"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="66"/>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
-      <c r="Q9" s="78"/>
+      <c r="Q9" s="74"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
@@ -3564,41 +3679,45 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A10" s="84">
+    <row r="10" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A10" s="80">
         <v>7</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="G10" s="81" t="s">
+      <c r="G10" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H10" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="51"/>
+      <c r="I10" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>211</v>
+      </c>
       <c r="K10" s="29"/>
-      <c r="L10" s="52"/>
+      <c r="L10" s="51"/>
       <c r="M10" s="29"/>
-      <c r="N10" s="68"/>
+      <c r="N10" s="64"/>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="60"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="59"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
@@ -3607,39 +3726,43 @@
       <c r="X10" s="13"/>
     </row>
     <row r="11" spans="1:24" s="6" customFormat="1" ht="75">
-      <c r="A11" s="84">
+      <c r="A11" s="80">
         <v>8</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="76" t="s">
         <v>142</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="81" t="s">
+      <c r="G11" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H11" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="65"/>
+      <c r="I11" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K11" s="29"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="70"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="66"/>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
-      <c r="Q11" s="78"/>
+      <c r="Q11" s="74"/>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
@@ -3649,39 +3772,43 @@
       <c r="X11" s="13"/>
     </row>
     <row r="12" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A12" s="84">
+      <c r="A12" s="80">
         <v>9</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H12" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="66"/>
+      <c r="I12" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>205</v>
+      </c>
       <c r="K12" s="29"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="71"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
-      <c r="Q12" s="78"/>
+      <c r="Q12" s="74"/>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
@@ -3691,39 +3818,43 @@
       <c r="X12" s="13"/>
     </row>
     <row r="13" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A13" s="84">
+      <c r="A13" s="80">
         <v>10</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="89" t="s">
+      <c r="E13" s="85" t="s">
         <v>125</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="81" t="s">
+      <c r="G13" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H13" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="51"/>
+      <c r="I13" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K13" s="29"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="70"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="66"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
-      <c r="Q13" s="78"/>
+      <c r="Q13" s="74"/>
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
@@ -3733,35 +3864,43 @@
       <c r="X13" s="13"/>
     </row>
     <row r="14" spans="1:24" s="6" customFormat="1" ht="60">
-      <c r="A14" s="84">
+      <c r="A14" s="80">
         <v>11</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="80" t="s">
+      <c r="E14" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="47"/>
+      <c r="G14" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="I14" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K14" s="29"/>
-      <c r="L14" s="52"/>
+      <c r="L14" s="51"/>
       <c r="M14" s="29"/>
-      <c r="N14" s="68"/>
+      <c r="N14" s="64"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
-      <c r="Q14" s="78"/>
+      <c r="Q14" s="74"/>
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
@@ -3770,40 +3909,44 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A15" s="84">
+    <row r="15" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A15" s="80">
         <v>12</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="80" t="s">
+      <c r="E15" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="81" t="s">
+      <c r="G15" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H15" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="51"/>
+      <c r="I15" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K15" s="29"/>
-      <c r="L15" s="52"/>
+      <c r="L15" s="51"/>
       <c r="M15" s="29"/>
-      <c r="N15" s="68"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
-      <c r="Q15" s="78"/>
+      <c r="Q15" s="74"/>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
@@ -3813,39 +3956,43 @@
       <c r="X15" s="13"/>
     </row>
     <row r="16" spans="1:24" s="6" customFormat="1" ht="75">
-      <c r="A16" s="84">
+      <c r="A16" s="80">
         <v>13</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="77" t="s">
         <v>125</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="77" t="s">
         <v>189</v>
       </c>
       <c r="H16" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="47"/>
+      <c r="I16" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K16" s="37"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="70"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="66"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
-      <c r="Q16" s="78"/>
+      <c r="Q16" s="74"/>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
@@ -3854,40 +4001,44 @@
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
     </row>
-    <row r="17" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A17" s="84">
+    <row r="17" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A17" s="80">
         <v>14</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="80" t="s">
+      <c r="E17" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="G17" s="81" t="s">
+      <c r="G17" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H17" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I17" s="37"/>
-      <c r="J17" s="51"/>
+      <c r="I17" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>212</v>
+      </c>
       <c r="K17" s="29"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="70"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="66"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
-      <c r="Q17" s="78"/>
+      <c r="Q17" s="74"/>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
@@ -3896,40 +4047,44 @@
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
     </row>
-    <row r="18" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A18" s="84">
+    <row r="18" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A18" s="80">
         <v>15</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="80" t="s">
+      <c r="E18" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="G18" s="81" t="s">
+      <c r="G18" s="77" t="s">
         <v>189</v>
       </c>
       <c r="H18" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="51"/>
+      <c r="I18" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>212</v>
+      </c>
       <c r="K18" s="29"/>
-      <c r="L18" s="52"/>
+      <c r="L18" s="51"/>
       <c r="M18" s="29"/>
-      <c r="N18" s="70"/>
+      <c r="N18" s="66"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
-      <c r="Q18" s="78"/>
+      <c r="Q18" s="74"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
@@ -3938,40 +4093,44 @@
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
     </row>
-    <row r="19" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A19" s="84">
+    <row r="19" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A19" s="80">
         <v>16</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="80" t="s">
+      <c r="E19" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="81" t="s">
+      <c r="G19" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H19" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="46"/>
+      <c r="I19" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K19" s="29"/>
-      <c r="L19" s="52"/>
+      <c r="L19" s="51"/>
       <c r="M19" s="29"/>
-      <c r="N19" s="70"/>
+      <c r="N19" s="66"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
-      <c r="Q19" s="78"/>
+      <c r="Q19" s="74"/>
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
@@ -3981,39 +4140,43 @@
       <c r="X19" s="13"/>
     </row>
     <row r="20" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A20" s="84">
+      <c r="A20" s="80">
         <v>17</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="77" t="s">
         <v>125</v>
       </c>
       <c r="F20" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="81" t="s">
+      <c r="G20" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H20" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="51"/>
+      <c r="I20" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K20" s="37"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="70"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="66"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
-      <c r="Q20" s="78"/>
+      <c r="Q20" s="74"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
@@ -4022,40 +4185,44 @@
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
     </row>
-    <row r="21" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A21" s="84">
+    <row r="21" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A21" s="80">
         <v>18</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="80" t="s">
+      <c r="E21" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="G21" s="81" t="s">
+      <c r="G21" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H21" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="51"/>
+      <c r="I21" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K21" s="29"/>
-      <c r="L21" s="53"/>
+      <c r="L21" s="52"/>
       <c r="M21" s="29"/>
-      <c r="N21" s="70"/>
+      <c r="N21" s="66"/>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
-      <c r="Q21" s="78"/>
+      <c r="Q21" s="74"/>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
@@ -4064,40 +4231,44 @@
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
     </row>
-    <row r="22" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A22" s="84">
+    <row r="22" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A22" s="80">
         <v>19</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="77" t="s">
         <v>125</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="G22" s="81" t="s">
+      <c r="G22" s="77" t="s">
         <v>189</v>
       </c>
       <c r="H22" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="47"/>
+      <c r="I22" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K22" s="29"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="70"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="66"/>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
-      <c r="Q22" s="78"/>
+      <c r="Q22" s="74"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
@@ -4107,39 +4278,43 @@
       <c r="X22" s="13"/>
     </row>
     <row r="23" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A23" s="84">
+      <c r="A23" s="80">
         <v>20</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="80" t="s">
+      <c r="E23" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H23" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="51"/>
+      <c r="I23" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K23" s="36"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="70"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="66"/>
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
-      <c r="Q23" s="78"/>
+      <c r="Q23" s="74"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
@@ -4148,40 +4323,44 @@
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
     </row>
-    <row r="24" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A24" s="84">
+    <row r="24" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A24" s="80">
         <v>21</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="85" t="s">
+      <c r="D24" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="81" t="s">
+      <c r="E24" s="77" t="s">
         <v>125</v>
       </c>
       <c r="F24" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="G24" s="81" t="s">
+      <c r="G24" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H24" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="51"/>
+      <c r="I24" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K24" s="37"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="70"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="66"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
-      <c r="Q24" s="78"/>
+      <c r="Q24" s="74"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
@@ -4191,39 +4370,43 @@
       <c r="X24" s="13"/>
     </row>
     <row r="25" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A25" s="84">
+      <c r="A25" s="80">
         <v>22</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="77" t="s">
         <v>125</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="G25" s="81" t="s">
+      <c r="G25" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H25" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I25" s="37"/>
-      <c r="J25" s="47"/>
+      <c r="I25" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K25" s="37"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="70"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="66"/>
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
-      <c r="Q25" s="78"/>
+      <c r="Q25" s="74"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
@@ -4232,36 +4415,40 @@
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
     </row>
-    <row r="26" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A26" s="84">
+    <row r="26" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A26" s="80">
         <v>23</v>
       </c>
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="81" t="s">
+      <c r="E26" s="77" t="s">
         <v>125</v>
       </c>
       <c r="F26" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="G26" s="81"/>
+      <c r="G26" s="77"/>
       <c r="H26" s="46"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="51"/>
+      <c r="I26" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K26" s="37"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="70"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="66"/>
       <c r="O26" s="20"/>
       <c r="P26" s="20"/>
-      <c r="Q26" s="78"/>
+      <c r="Q26" s="74"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
@@ -4271,39 +4458,39 @@
       <c r="X26" s="13"/>
     </row>
     <row r="27" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A27" s="84">
+      <c r="A27" s="80">
         <v>24</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="80" t="s">
+      <c r="E27" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H27" s="46" t="s">
         <v>195</v>
       </c>
       <c r="I27" s="42"/>
-      <c r="J27" s="51"/>
+      <c r="J27" s="50"/>
       <c r="K27" s="37"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="70"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="66"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
-      <c r="Q27" s="78"/>
+      <c r="Q27" s="74"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
@@ -4313,39 +4500,43 @@
       <c r="X27" s="13"/>
     </row>
     <row r="28" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A28" s="84">
+      <c r="A28" s="80">
         <v>25</v>
       </c>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="80" t="s">
+      <c r="E28" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G28" s="81" t="s">
+      <c r="G28" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H28" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="67"/>
+      <c r="I28" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K28" s="37"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="70"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="66"/>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
-      <c r="Q28" s="78"/>
+      <c r="Q28" s="74"/>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
@@ -4354,40 +4545,44 @@
       <c r="W28" s="13"/>
       <c r="X28" s="13"/>
     </row>
-    <row r="29" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A29" s="84">
+    <row r="29" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A29" s="80">
         <v>26</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="80" t="s">
+      <c r="E29" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G29" s="81" t="s">
+      <c r="G29" s="77" t="s">
         <v>189</v>
       </c>
       <c r="H29" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I29" s="37"/>
-      <c r="J29" s="47"/>
+      <c r="I29" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K29" s="40"/>
-      <c r="L29" s="52"/>
+      <c r="L29" s="51"/>
       <c r="M29" s="29"/>
-      <c r="N29" s="72"/>
+      <c r="N29" s="68"/>
       <c r="O29" s="20"/>
       <c r="P29" s="20"/>
-      <c r="Q29" s="78"/>
+      <c r="Q29" s="74"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
@@ -4396,32 +4591,38 @@
       <c r="W29" s="13"/>
       <c r="X29" s="13"/>
     </row>
-    <row r="30" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A30" s="84">
+    <row r="30" spans="1:24" s="6" customFormat="1" ht="30">
+      <c r="A30" s="80">
         <v>27</v>
       </c>
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="80"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="36"/>
+      <c r="G30" s="89" t="s">
+        <v>204</v>
+      </c>
       <c r="H30" s="46"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="46"/>
+      <c r="I30" s="88" t="s">
+        <v>214</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>215</v>
+      </c>
       <c r="K30" s="36"/>
-      <c r="L30" s="52"/>
+      <c r="L30" s="51"/>
       <c r="M30" s="29"/>
-      <c r="N30" s="52"/>
+      <c r="N30" s="51"/>
       <c r="O30" s="20"/>
       <c r="P30" s="20"/>
-      <c r="Q30" s="78"/>
+      <c r="Q30" s="74"/>
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
@@ -4431,39 +4632,43 @@
       <c r="X30" s="13"/>
     </row>
     <row r="31" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A31" s="84">
+      <c r="A31" s="80">
         <v>28</v>
       </c>
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="80" t="s">
+      <c r="E31" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F31" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G31" s="81" t="s">
+      <c r="G31" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H31" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="50"/>
+      <c r="I31" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K31" s="36"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="70"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="66"/>
       <c r="O31" s="20"/>
       <c r="P31" s="20"/>
-      <c r="Q31" s="78"/>
+      <c r="Q31" s="74"/>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
       <c r="T31" s="13"/>
@@ -4473,39 +4678,43 @@
       <c r="X31" s="13"/>
     </row>
     <row r="32" spans="1:24" s="6" customFormat="1" ht="60">
-      <c r="A32" s="84">
+      <c r="A32" s="80">
         <v>29</v>
       </c>
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="80" t="s">
+      <c r="E32" s="76" t="s">
         <v>124</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="G32" s="81" t="s">
+      <c r="G32" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H32" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I32" s="32"/>
-      <c r="J32" s="47"/>
+      <c r="I32" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K32" s="36"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="70"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="66"/>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
-      <c r="Q32" s="78"/>
+      <c r="Q32" s="74"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
@@ -4514,40 +4723,44 @@
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
     </row>
-    <row r="33" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A33" s="84">
+    <row r="33" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A33" s="80">
         <v>30</v>
       </c>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="85" t="s">
+      <c r="C33" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="85" t="s">
+      <c r="D33" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="80" t="s">
+      <c r="E33" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F33" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G33" s="81" t="s">
+      <c r="G33" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H33" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I33" s="36"/>
-      <c r="J33" s="46"/>
+      <c r="I33" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K33" s="36"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="51"/>
       <c r="O33" s="20"/>
       <c r="P33" s="20"/>
-      <c r="Q33" s="78"/>
+      <c r="Q33" s="74"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
@@ -4557,35 +4770,43 @@
       <c r="X33" s="13"/>
     </row>
     <row r="34" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A34" s="84">
+      <c r="A34" s="80">
         <v>31</v>
       </c>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="85" t="s">
+      <c r="C34" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="85" t="s">
+      <c r="D34" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="80" t="s">
+      <c r="E34" s="76" t="s">
         <v>124</v>
       </c>
       <c r="F34" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="46"/>
+      <c r="G34" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="H34" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="I34" s="89" t="s">
+        <v>122</v>
+      </c>
+      <c r="J34" s="46" t="s">
+        <v>216</v>
+      </c>
       <c r="K34" s="36"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="51"/>
       <c r="O34" s="20"/>
       <c r="P34" s="20"/>
-      <c r="Q34" s="78"/>
+      <c r="Q34" s="74"/>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
       <c r="T34" s="13"/>
@@ -4594,20 +4815,20 @@
       <c r="W34" s="13"/>
       <c r="X34" s="13"/>
     </row>
-    <row r="35" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A35" s="84">
+    <row r="35" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A35" s="80">
         <v>32</v>
       </c>
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="85" t="s">
+      <c r="C35" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="85" t="s">
+      <c r="D35" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="80" t="s">
+      <c r="E35" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F35" s="21" t="s">
@@ -4619,15 +4840,19 @@
       <c r="H35" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="46"/>
+      <c r="I35" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J35" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K35" s="36"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="52"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="51"/>
       <c r="O35" s="20"/>
       <c r="P35" s="20"/>
-      <c r="Q35" s="78"/>
+      <c r="Q35" s="74"/>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
       <c r="T35" s="13"/>
@@ -4636,40 +4861,44 @@
       <c r="W35" s="13"/>
       <c r="X35" s="13"/>
     </row>
-    <row r="36" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A36" s="84">
+    <row r="36" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A36" s="80">
         <v>33</v>
       </c>
-      <c r="B36" s="84" t="s">
+      <c r="B36" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="85" t="s">
+      <c r="C36" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="85" t="s">
+      <c r="D36" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="80" t="s">
+      <c r="E36" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F36" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G36" s="81" t="s">
+      <c r="G36" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H36" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I36" s="37"/>
-      <c r="J36" s="46"/>
+      <c r="I36" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K36" s="29"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="70"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="66"/>
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
-      <c r="Q36" s="78"/>
+      <c r="Q36" s="74"/>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
       <c r="T36" s="13"/>
@@ -4679,39 +4908,43 @@
       <c r="X36" s="13"/>
     </row>
     <row r="37" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A37" s="84">
+      <c r="A37" s="80">
         <v>34</v>
       </c>
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="80" t="s">
+      <c r="E37" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F37" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G37" s="81" t="s">
+      <c r="G37" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H37" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="I37" s="32"/>
-      <c r="J37" s="46"/>
+      <c r="I37" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="J37" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K37" s="29"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="70"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="66"/>
       <c r="O37" s="20"/>
       <c r="P37" s="20"/>
-      <c r="Q37" s="78"/>
+      <c r="Q37" s="74"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
@@ -4721,19 +4954,19 @@
       <c r="X37" s="13"/>
     </row>
     <row r="38" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A38" s="84">
+      <c r="A38" s="80">
         <v>35</v>
       </c>
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="D38" s="85" t="s">
+      <c r="D38" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="81" t="s">
+      <c r="E38" s="77" t="s">
         <v>125</v>
       </c>
       <c r="F38" s="33" t="s">
@@ -4745,15 +4978,19 @@
       <c r="H38" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="51"/>
+      <c r="I38" s="89" t="s">
+        <v>122</v>
+      </c>
+      <c r="J38" s="50" t="s">
+        <v>217</v>
+      </c>
       <c r="K38" s="29"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="70"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="66"/>
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
-      <c r="Q38" s="78"/>
+      <c r="Q38" s="74"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
       <c r="T38" s="13"/>
@@ -4762,40 +4999,44 @@
       <c r="W38" s="13"/>
       <c r="X38" s="13"/>
     </row>
-    <row r="39" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A39" s="84">
+    <row r="39" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A39" s="80">
         <v>36</v>
       </c>
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="85" t="s">
+      <c r="D39" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="80" t="s">
+      <c r="E39" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F39" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G39" s="81" t="s">
+      <c r="G39" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H39" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I39" s="37"/>
-      <c r="J39" s="46"/>
+      <c r="I39" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J39" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K39" s="29"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="70"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="66"/>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
-      <c r="Q39" s="78"/>
+      <c r="Q39" s="74"/>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
       <c r="T39" s="13"/>
@@ -4804,40 +5045,44 @@
       <c r="W39" s="13"/>
       <c r="X39" s="13"/>
     </row>
-    <row r="40" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A40" s="84">
+    <row r="40" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A40" s="80">
         <v>37</v>
       </c>
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="85" t="s">
+      <c r="D40" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="80" t="s">
+      <c r="E40" s="76" t="s">
         <v>120</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="G40" s="81" t="s">
+      <c r="G40" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H40" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I40" s="37"/>
-      <c r="J40" s="46"/>
+      <c r="I40" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J40" s="46" t="s">
+        <v>200</v>
+      </c>
       <c r="K40" s="29"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="70"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="66"/>
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
-      <c r="Q40" s="78"/>
+      <c r="Q40" s="74"/>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
       <c r="T40" s="13"/>
@@ -4847,36 +5092,42 @@
       <c r="X40" s="13"/>
     </row>
     <row r="41" spans="1:24" s="6" customFormat="1" ht="75">
-      <c r="A41" s="84">
+      <c r="A41" s="80">
         <v>38</v>
       </c>
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="85" t="s">
+      <c r="C41" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="85" t="s">
+      <c r="D41" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="80" t="s">
+      <c r="E41" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F41" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="G41" s="29"/>
+      <c r="G41" s="29" t="s">
+        <v>220</v>
+      </c>
       <c r="H41" s="41"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="46"/>
+      <c r="I41" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J41" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K41" s="29"/>
       <c r="L41" s="23"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="70"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="66"/>
       <c r="O41" s="20"/>
       <c r="P41" s="20"/>
-      <c r="Q41" s="78"/>
-      <c r="R41" s="60"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="59"/>
       <c r="S41" s="13"/>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
@@ -4885,39 +5136,43 @@
       <c r="X41" s="13"/>
     </row>
     <row r="42" spans="1:24" s="6" customFormat="1" ht="75">
-      <c r="A42" s="84">
+      <c r="A42" s="80">
         <v>39</v>
       </c>
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="85" t="s">
+      <c r="D42" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="80" t="s">
+      <c r="E42" s="76" t="s">
         <v>124</v>
       </c>
       <c r="F42" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="G42" s="81" t="s">
+      <c r="G42" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H42" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="I42" s="40"/>
-      <c r="J42" s="47"/>
+      <c r="I42" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J42" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K42" s="29"/>
       <c r="L42" s="23"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="70"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="66"/>
       <c r="O42" s="20"/>
       <c r="P42" s="20"/>
-      <c r="Q42" s="78"/>
+      <c r="Q42" s="74"/>
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
       <c r="T42" s="13"/>
@@ -4926,40 +5181,44 @@
       <c r="W42" s="13"/>
       <c r="X42" s="13"/>
     </row>
-    <row r="43" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A43" s="84">
+    <row r="43" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A43" s="80">
         <v>40</v>
       </c>
-      <c r="B43" s="84" t="s">
+      <c r="B43" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="85" t="s">
+      <c r="D43" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="81" t="s">
+      <c r="E43" s="77" t="s">
         <v>125</v>
       </c>
       <c r="F43" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="81" t="s">
+      <c r="G43" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H43" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="51"/>
+      <c r="I43" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J43" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K43" s="29"/>
       <c r="L43" s="23"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="52"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="51"/>
       <c r="O43" s="20"/>
       <c r="P43" s="20"/>
-      <c r="Q43" s="78"/>
+      <c r="Q43" s="74"/>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
       <c r="T43" s="13"/>
@@ -4969,39 +5228,43 @@
       <c r="X43" s="13"/>
     </row>
     <row r="44" spans="1:24" s="6" customFormat="1" ht="60">
-      <c r="A44" s="84">
+      <c r="A44" s="80">
         <v>41</v>
       </c>
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="85" t="s">
+      <c r="C44" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="85" t="s">
+      <c r="D44" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="80" t="s">
+      <c r="E44" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F44" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="G44" s="81" t="s">
+      <c r="G44" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H44" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="I44" s="37"/>
-      <c r="J44" s="46"/>
+      <c r="I44" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J44" s="46" t="s">
+        <v>202</v>
+      </c>
       <c r="K44" s="29"/>
       <c r="L44" s="23"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="52"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="51"/>
       <c r="O44" s="20"/>
       <c r="P44" s="20"/>
-      <c r="Q44" s="78"/>
+      <c r="Q44" s="74"/>
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
       <c r="T44" s="13"/>
@@ -5011,39 +5274,43 @@
       <c r="X44" s="13"/>
     </row>
     <row r="45" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A45" s="84">
+      <c r="A45" s="80">
         <v>42</v>
       </c>
-      <c r="B45" s="84" t="s">
+      <c r="B45" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="85" t="s">
+      <c r="D45" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="80" t="s">
+      <c r="E45" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F45" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="G45" s="81" t="s">
+      <c r="G45" s="77" t="s">
         <v>189</v>
       </c>
       <c r="H45" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="I45" s="37"/>
-      <c r="J45" s="46"/>
+      <c r="I45" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J45" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K45" s="37"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="70"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="66"/>
       <c r="O45" s="20"/>
       <c r="P45" s="20"/>
-      <c r="Q45" s="78"/>
+      <c r="Q45" s="74"/>
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
       <c r="T45" s="13"/>
@@ -5053,39 +5320,43 @@
       <c r="X45" s="13"/>
     </row>
     <row r="46" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A46" s="84">
+      <c r="A46" s="80">
         <v>43</v>
       </c>
-      <c r="B46" s="84" t="s">
+      <c r="B46" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="85" t="s">
+      <c r="C46" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="85" t="s">
+      <c r="D46" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="81" t="s">
+      <c r="E46" s="77" t="s">
         <v>125</v>
       </c>
       <c r="F46" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="G46" s="81" t="s">
+      <c r="G46" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H46" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I46" s="37"/>
-      <c r="J46" s="46"/>
+      <c r="I46" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="J46" s="46" t="s">
+        <v>203</v>
+      </c>
       <c r="K46" s="37"/>
       <c r="L46" s="23"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="70"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="66"/>
       <c r="O46" s="20"/>
       <c r="P46" s="20"/>
-      <c r="Q46" s="78"/>
+      <c r="Q46" s="74"/>
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
       <c r="T46" s="13"/>
@@ -5094,40 +5365,44 @@
       <c r="W46" s="13"/>
       <c r="X46" s="13"/>
     </row>
-    <row r="47" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A47" s="84">
+    <row r="47" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A47" s="80">
         <v>44</v>
       </c>
-      <c r="B47" s="84" t="s">
+      <c r="B47" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="85" t="s">
+      <c r="C47" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="85" t="s">
+      <c r="D47" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="80" t="s">
+      <c r="E47" s="76" t="s">
         <v>122</v>
       </c>
       <c r="F47" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="G47" s="81" t="s">
+      <c r="G47" s="77" t="s">
         <v>125</v>
       </c>
       <c r="H47" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I47" s="29"/>
-      <c r="J47" s="51"/>
+      <c r="I47" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="J47" s="50" t="s">
+        <v>205</v>
+      </c>
       <c r="K47" s="37"/>
       <c r="L47" s="23"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="52"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="51"/>
       <c r="O47" s="20"/>
       <c r="P47" s="20"/>
-      <c r="Q47" s="78"/>
+      <c r="Q47" s="74"/>
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
       <c r="T47" s="13"/>
@@ -5136,41 +5411,45 @@
       <c r="W47" s="13"/>
       <c r="X47" s="13"/>
     </row>
-    <row r="48" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A48" s="84">
+    <row r="48" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A48" s="80">
         <v>45</v>
       </c>
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="85" t="s">
+      <c r="C48" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="85" t="s">
+      <c r="D48" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="81" t="s">
+      <c r="E48" s="77" t="s">
         <v>125</v>
       </c>
       <c r="F48" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="G48" s="81" t="s">
+      <c r="G48" s="77" t="s">
         <v>189</v>
       </c>
       <c r="H48" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I48" s="36"/>
-      <c r="J48" s="47"/>
+      <c r="I48" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="J48" s="47" t="s">
+        <v>206</v>
+      </c>
       <c r="K48" s="36"/>
       <c r="L48" s="23"/>
-      <c r="M48" s="77"/>
-      <c r="N48" s="70"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="66"/>
       <c r="O48" s="20"/>
       <c r="P48" s="20"/>
-      <c r="Q48" s="78"/>
-      <c r="R48" s="60"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="59"/>
       <c r="S48" s="13"/>
       <c r="T48" s="13"/>
       <c r="U48" s="13"/>
@@ -5179,39 +5458,43 @@
       <c r="X48" s="13"/>
     </row>
     <row r="49" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A49" s="84">
+      <c r="A49" s="80">
         <v>46</v>
       </c>
-      <c r="B49" s="84" t="s">
+      <c r="B49" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="85" t="s">
+      <c r="C49" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="85" t="s">
+      <c r="D49" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="80" t="s">
+      <c r="E49" s="76" t="s">
         <v>124</v>
       </c>
       <c r="F49" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G49" s="81" t="s">
+      <c r="G49" s="77" t="s">
         <v>189</v>
       </c>
       <c r="H49" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I49" s="37"/>
-      <c r="J49" s="46"/>
+      <c r="I49" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="J49" s="46" t="s">
+        <v>207</v>
+      </c>
       <c r="K49" s="37"/>
       <c r="L49" s="23"/>
       <c r="M49" s="29"/>
-      <c r="N49" s="52"/>
+      <c r="N49" s="51"/>
       <c r="O49" s="20"/>
       <c r="P49" s="20"/>
-      <c r="Q49" s="78"/>
+      <c r="Q49" s="74"/>
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
       <c r="T49" s="13"/>
@@ -5220,34 +5503,40 @@
       <c r="W49" s="13"/>
       <c r="X49" s="13"/>
     </row>
-    <row r="50" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A50" s="84">
+    <row r="50" spans="1:24" s="6" customFormat="1" ht="45">
+      <c r="A50" s="80">
         <v>47</v>
       </c>
-      <c r="B50" s="90">
+      <c r="B50" s="86">
         <v>71117328</v>
       </c>
-      <c r="C50" s="85" t="s">
+      <c r="C50" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="D50" s="84"/>
-      <c r="E50" s="80" t="s">
+      <c r="D50" s="80"/>
+      <c r="E50" s="76" t="s">
         <v>120</v>
       </c>
       <c r="F50" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="G50" s="29"/>
+      <c r="G50" s="29" t="s">
+        <v>221</v>
+      </c>
       <c r="H50" s="44"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="47"/>
+      <c r="I50" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J50" s="46" t="s">
+        <v>201</v>
+      </c>
       <c r="K50" s="37"/>
       <c r="L50" s="23"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="52"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="51"/>
       <c r="O50" s="20"/>
       <c r="P50" s="20"/>
-      <c r="Q50" s="78"/>
+      <c r="Q50" s="74"/>
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
       <c r="T50" s="13"/>
@@ -5257,25 +5546,25 @@
       <c r="X50" s="13"/>
     </row>
     <row r="51" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A51" s="84">
+      <c r="A51" s="80">
         <v>48</v>
       </c>
-      <c r="B51" s="84"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="80"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="76"/>
       <c r="F51" s="33"/>
       <c r="G51" s="36"/>
       <c r="H51" s="38"/>
       <c r="I51" s="36"/>
       <c r="J51" s="47"/>
       <c r="K51" s="29"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="70"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="66"/>
       <c r="O51" s="20"/>
       <c r="P51" s="20"/>
-      <c r="Q51" s="78"/>
+      <c r="Q51" s="74"/>
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
@@ -5285,13 +5574,13 @@
       <c r="X51" s="13"/>
     </row>
     <row r="52" spans="1:24" s="7" customFormat="1" ht="17">
-      <c r="A52" s="84">
+      <c r="A52" s="80">
         <v>49</v>
       </c>
-      <c r="B52" s="84"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="80"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="76"/>
       <c r="F52" s="33"/>
       <c r="G52" s="37"/>
       <c r="H52" s="45"/>
@@ -5299,11 +5588,11 @@
       <c r="J52" s="46"/>
       <c r="K52" s="37"/>
       <c r="L52" s="23"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="73"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="69"/>
       <c r="O52" s="20"/>
       <c r="P52" s="20"/>
-      <c r="Q52" s="78"/>
+      <c r="Q52" s="74"/>
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
       <c r="T52" s="13"/>
@@ -5313,13 +5602,13 @@
       <c r="X52" s="13"/>
     </row>
     <row r="53" spans="1:24" s="6" customFormat="1" ht="18" thickBot="1">
-      <c r="A53" s="84">
+      <c r="A53" s="80">
         <v>50</v>
       </c>
-      <c r="B53" s="84"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="80"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="76"/>
       <c r="F53" s="33"/>
       <c r="G53" s="36"/>
       <c r="H53" s="38"/>
@@ -5327,11 +5616,11 @@
       <c r="J53" s="46"/>
       <c r="K53" s="37"/>
       <c r="L53" s="23"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="52"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="51"/>
       <c r="O53" s="20"/>
       <c r="P53" s="20"/>
-      <c r="Q53" s="78"/>
+      <c r="Q53" s="74"/>
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
       <c r="T53" s="13"/>
@@ -5341,25 +5630,25 @@
       <c r="X53" s="13"/>
     </row>
     <row r="54" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A54" s="84">
+      <c r="A54" s="80">
         <v>51</v>
       </c>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="80"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="76"/>
       <c r="F54" s="33"/>
       <c r="G54" s="29"/>
       <c r="H54" s="44"/>
       <c r="I54" s="37"/>
-      <c r="J54" s="51"/>
+      <c r="J54" s="50"/>
       <c r="K54" s="29"/>
       <c r="L54" s="23"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="70"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="66"/>
       <c r="O54" s="20"/>
       <c r="P54" s="20"/>
-      <c r="Q54" s="78"/>
+      <c r="Q54" s="74"/>
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
       <c r="T54" s="13"/>
@@ -5369,25 +5658,25 @@
       <c r="X54" s="13"/>
     </row>
     <row r="55" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A55" s="84">
+      <c r="A55" s="80">
         <v>52</v>
       </c>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="80"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="76"/>
       <c r="F55" s="33"/>
       <c r="G55" s="37"/>
       <c r="H55" s="42"/>
       <c r="I55" s="37"/>
-      <c r="J55" s="51"/>
+      <c r="J55" s="50"/>
       <c r="K55" s="37"/>
       <c r="L55" s="23"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="70"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="66"/>
       <c r="O55" s="20"/>
       <c r="P55" s="20"/>
-      <c r="Q55" s="78"/>
+      <c r="Q55" s="74"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
@@ -5397,25 +5686,25 @@
       <c r="X55" s="13"/>
     </row>
     <row r="56" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A56" s="84">
+      <c r="A56" s="80">
         <v>53</v>
       </c>
-      <c r="B56" s="84"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="80"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="76"/>
       <c r="F56" s="33"/>
       <c r="G56" s="36"/>
-      <c r="H56" s="59"/>
+      <c r="H56" s="58"/>
       <c r="I56" s="36"/>
-      <c r="J56" s="51"/>
+      <c r="J56" s="50"/>
       <c r="K56" s="29"/>
       <c r="L56" s="23"/>
-      <c r="M56" s="54"/>
-      <c r="N56" s="73"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="69"/>
       <c r="O56" s="20"/>
       <c r="P56" s="20"/>
-      <c r="Q56" s="78"/>
+      <c r="Q56" s="74"/>
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
       <c r="T56" s="13"/>
@@ -5425,25 +5714,25 @@
       <c r="X56" s="13"/>
     </row>
     <row r="57" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A57" s="84">
+      <c r="A57" s="80">
         <v>54</v>
       </c>
-      <c r="B57" s="84"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="80"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="76"/>
       <c r="F57" s="21"/>
       <c r="G57" s="37"/>
       <c r="H57" s="45"/>
       <c r="I57" s="37"/>
-      <c r="J57" s="51"/>
+      <c r="J57" s="50"/>
       <c r="K57" s="29"/>
       <c r="L57" s="23"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="73"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="69"/>
       <c r="O57" s="20"/>
       <c r="P57" s="20"/>
-      <c r="Q57" s="78"/>
+      <c r="Q57" s="74"/>
       <c r="R57" s="13"/>
       <c r="S57" s="13"/>
       <c r="T57" s="13"/>
@@ -5453,13 +5742,13 @@
       <c r="X57" s="13"/>
     </row>
     <row r="58" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A58" s="84">
+      <c r="A58" s="80">
         <v>55</v>
       </c>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="80"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="76"/>
       <c r="F58" s="21"/>
       <c r="G58" s="40"/>
       <c r="H58" s="44"/>
@@ -5468,10 +5757,10 @@
       <c r="K58" s="29"/>
       <c r="L58" s="23"/>
       <c r="M58" s="29"/>
-      <c r="N58" s="73"/>
+      <c r="N58" s="69"/>
       <c r="O58" s="20"/>
       <c r="P58" s="20"/>
-      <c r="Q58" s="78"/>
+      <c r="Q58" s="74"/>
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
       <c r="T58" s="13"/>
@@ -5481,25 +5770,25 @@
       <c r="X58" s="13"/>
     </row>
     <row r="59" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A59" s="84">
+      <c r="A59" s="80">
         <v>56</v>
       </c>
-      <c r="B59" s="84"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="80"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="76"/>
       <c r="F59" s="21"/>
       <c r="G59" s="37"/>
-      <c r="H59" s="63"/>
+      <c r="H59" s="62"/>
       <c r="I59" s="36"/>
-      <c r="J59" s="51"/>
+      <c r="J59" s="50"/>
       <c r="K59" s="29"/>
       <c r="L59" s="23"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="70"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="66"/>
       <c r="O59" s="20"/>
       <c r="P59" s="20"/>
-      <c r="Q59" s="78"/>
+      <c r="Q59" s="74"/>
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
       <c r="T59" s="13"/>
@@ -5509,25 +5798,25 @@
       <c r="X59" s="13"/>
     </row>
     <row r="60" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A60" s="84">
+      <c r="A60" s="80">
         <v>57</v>
       </c>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="80"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="76"/>
       <c r="F60" s="21"/>
       <c r="G60" s="29"/>
       <c r="H60" s="44"/>
       <c r="I60" s="29"/>
-      <c r="J60" s="51"/>
+      <c r="J60" s="50"/>
       <c r="K60" s="29"/>
       <c r="L60" s="20"/>
       <c r="M60" s="20"/>
-      <c r="N60" s="73"/>
+      <c r="N60" s="69"/>
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
-      <c r="Q60" s="78"/>
+      <c r="Q60" s="74"/>
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
       <c r="T60" s="13"/>
@@ -5537,25 +5826,25 @@
       <c r="X60" s="13"/>
     </row>
     <row r="61" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A61" s="84">
+      <c r="A61" s="80">
         <v>58</v>
       </c>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="80"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="76"/>
       <c r="F61" s="21"/>
       <c r="G61" s="29"/>
-      <c r="H61" s="63"/>
+      <c r="H61" s="62"/>
       <c r="I61" s="36"/>
-      <c r="J61" s="51"/>
+      <c r="J61" s="50"/>
       <c r="K61" s="29"/>
       <c r="L61" s="23"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="70"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="66"/>
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
-      <c r="Q61" s="78"/>
+      <c r="Q61" s="74"/>
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
       <c r="T61" s="13"/>
@@ -5565,25 +5854,25 @@
       <c r="X61" s="13"/>
     </row>
     <row r="62" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A62" s="84">
+      <c r="A62" s="80">
         <v>59</v>
       </c>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="80"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="76"/>
       <c r="F62" s="21"/>
       <c r="G62" s="36"/>
-      <c r="H62" s="63"/>
+      <c r="H62" s="62"/>
       <c r="I62" s="36"/>
-      <c r="J62" s="51"/>
+      <c r="J62" s="50"/>
       <c r="K62" s="29"/>
       <c r="L62" s="23"/>
       <c r="M62" s="29"/>
-      <c r="N62" s="73"/>
+      <c r="N62" s="69"/>
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
-      <c r="Q62" s="78"/>
+      <c r="Q62" s="74"/>
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
       <c r="T62" s="13"/>
@@ -5593,25 +5882,25 @@
       <c r="X62" s="13"/>
     </row>
     <row r="63" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A63" s="84">
+      <c r="A63" s="80">
         <v>60</v>
       </c>
-      <c r="B63" s="84"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="82"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="78"/>
       <c r="F63" s="34"/>
       <c r="G63" s="29"/>
       <c r="H63" s="44"/>
       <c r="I63" s="37"/>
-      <c r="J63" s="51"/>
+      <c r="J63" s="50"/>
       <c r="K63" s="29"/>
       <c r="L63" s="23"/>
       <c r="M63" s="29"/>
-      <c r="N63" s="73"/>
+      <c r="N63" s="69"/>
       <c r="O63" s="20"/>
       <c r="P63" s="20"/>
-      <c r="Q63" s="78"/>
+      <c r="Q63" s="74"/>
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
       <c r="T63" s="13"/>
@@ -5621,13 +5910,13 @@
       <c r="X63" s="13"/>
     </row>
     <row r="64" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A64" s="84">
+      <c r="A64" s="80">
         <v>61</v>
       </c>
-      <c r="B64" s="84"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="82"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="78"/>
       <c r="F64" s="34"/>
       <c r="G64" s="29"/>
       <c r="H64" s="44"/>
@@ -5636,10 +5925,10 @@
       <c r="K64" s="29"/>
       <c r="L64" s="23"/>
       <c r="M64" s="29"/>
-      <c r="N64" s="73"/>
+      <c r="N64" s="69"/>
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
-      <c r="Q64" s="78"/>
+      <c r="Q64" s="74"/>
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
       <c r="T64" s="13"/>
@@ -5649,25 +5938,25 @@
       <c r="X64" s="13"/>
     </row>
     <row r="65" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A65" s="84">
+      <c r="A65" s="80">
         <v>62</v>
       </c>
-      <c r="B65" s="84"/>
-      <c r="C65" s="86"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="80"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="76"/>
       <c r="F65" s="22"/>
       <c r="G65" s="29"/>
-      <c r="H65" s="63"/>
+      <c r="H65" s="62"/>
       <c r="I65" s="36"/>
       <c r="J65" s="46"/>
       <c r="K65" s="29"/>
       <c r="L65" s="23"/>
       <c r="M65" s="29"/>
-      <c r="N65" s="73"/>
+      <c r="N65" s="69"/>
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
-      <c r="Q65" s="78"/>
+      <c r="Q65" s="74"/>
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
       <c r="T65" s="13"/>
@@ -5677,25 +5966,25 @@
       <c r="X65" s="13"/>
     </row>
     <row r="66" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A66" s="84">
+      <c r="A66" s="80">
         <v>63</v>
       </c>
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="80"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="76"/>
       <c r="F66" s="21"/>
       <c r="G66" s="32"/>
-      <c r="H66" s="63"/>
+      <c r="H66" s="62"/>
       <c r="I66" s="29"/>
       <c r="J66" s="46"/>
       <c r="K66" s="29"/>
       <c r="L66" s="23"/>
       <c r="M66" s="29"/>
-      <c r="N66" s="73"/>
+      <c r="N66" s="69"/>
       <c r="O66" s="20"/>
       <c r="P66" s="20"/>
-      <c r="Q66" s="78"/>
+      <c r="Q66" s="74"/>
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
       <c r="T66" s="13"/>
@@ -5705,25 +5994,25 @@
       <c r="X66" s="13"/>
     </row>
     <row r="67" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A67" s="84">
+      <c r="A67" s="80">
         <v>64</v>
       </c>
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="80"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="76"/>
       <c r="F67" s="21"/>
       <c r="G67" s="37"/>
       <c r="H67" s="45"/>
       <c r="I67" s="29"/>
-      <c r="J67" s="51"/>
+      <c r="J67" s="50"/>
       <c r="K67" s="29"/>
       <c r="L67" s="23"/>
       <c r="M67" s="29"/>
-      <c r="N67" s="73"/>
+      <c r="N67" s="69"/>
       <c r="O67" s="20"/>
       <c r="P67" s="20"/>
-      <c r="Q67" s="78"/>
+      <c r="Q67" s="74"/>
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
       <c r="T67" s="13"/>
@@ -5733,25 +6022,25 @@
       <c r="X67" s="13"/>
     </row>
     <row r="68" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A68" s="84">
+      <c r="A68" s="80">
         <v>65</v>
       </c>
-      <c r="B68" s="84"/>
-      <c r="C68" s="86"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="83"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="79"/>
       <c r="F68" s="21"/>
       <c r="G68" s="37"/>
-      <c r="H68" s="63"/>
+      <c r="H68" s="62"/>
       <c r="I68" s="37"/>
-      <c r="J68" s="51"/>
+      <c r="J68" s="50"/>
       <c r="K68" s="29"/>
       <c r="L68" s="23"/>
       <c r="M68" s="29"/>
-      <c r="N68" s="73"/>
+      <c r="N68" s="69"/>
       <c r="O68" s="20"/>
       <c r="P68" s="20"/>
-      <c r="Q68" s="78"/>
+      <c r="Q68" s="74"/>
       <c r="R68" s="13"/>
       <c r="S68" s="13"/>
       <c r="T68" s="13"/>
@@ -5761,25 +6050,25 @@
       <c r="X68" s="13"/>
     </row>
     <row r="69" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A69" s="84">
+      <c r="A69" s="80">
         <v>66</v>
       </c>
-      <c r="B69" s="84"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="82"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="78"/>
       <c r="F69" s="34"/>
       <c r="G69" s="29"/>
       <c r="H69" s="44"/>
       <c r="I69" s="29"/>
-      <c r="J69" s="51"/>
+      <c r="J69" s="50"/>
       <c r="K69" s="29"/>
       <c r="L69" s="23"/>
       <c r="M69" s="29"/>
-      <c r="N69" s="73"/>
+      <c r="N69" s="69"/>
       <c r="O69" s="20"/>
       <c r="P69" s="20"/>
-      <c r="Q69" s="78"/>
+      <c r="Q69" s="74"/>
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
       <c r="T69" s="13"/>
@@ -5789,25 +6078,25 @@
       <c r="X69" s="13"/>
     </row>
     <row r="70" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A70" s="84">
+      <c r="A70" s="80">
         <v>67</v>
       </c>
-      <c r="B70" s="84"/>
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="82"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="78"/>
       <c r="F70" s="35"/>
       <c r="G70" s="29"/>
       <c r="H70" s="44"/>
       <c r="I70" s="29"/>
-      <c r="J70" s="51"/>
+      <c r="J70" s="50"/>
       <c r="K70" s="29"/>
       <c r="L70" s="23"/>
       <c r="M70" s="29"/>
-      <c r="N70" s="73"/>
+      <c r="N70" s="69"/>
       <c r="O70" s="20"/>
       <c r="P70" s="20"/>
-      <c r="Q70" s="78"/>
+      <c r="Q70" s="74"/>
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
       <c r="T70" s="13"/>
@@ -5817,13 +6106,13 @@
       <c r="X70" s="13"/>
     </row>
     <row r="71" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A71" s="84">
+      <c r="A71" s="80">
         <v>68</v>
       </c>
-      <c r="B71" s="84"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="82"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="78"/>
       <c r="F71" s="34"/>
       <c r="G71" s="29"/>
       <c r="H71" s="39"/>
@@ -5835,7 +6124,7 @@
       <c r="N71" s="46"/>
       <c r="O71" s="20"/>
       <c r="P71" s="20"/>
-      <c r="Q71" s="78"/>
+      <c r="Q71" s="74"/>
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
       <c r="T71" s="13"/>
@@ -5845,25 +6134,25 @@
       <c r="X71" s="13"/>
     </row>
     <row r="72" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A72" s="84">
+      <c r="A72" s="80">
         <v>69</v>
       </c>
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="80"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="76"/>
       <c r="F72" s="21"/>
       <c r="G72" s="40"/>
       <c r="H72" s="44"/>
       <c r="I72" s="40"/>
-      <c r="J72" s="51"/>
+      <c r="J72" s="50"/>
       <c r="K72" s="29"/>
       <c r="L72" s="46"/>
       <c r="M72" s="29"/>
       <c r="N72" s="46"/>
       <c r="O72" s="20"/>
       <c r="P72" s="20"/>
-      <c r="Q72" s="78"/>
+      <c r="Q72" s="74"/>
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
       <c r="T72" s="13"/>
@@ -5873,13 +6162,13 @@
       <c r="X72" s="13"/>
     </row>
     <row r="73" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A73" s="84">
+      <c r="A73" s="80">
         <v>70</v>
       </c>
-      <c r="B73" s="84"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="80"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="76"/>
       <c r="F73" s="21"/>
       <c r="G73" s="29"/>
       <c r="H73" s="44"/>
@@ -5891,7 +6180,7 @@
       <c r="N73" s="46"/>
       <c r="O73" s="20"/>
       <c r="P73" s="20"/>
-      <c r="Q73" s="78"/>
+      <c r="Q73" s="74"/>
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
       <c r="T73" s="13"/>
@@ -5901,25 +6190,25 @@
       <c r="X73" s="13"/>
     </row>
     <row r="74" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A74" s="84">
+      <c r="A74" s="80">
         <v>71</v>
       </c>
-      <c r="B74" s="84"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="80"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="76"/>
       <c r="F74" s="21"/>
       <c r="G74" s="40"/>
       <c r="H74" s="44"/>
       <c r="I74" s="40"/>
-      <c r="J74" s="51"/>
+      <c r="J74" s="50"/>
       <c r="K74" s="29"/>
       <c r="L74" s="46"/>
-      <c r="M74" s="74"/>
+      <c r="M74" s="70"/>
       <c r="N74" s="46"/>
       <c r="O74" s="20"/>
       <c r="P74" s="20"/>
-      <c r="Q74" s="78"/>
+      <c r="Q74" s="74"/>
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
       <c r="T74" s="13"/>
@@ -5929,15 +6218,15 @@
       <c r="X74" s="13"/>
     </row>
     <row r="75" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A75" s="84">
+      <c r="A75" s="80">
         <v>72</v>
       </c>
-      <c r="B75" s="84"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="80"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="76"/>
       <c r="F75" s="21"/>
-      <c r="G75" s="64"/>
+      <c r="G75" s="63"/>
       <c r="H75" s="39"/>
       <c r="I75" s="29"/>
       <c r="J75" s="46"/>
@@ -5947,7 +6236,7 @@
       <c r="N75" s="46"/>
       <c r="O75" s="20"/>
       <c r="P75" s="20"/>
-      <c r="Q75" s="78"/>
+      <c r="Q75" s="74"/>
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
       <c r="T75" s="13"/>
@@ -5957,13 +6246,13 @@
       <c r="X75" s="13"/>
     </row>
     <row r="76" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A76" s="84">
+      <c r="A76" s="80">
         <v>73</v>
       </c>
-      <c r="B76" s="84"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="80"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="80"/>
+      <c r="E76" s="76"/>
       <c r="F76" s="21"/>
       <c r="G76" s="29"/>
       <c r="H76" s="44"/>
@@ -5975,7 +6264,7 @@
       <c r="N76" s="46"/>
       <c r="O76" s="20"/>
       <c r="P76" s="20"/>
-      <c r="Q76" s="78"/>
+      <c r="Q76" s="74"/>
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
       <c r="T76" s="13"/>
@@ -5985,13 +6274,13 @@
       <c r="X76" s="13"/>
     </row>
     <row r="77" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A77" s="84">
+      <c r="A77" s="80">
         <v>74</v>
       </c>
-      <c r="B77" s="84"/>
-      <c r="C77" s="84"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="80"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="76"/>
       <c r="F77" s="21"/>
       <c r="G77" s="29"/>
       <c r="H77" s="44"/>
@@ -6003,7 +6292,7 @@
       <c r="N77" s="46"/>
       <c r="O77" s="20"/>
       <c r="P77" s="20"/>
-      <c r="Q77" s="78"/>
+      <c r="Q77" s="74"/>
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
       <c r="T77" s="13"/>
@@ -6013,14 +6302,14 @@
       <c r="X77" s="13"/>
     </row>
     <row r="78" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A78" s="84">
+      <c r="A78" s="80">
         <v>75</v>
       </c>
-      <c r="B78" s="84"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="80"/>
-      <c r="F78" s="62"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="61"/>
       <c r="G78" s="29"/>
       <c r="H78" s="44"/>
       <c r="I78" s="29"/>
@@ -6028,10 +6317,10 @@
       <c r="K78" s="29"/>
       <c r="L78" s="49"/>
       <c r="M78" s="29"/>
-      <c r="N78" s="75"/>
+      <c r="N78" s="71"/>
       <c r="O78" s="20"/>
       <c r="P78" s="20"/>
-      <c r="Q78" s="78"/>
+      <c r="Q78" s="74"/>
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
       <c r="T78" s="13"/>
@@ -6041,25 +6330,25 @@
       <c r="X78" s="13"/>
     </row>
     <row r="79" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A79" s="84">
+      <c r="A79" s="80">
         <v>76</v>
       </c>
-      <c r="B79" s="84"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="80"/>
-      <c r="F79" s="62"/>
+      <c r="B79" s="80"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="61"/>
       <c r="G79" s="29"/>
       <c r="H79" s="44"/>
       <c r="I79" s="40"/>
-      <c r="J79" s="51"/>
+      <c r="J79" s="50"/>
       <c r="K79" s="29"/>
       <c r="L79" s="49"/>
       <c r="M79" s="29"/>
-      <c r="N79" s="76"/>
+      <c r="N79" s="72"/>
       <c r="O79" s="20"/>
       <c r="P79" s="20"/>
-      <c r="Q79" s="78"/>
+      <c r="Q79" s="74"/>
       <c r="R79" s="13"/>
       <c r="S79" s="13"/>
       <c r="T79" s="13"/>
@@ -6095,26 +6384,26 @@
       <c r="X80" s="13"/>
     </row>
     <row r="81" spans="1:24" ht="76" customHeight="1" thickBot="1">
-      <c r="A81" s="101" t="s">
+      <c r="A81" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="B81" s="102"/>
-      <c r="C81" s="102"/>
-      <c r="D81" s="103"/>
-      <c r="E81" s="104" t="s">
+      <c r="B81" s="100"/>
+      <c r="C81" s="100"/>
+      <c r="D81" s="101"/>
+      <c r="E81" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="F81" s="105"/>
-      <c r="G81" s="104" t="s">
+      <c r="F81" s="103"/>
+      <c r="G81" s="102" t="s">
         <v>198</v>
       </c>
-      <c r="H81" s="105"/>
-      <c r="I81" s="104"/>
-      <c r="J81" s="105"/>
-      <c r="K81" s="116"/>
-      <c r="L81" s="117"/>
-      <c r="M81" s="116"/>
-      <c r="N81" s="117"/>
+      <c r="H81" s="103"/>
+      <c r="I81" s="102"/>
+      <c r="J81" s="103"/>
+      <c r="K81" s="115"/>
+      <c r="L81" s="116"/>
+      <c r="M81" s="115"/>
+      <c r="N81" s="116"/>
       <c r="O81" s="16"/>
       <c r="P81" s="17"/>
       <c r="Q81" s="18"/>
@@ -6127,30 +6416,32 @@
       <c r="X81" s="18"/>
     </row>
     <row r="82" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A82" s="93" t="s">
+      <c r="A82" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B82" s="110"/>
-      <c r="C82" s="111"/>
-      <c r="D82" s="111"/>
-      <c r="E82" s="109" t="s">
+      <c r="B82" s="109"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="108" t="s">
         <v>153</v>
       </c>
-      <c r="F82" s="109"/>
-      <c r="G82" s="118" t="s">
+      <c r="F82" s="108"/>
+      <c r="G82" s="106" t="s">
         <v>185</v>
       </c>
-      <c r="H82" s="118"/>
-      <c r="I82" s="106"/>
+      <c r="H82" s="106"/>
+      <c r="I82" s="106" t="s">
+        <v>199</v>
+      </c>
       <c r="J82" s="106"/>
-      <c r="K82" s="106"/>
-      <c r="L82" s="106"/>
-      <c r="M82" s="107"/>
-      <c r="N82" s="107"/>
-      <c r="O82" s="106" t="s">
+      <c r="K82" s="104"/>
+      <c r="L82" s="104"/>
+      <c r="M82" s="105"/>
+      <c r="N82" s="105"/>
+      <c r="O82" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="P82" s="106"/>
+      <c r="P82" s="104"/>
       <c r="Q82" s="18"/>
       <c r="R82" s="18"/>
       <c r="S82" s="18"/>
@@ -6161,22 +6452,22 @@
       <c r="X82" s="18"/>
     </row>
     <row r="83" spans="1:24">
-      <c r="A83" s="94"/>
-      <c r="B83" s="112"/>
-      <c r="C83" s="113"/>
-      <c r="D83" s="113"/>
-      <c r="E83" s="109"/>
-      <c r="F83" s="109"/>
-      <c r="G83" s="118"/>
-      <c r="H83" s="118"/>
+      <c r="A83" s="92"/>
+      <c r="B83" s="111"/>
+      <c r="C83" s="112"/>
+      <c r="D83" s="112"/>
+      <c r="E83" s="108"/>
+      <c r="F83" s="108"/>
+      <c r="G83" s="106"/>
+      <c r="H83" s="106"/>
       <c r="I83" s="106"/>
       <c r="J83" s="106"/>
-      <c r="K83" s="106"/>
-      <c r="L83" s="106"/>
-      <c r="M83" s="107"/>
-      <c r="N83" s="107"/>
-      <c r="O83" s="106"/>
-      <c r="P83" s="106"/>
+      <c r="K83" s="104"/>
+      <c r="L83" s="104"/>
+      <c r="M83" s="105"/>
+      <c r="N83" s="105"/>
+      <c r="O83" s="104"/>
+      <c r="P83" s="104"/>
       <c r="Q83" s="18"/>
       <c r="R83" s="18"/>
       <c r="S83" s="18"/>
@@ -6187,22 +6478,22 @@
       <c r="X83" s="18"/>
     </row>
     <row r="84" spans="1:24" ht="261" customHeight="1" thickBot="1">
-      <c r="A84" s="108"/>
-      <c r="B84" s="114"/>
-      <c r="C84" s="115"/>
-      <c r="D84" s="115"/>
-      <c r="E84" s="109"/>
-      <c r="F84" s="109"/>
-      <c r="G84" s="118"/>
-      <c r="H84" s="118"/>
+      <c r="A84" s="107"/>
+      <c r="B84" s="113"/>
+      <c r="C84" s="114"/>
+      <c r="D84" s="114"/>
+      <c r="E84" s="108"/>
+      <c r="F84" s="108"/>
+      <c r="G84" s="106"/>
+      <c r="H84" s="106"/>
       <c r="I84" s="106"/>
       <c r="J84" s="106"/>
-      <c r="K84" s="106"/>
-      <c r="L84" s="106"/>
-      <c r="M84" s="107"/>
-      <c r="N84" s="107"/>
-      <c r="O84" s="106"/>
-      <c r="P84" s="106"/>
+      <c r="K84" s="104"/>
+      <c r="L84" s="104"/>
+      <c r="M84" s="105"/>
+      <c r="N84" s="105"/>
+      <c r="O84" s="104"/>
+      <c r="P84" s="104"/>
       <c r="Q84" s="18"/>
       <c r="R84" s="18"/>
       <c r="S84" s="18"/>
@@ -6212,34 +6503,34 @@
       <c r="W84" s="18"/>
       <c r="X84" s="18"/>
     </row>
-    <row r="86" spans="1:24" s="100" customFormat="1">
-      <c r="A86" s="100" t="s">
+    <row r="86" spans="1:24" s="98" customFormat="1">
+      <c r="A86" s="98" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:24" s="100" customFormat="1">
-      <c r="A87" s="100" t="s">
+    <row r="87" spans="1:24" s="98" customFormat="1">
+      <c r="A87" s="98" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:24">
-      <c r="A88" s="56" t="s">
+      <c r="A88" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="56"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="56"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="55"/>
     </row>
     <row r="92" spans="1:24">
       <c r="A92" t="s">
         <v>129</v>
       </c>
-      <c r="B92" s="88">
+      <c r="B92" s="84">
         <v>71118307</v>
       </c>
       <c r="C92" t="s">
@@ -6250,7 +6541,7 @@
       </c>
     </row>
     <row r="93" spans="1:24">
-      <c r="B93" s="87" t="s">
+      <c r="B93" s="83" t="s">
         <v>107</v>
       </c>
       <c r="C93" t="s">
@@ -6259,10 +6550,10 @@
       <c r="D93" t="s">
         <v>169</v>
       </c>
-      <c r="E93" s="91"/>
+      <c r="E93" s="87"/>
     </row>
     <row r="94" spans="1:24">
-      <c r="B94" s="88" t="s">
+      <c r="B94" s="84" t="s">
         <v>86</v>
       </c>
       <c r="C94" t="s">
@@ -6273,7 +6564,7 @@
       </c>
     </row>
     <row r="95" spans="1:24">
-      <c r="B95" s="88">
+      <c r="B95" s="84">
         <v>71118314</v>
       </c>
       <c r="C95" t="s">
@@ -6284,7 +6575,7 @@
       </c>
     </row>
     <row r="96" spans="1:24">
-      <c r="B96" s="88">
+      <c r="B96" s="84">
         <v>71118402</v>
       </c>
       <c r="C96" t="s">
@@ -6295,7 +6586,7 @@
       </c>
     </row>
     <row r="97" spans="2:4">
-      <c r="B97" s="88" t="s">
+      <c r="B97" s="84" t="s">
         <v>80</v>
       </c>
       <c r="C97" t="s">
@@ -6306,7 +6597,7 @@
       </c>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="88" t="s">
+      <c r="B98" s="84" t="s">
         <v>108</v>
       </c>
       <c r="C98" t="s">
@@ -6317,7 +6608,7 @@
       </c>
     </row>
     <row r="99" spans="2:4">
-      <c r="B99" s="88" t="s">
+      <c r="B99" s="84" t="s">
         <v>84</v>
       </c>
       <c r="C99" t="s">
@@ -6328,7 +6619,7 @@
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="88" t="s">
+      <c r="B100" s="84" t="s">
         <v>41</v>
       </c>
       <c r="C100" t="s">
@@ -6339,7 +6630,7 @@
       </c>
     </row>
     <row r="101" spans="2:4">
-      <c r="B101" s="88" t="s">
+      <c r="B101" s="84" t="s">
         <v>60</v>
       </c>
       <c r="C101" t="s">
@@ -6350,7 +6641,7 @@
       </c>
     </row>
     <row r="102" spans="2:4">
-      <c r="B102" s="88" t="s">
+      <c r="B102" s="84" t="s">
         <v>63</v>
       </c>
       <c r="C102" t="s">
@@ -6361,7 +6652,7 @@
       </c>
     </row>
     <row r="103" spans="2:4">
-      <c r="B103" s="88" t="s">
+      <c r="B103" s="84" t="s">
         <v>56</v>
       </c>
       <c r="C103" t="s">
@@ -6372,7 +6663,7 @@
       </c>
     </row>
     <row r="104" spans="2:4">
-      <c r="B104" s="88" t="s">
+      <c r="B104" s="84" t="s">
         <v>96</v>
       </c>
       <c r="C104" t="s">
@@ -6383,7 +6674,7 @@
       </c>
     </row>
     <row r="105" spans="2:4">
-      <c r="B105" s="88" t="s">
+      <c r="B105" s="84" t="s">
         <v>178</v>
       </c>
       <c r="C105" t="s">
@@ -6394,7 +6685,7 @@
       </c>
     </row>
     <row r="106" spans="2:4">
-      <c r="B106" s="88" t="s">
+      <c r="B106" s="84" t="s">
         <v>78</v>
       </c>
       <c r="C106" t="s">
@@ -6403,6 +6694,20 @@
       <c r="D106" t="s">
         <v>170</v>
       </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" t="s">
+        <v>161</v>
+      </c>
+      <c r="D107" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="26">

--- a/20-21汪鹏老师班-平时成绩单.xlsx
+++ b/20-21汪鹏老师班-平时成绩单.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CF517F-02FA-4C41-BCC5-B9CD22A7472E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A001AFC-B3A3-084F-B01C-0C83A5EDBF64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="24780" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20-21" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="255">
   <si>
     <t>序号</t>
   </si>
@@ -673,10 +673,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>进入全国决赛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>参加比赛</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -902,6 +898,133 @@
   </si>
   <si>
     <t>getResult()中，圈复杂度为什么不等于基本路径数目？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入全国决赛（18名）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 综合使用等价类划分和边界值分析，而不需要把二者完全独立测试，避免构造重复的测试用例。
+2. 实验1中，无效等价类要尽量细分，除了综合考虑年月日的各种非法输入的无效等价类外，还可以考虑年，月，日参数是否完整等情况。
+3. 实验2中，边界值分析除了两个四边形关系造成的边界情况外，还应考虑两个四边形本身的边界，即退化为点、线段、达到整形数类型上界大小的情况等。
+4. 测试用例设计时，要注意Expected的正确取值，当两个矩形有覆盖时，Expected=True，反之为False.
+5. 如果给定“覆盖结果为线或点不属于覆盖”的话，则被测6种方法只有e正确，其它都有BUG存在。
+6. 注意对输入参数属于同一类型时，要注意进行参数交换的测试，避免程序中有混淆参数的BUG存在。在这里需要考虑交换两个四边形的输入次序。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈婉艺 陈泽语 唐科 张鹏 胡景淞  魏俊毅 张晓铮 
+谈金翰 陆舟洋 钱会川 徐志文 陈瀚 李勃帆 夏遵辉 
+孙嘉旋 毛雪芸 修娜娜 张音祺 闫一潇 李咏新
+魏浩东 叶宏庭 南希 皮雳 洪焕荣 牛熠玮 
+仇嘉乐 张文韬 束新月 金煜 王宸 李渊 
+芦小栋 李潼泷 袁逸舟 杭文轩 盛鹏飞 杨耀坤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验2中，等价类划分可以设计更多无效等价类，例如无输入矩形的的情形；边界值分析中还可考虑矩形重叠，矩阵长宽去整型数最大值的情形；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验2中，还要考虑对矩形大小和矩形重叠关系的边界值分析。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在设计等价类和边界值分析时考虑较为全面。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验2的最大边界可以考虑整型数最大值。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验2的边界还包含单个矩形的边界，两个矩形重叠，矩形长宽为整型数最大值。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价类划分和边界值分析应更详细一些。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验2中边界还可以考虑两个矩形重叠、相交为边 线 点的边界。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>实验2中一些特殊的等价类可以作为边界值情形考虑。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验2的最大边界可以考虑整型数最大值，最小边界值则可以考虑边长为1个像素点或者为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验2中，还要考虑对矩形大小的边界值分析。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验2中，还要考虑对矩形大小的边界值分析。实验报告非常认真。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验2中的边界值情形可以先细化给出。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验2无效等价类可以设计更多，有一些特殊的等价类具有边界特点，应在边界值分析进行测试。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>对黑盒测试的理解掌握较好，等价类和边界条件的划分也很合理，测试思路清晰，测试用例设计准确。</t>
+  </si>
+  <si>
+    <t>对黑盒测试的理解掌握较好，等价类和边界条件的划分除了数值的划分依据也应该还要考虑覆盖关系，测试思路清晰，测试用例设计准确。</t>
+  </si>
+  <si>
+    <t>对黑盒测试的理解掌握较好，等价类的划分有点小问题，漏掉了无覆盖的有效等价类，测试用例设计思路清晰。</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>等价类的划分有比较大的问题，仅仅考虑了输入数值方面的划分依据，没有考虑两个矩形覆盖关系的划分，测试用例设计不充分。</t>
+  </si>
+  <si>
+    <t>对黑盒测试的理解掌握较好，但实验2中的等价类划分漏掉了不覆盖的情况，边界条件的划分思路比较清晰。</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>对黑盒测试的有些概念理解有偏差，比如“无覆盖”应属于有效等价类，而且在等价类划分时应考虑类似输入有误的无效等价类。</t>
+  </si>
+  <si>
+    <t>对黑盒测试的理解掌握较好，等价类和边界条件的划分也很合理，等价类可以划分的更细致，相应的增加测试用例，其中边界值分析测试思路清晰。</t>
+  </si>
+  <si>
+    <t>对黑盒测试的理解掌握较好，等价类和边界条件的设计思路比较清晰，但实验2中按照你的思路缺少矩形高度和宽度的讨论情况，另外非法的无效输入可以分的更细，比如考虑用户的字符串输入或者非int型输入等。</t>
+  </si>
+  <si>
+    <t>对黑盒测试的理解掌握较好，等价类和边界条件的设计思路比较清晰，但实验2中等价类和边界条件的设计只考虑了数据均为有效的情况，没有考虑到用户输入数值非法或者越界的情况。</t>
+  </si>
+  <si>
+    <t>对黑盒测试的理解掌握较好，但实验2中等价类的设计存在缺失，如输入数值的类型（int, float）或者输入数值超过最大范围等。</t>
+  </si>
+  <si>
+    <t>对黑盒测试的理解掌握较好，但实验2中的等价类划分漏和边界条件划分不是很细致。
+实验报告和其他同学雷同</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏俊毅 张晓铮 谈金翰 徐志文 陈瀚
+李勃帆 夏遵辉 刘宇萌 毛雪芸 李钰翰
+魏浩东 南希 刘隆琦 皮雳 王宸</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1149,7 +1272,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体 (正文)"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2056,7 +2178,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2201,9 +2323,6 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2309,29 +2428,17 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2349,14 +2456,20 @@
     <xf numFmtId="49" fontId="23" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2386,6 +2499,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3250,8 +3381,8 @@
   </sheetPr>
   <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:J22"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -3261,9 +3392,9 @@
     <col min="3" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="44.83203125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="7.5" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="44.83203125" style="28" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="6.1640625" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="6.5" customWidth="1"/>
@@ -3276,66 +3407,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="43" customHeight="1" thickBot="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
     </row>
     <row r="2" spans="1:24" ht="16" thickBot="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="94" t="s">
+      <c r="E2" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96" t="s">
+      <c r="F2" s="117"/>
+      <c r="G2" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="94" t="s">
+      <c r="H2" s="119"/>
+      <c r="I2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="94" t="s">
+      <c r="J2" s="119"/>
+      <c r="K2" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="97"/>
-      <c r="M2" s="94" t="s">
+      <c r="L2" s="119"/>
+      <c r="M2" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="97"/>
+      <c r="N2" s="119"/>
       <c r="O2" s="27" t="s">
         <v>29</v>
       </c>
@@ -3366,10 +3497,10 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="15">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="115"/>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
@@ -3416,19 +3547,19 @@
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:24" s="6" customFormat="1" ht="16">
-      <c r="A4" s="80">
+      <c r="A4" s="79">
         <v>1</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="76"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="22"/>
       <c r="G4" s="32"/>
       <c r="H4" s="43"/>
@@ -3436,8 +3567,8 @@
       <c r="J4" s="48"/>
       <c r="K4" s="29"/>
       <c r="L4" s="51"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="54"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="53"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="19"/>
@@ -3450,19 +3581,19 @@
       <c r="X4" s="13"/>
     </row>
     <row r="5" spans="1:24" s="6" customFormat="1" ht="60">
-      <c r="A5" s="80">
+      <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="75" t="s">
         <v>124</v>
       </c>
       <c r="F5" s="22" t="s">
@@ -3471,22 +3602,26 @@
       <c r="G5" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="57" t="s">
-        <v>190</v>
+      <c r="H5" s="56" t="s">
+        <v>189</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="51"/>
+        <v>207</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>236</v>
+      </c>
       <c r="M5" s="29"/>
-      <c r="N5" s="64"/>
+      <c r="N5" s="63"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
-      <c r="Q5" s="74"/>
+      <c r="Q5" s="73"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
@@ -3496,19 +3631,19 @@
       <c r="X5" s="13"/>
     </row>
     <row r="6" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A6" s="80">
+      <c r="A6" s="79">
         <v>3</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="21" t="s">
@@ -3518,21 +3653,25 @@
         <v>142</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J6" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="51"/>
+        <v>208</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>236</v>
+      </c>
       <c r="M6" s="29"/>
-      <c r="N6" s="64"/>
+      <c r="N6" s="63"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
-      <c r="Q6" s="74"/>
+      <c r="Q6" s="73"/>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
@@ -3542,43 +3681,47 @@
       <c r="X6" s="13"/>
     </row>
     <row r="7" spans="1:24" s="6" customFormat="1" ht="60">
-      <c r="A7" s="80">
+      <c r="A7" s="79">
         <v>4</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="75" t="s">
         <v>124</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="77" t="s">
+      <c r="G7" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H7" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J7" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="64"/>
+        <v>200</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="M7" s="52"/>
+      <c r="N7" s="63"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
-      <c r="Q7" s="74"/>
+      <c r="Q7" s="73"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -3588,19 +3731,19 @@
       <c r="X7" s="13"/>
     </row>
     <row r="8" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A8" s="80">
+      <c r="A8" s="79">
         <v>5</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="75" t="s">
         <v>142</v>
       </c>
       <c r="F8" s="22" t="s">
@@ -3610,21 +3753,25 @@
         <v>120</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="I8" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="I8" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J8" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="51"/>
+        <v>210</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>238</v>
+      </c>
       <c r="M8" s="29"/>
-      <c r="N8" s="65"/>
+      <c r="N8" s="64"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
-      <c r="Q8" s="74"/>
+      <c r="Q8" s="73"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
@@ -3634,43 +3781,47 @@
       <c r="X8" s="13"/>
     </row>
     <row r="9" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A9" s="80">
+      <c r="A9" s="79">
         <v>6</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H9" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J9" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="M9" s="52"/>
+      <c r="N9" s="65"/>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
-      <c r="Q9" s="74"/>
+      <c r="Q9" s="73"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
@@ -3680,44 +3831,48 @@
       <c r="X9" s="13"/>
     </row>
     <row r="10" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A10" s="80">
+      <c r="A10" s="79">
         <v>7</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="G10" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H10" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="51"/>
+        <v>210</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>237</v>
+      </c>
       <c r="M10" s="29"/>
-      <c r="N10" s="64"/>
+      <c r="N10" s="63"/>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="59"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="58"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
@@ -3726,43 +3881,47 @@
       <c r="X10" s="13"/>
     </row>
     <row r="11" spans="1:24" s="6" customFormat="1" ht="75">
-      <c r="A11" s="80">
+      <c r="A11" s="79">
         <v>8</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="75" t="s">
         <v>142</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="77" t="s">
+      <c r="G11" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="I11" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="M11" s="52"/>
+      <c r="N11" s="65"/>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
-      <c r="Q11" s="74"/>
+      <c r="Q11" s="73"/>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
@@ -3772,43 +3931,47 @@
       <c r="X11" s="13"/>
     </row>
     <row r="12" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A12" s="80">
+      <c r="A12" s="79">
         <v>9</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="77" t="s">
+      <c r="G12" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H12" s="46" t="s">
         <v>146</v>
       </c>
       <c r="I12" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="J12" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="J12" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="67"/>
+      <c r="K12" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="M12" s="52"/>
+      <c r="N12" s="66"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
-      <c r="Q12" s="74"/>
+      <c r="Q12" s="73"/>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
@@ -3817,44 +3980,48 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A13" s="80">
+    <row r="13" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A13" s="79">
         <v>10</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="84" t="s">
         <v>125</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="77" t="s">
+      <c r="G13" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H13" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="I13" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="K13" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="M13" s="52"/>
+      <c r="N13" s="65"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
-      <c r="Q13" s="74"/>
+      <c r="Q13" s="73"/>
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
@@ -3864,43 +4031,47 @@
       <c r="X13" s="13"/>
     </row>
     <row r="14" spans="1:24" s="6" customFormat="1" ht="60">
-      <c r="A14" s="80">
+      <c r="A14" s="79">
         <v>11</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>148</v>
       </c>
       <c r="G14" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="56" t="s">
         <v>218</v>
       </c>
-      <c r="H14" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="I14" s="77" t="s">
+      <c r="I14" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="51"/>
+        <v>200</v>
+      </c>
+      <c r="K14" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="L14" s="51" t="s">
+        <v>241</v>
+      </c>
       <c r="M14" s="29"/>
-      <c r="N14" s="64"/>
+      <c r="N14" s="63"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
-      <c r="Q14" s="74"/>
+      <c r="Q14" s="73"/>
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
@@ -3909,44 +4080,48 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A15" s="80">
+    <row r="15" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A15" s="79">
         <v>12</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="77" t="s">
+      <c r="G15" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H15" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I15" s="77" t="s">
+      <c r="I15" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J15" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="51"/>
+        <v>200</v>
+      </c>
+      <c r="K15" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>241</v>
+      </c>
       <c r="M15" s="29"/>
-      <c r="N15" s="64"/>
+      <c r="N15" s="63"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
-      <c r="Q15" s="74"/>
+      <c r="Q15" s="73"/>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
@@ -3956,43 +4131,47 @@
       <c r="X15" s="13"/>
     </row>
     <row r="16" spans="1:24" s="6" customFormat="1" ht="75">
-      <c r="A16" s="80">
+      <c r="A16" s="79">
         <v>13</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="77" t="s">
+      <c r="E16" s="76" t="s">
         <v>125</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="G16" s="77" t="s">
-        <v>189</v>
+      <c r="G16" s="76" t="s">
+        <v>188</v>
       </c>
       <c r="H16" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I16" s="77" t="s">
+      <c r="I16" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="K16" s="90" t="s">
+        <v>233</v>
+      </c>
+      <c r="L16" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="M16" s="52"/>
+      <c r="N16" s="65"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
-      <c r="Q16" s="74"/>
+      <c r="Q16" s="73"/>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
@@ -4001,44 +4180,48 @@
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
     </row>
-    <row r="17" spans="1:24" s="6" customFormat="1" ht="60">
-      <c r="A17" s="80">
+    <row r="17" spans="1:24" s="6" customFormat="1" ht="75">
+      <c r="A17" s="79">
         <v>14</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="76" t="s">
+      <c r="E17" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="G17" s="77" t="s">
+      <c r="G17" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H17" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I17" s="77" t="s">
+      <c r="I17" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J17" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="66"/>
+        <v>211</v>
+      </c>
+      <c r="K17" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="L17" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="M17" s="52"/>
+      <c r="N17" s="65"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
-      <c r="Q17" s="74"/>
+      <c r="Q17" s="73"/>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
@@ -4047,44 +4230,48 @@
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
     </row>
-    <row r="18" spans="1:24" s="6" customFormat="1" ht="60">
-      <c r="A18" s="80">
+    <row r="18" spans="1:24" s="6" customFormat="1" ht="75">
+      <c r="A18" s="79">
         <v>15</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="81" t="s">
+      <c r="D18" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="76" t="s">
+      <c r="E18" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="G18" s="77" t="s">
-        <v>189</v>
+      <c r="G18" s="76" t="s">
+        <v>188</v>
       </c>
       <c r="H18" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I18" s="77" t="s">
+      <c r="I18" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="51"/>
+        <v>211</v>
+      </c>
+      <c r="K18" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="L18" s="51" t="s">
+        <v>242</v>
+      </c>
       <c r="M18" s="29"/>
-      <c r="N18" s="66"/>
+      <c r="N18" s="65"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
-      <c r="Q18" s="74"/>
+      <c r="Q18" s="73"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
@@ -4093,44 +4280,48 @@
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
     </row>
-    <row r="19" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A19" s="80">
+    <row r="19" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A19" s="79">
         <v>16</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="76" t="s">
+      <c r="E19" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="77" t="s">
+      <c r="G19" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H19" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I19" s="77" t="s">
+      <c r="I19" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J19" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="51"/>
+        <v>200</v>
+      </c>
+      <c r="K19" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="L19" s="51" t="s">
+        <v>243</v>
+      </c>
       <c r="M19" s="29"/>
-      <c r="N19" s="66"/>
+      <c r="N19" s="65"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
-      <c r="Q19" s="74"/>
+      <c r="Q19" s="73"/>
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
@@ -4139,44 +4330,48 @@
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
     </row>
-    <row r="20" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A20" s="80">
+    <row r="20" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A20" s="79">
         <v>17</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="77" t="s">
+      <c r="E20" s="76" t="s">
         <v>125</v>
       </c>
       <c r="F20" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="77" t="s">
+      <c r="G20" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H20" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="I20" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J20" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K20" s="37"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="K20" s="90" t="s">
+        <v>240</v>
+      </c>
+      <c r="L20" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="M20" s="52"/>
+      <c r="N20" s="65"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
-      <c r="Q20" s="74"/>
+      <c r="Q20" s="73"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
@@ -4185,44 +4380,48 @@
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
     </row>
-    <row r="21" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A21" s="80">
+    <row r="21" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A21" s="79">
         <v>18</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="76" t="s">
+      <c r="E21" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="G21" s="77" t="s">
+      <c r="G21" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H21" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I21" s="77" t="s">
+      <c r="I21" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J21" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="52"/>
+        <v>200</v>
+      </c>
+      <c r="K21" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="L21" s="91" t="s">
+        <v>241</v>
+      </c>
       <c r="M21" s="29"/>
-      <c r="N21" s="66"/>
+      <c r="N21" s="65"/>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
-      <c r="Q21" s="74"/>
+      <c r="Q21" s="73"/>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
@@ -4231,44 +4430,48 @@
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
     </row>
-    <row r="22" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A22" s="80">
+    <row r="22" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A22" s="79">
         <v>19</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="77" t="s">
+      <c r="E22" s="76" t="s">
         <v>125</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="G22" s="77" t="s">
-        <v>189</v>
+      <c r="G22" s="76" t="s">
+        <v>188</v>
       </c>
       <c r="H22" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I22" s="77" t="s">
-        <v>189</v>
+      <c r="I22" s="76" t="s">
+        <v>188</v>
       </c>
       <c r="J22" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="K22" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" s="91" t="s">
+        <v>241</v>
+      </c>
+      <c r="M22" s="52"/>
+      <c r="N22" s="65"/>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
-      <c r="Q22" s="74"/>
+      <c r="Q22" s="73"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
@@ -4277,44 +4480,46 @@
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
     </row>
-    <row r="23" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A23" s="80">
+    <row r="23" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A23" s="79">
         <v>20</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="81" t="s">
+      <c r="C23" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="76" t="s">
+      <c r="E23" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="77" t="s">
+      <c r="G23" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H23" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="I23" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="I23" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J23" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K23" s="36"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="K23" s="92"/>
+      <c r="L23" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="M23" s="52"/>
+      <c r="N23" s="65"/>
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
-      <c r="Q23" s="74"/>
+      <c r="Q23" s="73"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
@@ -4323,44 +4528,48 @@
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
     </row>
-    <row r="24" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A24" s="80">
+    <row r="24" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A24" s="79">
         <v>21</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="77" t="s">
+      <c r="E24" s="76" t="s">
         <v>125</v>
       </c>
       <c r="F24" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="G24" s="77" t="s">
+      <c r="G24" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H24" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I24" s="77" t="s">
+      <c r="I24" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J24" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K24" s="37"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="K24" s="90" t="s">
+        <v>240</v>
+      </c>
+      <c r="L24" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="M24" s="52"/>
+      <c r="N24" s="65"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
-      <c r="Q24" s="74"/>
+      <c r="Q24" s="73"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
@@ -4369,44 +4578,48 @@
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
     </row>
-    <row r="25" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A25" s="80">
+    <row r="25" spans="1:24" s="6" customFormat="1" ht="75">
+      <c r="A25" s="79">
         <v>22</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="81" t="s">
+      <c r="D25" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="77" t="s">
+      <c r="E25" s="76" t="s">
         <v>125</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="G25" s="77" t="s">
+      <c r="G25" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H25" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I25" s="77" t="s">
+      <c r="I25" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J25" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K25" s="37"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="K25" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="L25" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="M25" s="52"/>
+      <c r="N25" s="65"/>
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
-      <c r="Q25" s="74"/>
+      <c r="Q25" s="73"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
@@ -4416,39 +4629,39 @@
       <c r="X25" s="13"/>
     </row>
     <row r="26" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A26" s="80">
+      <c r="A26" s="79">
         <v>23</v>
       </c>
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="81" t="s">
+      <c r="D26" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="77" t="s">
+      <c r="E26" s="76" t="s">
         <v>125</v>
       </c>
       <c r="F26" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="G26" s="77"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="46"/>
-      <c r="I26" s="77" t="s">
+      <c r="I26" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J26" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K26" s="37"/>
+        <v>200</v>
+      </c>
+      <c r="K26" s="90"/>
       <c r="L26" s="51"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="66"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="65"/>
       <c r="O26" s="20"/>
       <c r="P26" s="20"/>
-      <c r="Q26" s="74"/>
+      <c r="Q26" s="73"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
@@ -4458,39 +4671,39 @@
       <c r="X26" s="13"/>
     </row>
     <row r="27" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A27" s="80">
+      <c r="A27" s="79">
         <v>24</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="81" t="s">
+      <c r="D27" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="76" t="s">
+      <c r="E27" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G27" s="77" t="s">
+      <c r="G27" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H27" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I27" s="42"/>
       <c r="J27" s="50"/>
-      <c r="K27" s="37"/>
+      <c r="K27" s="90"/>
       <c r="L27" s="51"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="66"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="65"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
-      <c r="Q27" s="74"/>
+      <c r="Q27" s="73"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
@@ -4499,44 +4712,46 @@
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
     </row>
-    <row r="28" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A28" s="80">
+    <row r="28" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A28" s="79">
         <v>25</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="81" t="s">
+      <c r="C28" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="81" t="s">
+      <c r="D28" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="76" t="s">
+      <c r="E28" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G28" s="77" t="s">
+      <c r="G28" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H28" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="I28" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J28" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K28" s="37"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="K28" s="90"/>
+      <c r="L28" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="M28" s="52"/>
+      <c r="N28" s="65"/>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
-      <c r="Q28" s="74"/>
+      <c r="Q28" s="73"/>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
@@ -4545,44 +4760,48 @@
       <c r="W28" s="13"/>
       <c r="X28" s="13"/>
     </row>
-    <row r="29" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A29" s="80">
+    <row r="29" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A29" s="79">
         <v>26</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="C29" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="81" t="s">
+      <c r="D29" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="76" t="s">
+      <c r="E29" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G29" s="77" t="s">
-        <v>189</v>
+      <c r="G29" s="76" t="s">
+        <v>188</v>
       </c>
       <c r="H29" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I29" s="77" t="s">
-        <v>213</v>
+      <c r="I29" s="76" t="s">
+        <v>212</v>
       </c>
       <c r="J29" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K29" s="40"/>
-      <c r="L29" s="51"/>
+        <v>200</v>
+      </c>
+      <c r="K29" s="92" t="s">
+        <v>233</v>
+      </c>
+      <c r="L29" s="51" t="s">
+        <v>246</v>
+      </c>
       <c r="M29" s="29"/>
-      <c r="N29" s="68"/>
+      <c r="N29" s="67"/>
       <c r="O29" s="20"/>
       <c r="P29" s="20"/>
-      <c r="Q29" s="74"/>
+      <c r="Q29" s="73"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
@@ -4591,38 +4810,42 @@
       <c r="W29" s="13"/>
       <c r="X29" s="13"/>
     </row>
-    <row r="30" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A30" s="80">
+    <row r="30" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A30" s="79">
         <v>27</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="81" t="s">
+      <c r="D30" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="76"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="89" t="s">
-        <v>204</v>
+      <c r="G30" s="88" t="s">
+        <v>203</v>
       </c>
       <c r="H30" s="46"/>
-      <c r="I30" s="88" t="s">
+      <c r="I30" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="J30" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="51"/>
+      <c r="K30" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="L30" s="51" t="s">
+        <v>241</v>
+      </c>
       <c r="M30" s="29"/>
       <c r="N30" s="51"/>
       <c r="O30" s="20"/>
       <c r="P30" s="20"/>
-      <c r="Q30" s="74"/>
+      <c r="Q30" s="73"/>
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
@@ -4631,44 +4854,48 @@
       <c r="W30" s="13"/>
       <c r="X30" s="13"/>
     </row>
-    <row r="31" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A31" s="80">
+    <row r="31" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A31" s="79">
         <v>28</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="81" t="s">
+      <c r="C31" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="81" t="s">
+      <c r="D31" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="76" t="s">
+      <c r="E31" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F31" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G31" s="77" t="s">
+      <c r="G31" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H31" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="I31" s="77" t="s">
-        <v>213</v>
+        <v>194</v>
+      </c>
+      <c r="I31" s="76" t="s">
+        <v>212</v>
       </c>
       <c r="J31" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K31" s="36"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="K31" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="L31" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="M31" s="52"/>
+      <c r="N31" s="65"/>
       <c r="O31" s="20"/>
       <c r="P31" s="20"/>
-      <c r="Q31" s="74"/>
+      <c r="Q31" s="73"/>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
       <c r="T31" s="13"/>
@@ -4677,44 +4904,48 @@
       <c r="W31" s="13"/>
       <c r="X31" s="13"/>
     </row>
-    <row r="32" spans="1:24" s="6" customFormat="1" ht="60">
-      <c r="A32" s="80">
+    <row r="32" spans="1:24" s="6" customFormat="1" ht="75">
+      <c r="A32" s="79">
         <v>29</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="81" t="s">
+      <c r="C32" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="81" t="s">
+      <c r="D32" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="76" t="s">
+      <c r="E32" s="75" t="s">
         <v>124</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="G32" s="77" t="s">
+      <c r="G32" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H32" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I32" s="77" t="s">
-        <v>213</v>
+      <c r="I32" s="76" t="s">
+        <v>212</v>
       </c>
       <c r="J32" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K32" s="36"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="K32" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="L32" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" s="52"/>
+      <c r="N32" s="65"/>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
-      <c r="Q32" s="74"/>
+      <c r="Q32" s="73"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
@@ -4723,44 +4954,48 @@
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
     </row>
-    <row r="33" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A33" s="80">
+    <row r="33" spans="1:24" s="6" customFormat="1" ht="75">
+      <c r="A33" s="79">
         <v>30</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="81" t="s">
+      <c r="C33" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="81" t="s">
+      <c r="D33" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="76" t="s">
+      <c r="E33" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F33" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G33" s="77" t="s">
+      <c r="G33" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H33" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I33" s="77" t="s">
+      <c r="I33" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J33" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K33" s="36"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="53"/>
+        <v>200</v>
+      </c>
+      <c r="K33" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="L33" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="M33" s="52"/>
       <c r="N33" s="51"/>
       <c r="O33" s="20"/>
       <c r="P33" s="20"/>
-      <c r="Q33" s="74"/>
+      <c r="Q33" s="73"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
@@ -4769,44 +5004,48 @@
       <c r="W33" s="13"/>
       <c r="X33" s="13"/>
     </row>
-    <row r="34" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A34" s="80">
+    <row r="34" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A34" s="79">
         <v>31</v>
       </c>
-      <c r="B34" s="80" t="s">
+      <c r="B34" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="81" t="s">
+      <c r="C34" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="81" t="s">
+      <c r="D34" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="76" t="s">
+      <c r="E34" s="75" t="s">
         <v>124</v>
       </c>
       <c r="F34" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="89" t="s">
+      <c r="G34" s="88" t="s">
+        <v>221</v>
+      </c>
+      <c r="H34" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="H34" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="I34" s="89" t="s">
+      <c r="I34" s="88" t="s">
         <v>122</v>
       </c>
       <c r="J34" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="53"/>
+        <v>215</v>
+      </c>
+      <c r="K34" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="L34" s="91" t="s">
+        <v>241</v>
+      </c>
+      <c r="M34" s="52"/>
       <c r="N34" s="51"/>
       <c r="O34" s="20"/>
       <c r="P34" s="20"/>
-      <c r="Q34" s="74"/>
+      <c r="Q34" s="73"/>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
       <c r="T34" s="13"/>
@@ -4815,20 +5054,20 @@
       <c r="W34" s="13"/>
       <c r="X34" s="13"/>
     </row>
-    <row r="35" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A35" s="80">
+    <row r="35" spans="1:24" s="6" customFormat="1" ht="60">
+      <c r="A35" s="79">
         <v>32</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="81" t="s">
+      <c r="C35" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="81" t="s">
+      <c r="D35" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="76" t="s">
+      <c r="E35" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F35" s="21" t="s">
@@ -4838,21 +5077,25 @@
         <v>122</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="I35" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="I35" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J35" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K35" s="36"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="53"/>
+        <v>200</v>
+      </c>
+      <c r="K35" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="L35" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="M35" s="52"/>
       <c r="N35" s="51"/>
       <c r="O35" s="20"/>
       <c r="P35" s="20"/>
-      <c r="Q35" s="74"/>
+      <c r="Q35" s="73"/>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
       <c r="T35" s="13"/>
@@ -4862,43 +5105,43 @@
       <c r="X35" s="13"/>
     </row>
     <row r="36" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A36" s="80">
+      <c r="A36" s="79">
         <v>33</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="81" t="s">
+      <c r="C36" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="81" t="s">
+      <c r="D36" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="76" t="s">
+      <c r="E36" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F36" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G36" s="77" t="s">
+      <c r="G36" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H36" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I36" s="77" t="s">
+      <c r="I36" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J36" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K36" s="29"/>
+        <v>200</v>
+      </c>
+      <c r="K36" s="89"/>
       <c r="L36" s="51"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="66"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="65"/>
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
-      <c r="Q36" s="74"/>
+      <c r="Q36" s="73"/>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
       <c r="T36" s="13"/>
@@ -4907,44 +5150,48 @@
       <c r="W36" s="13"/>
       <c r="X36" s="13"/>
     </row>
-    <row r="37" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A37" s="80">
+    <row r="37" spans="1:24" s="6" customFormat="1" ht="105">
+      <c r="A37" s="79">
         <v>34</v>
       </c>
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="81" t="s">
+      <c r="D37" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="76" t="s">
+      <c r="E37" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F37" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G37" s="77" t="s">
+      <c r="G37" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H37" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="I37" s="77" t="s">
-        <v>213</v>
+        <v>194</v>
+      </c>
+      <c r="I37" s="76" t="s">
+        <v>212</v>
       </c>
       <c r="J37" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K37" s="29"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="K37" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="L37" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="M37" s="52"/>
+      <c r="N37" s="65"/>
       <c r="O37" s="20"/>
       <c r="P37" s="20"/>
-      <c r="Q37" s="74"/>
+      <c r="Q37" s="73"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
@@ -4953,20 +5200,20 @@
       <c r="W37" s="13"/>
       <c r="X37" s="13"/>
     </row>
-    <row r="38" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A38" s="80">
+    <row r="38" spans="1:24" s="6" customFormat="1" ht="90">
+      <c r="A38" s="79">
         <v>35</v>
       </c>
-      <c r="B38" s="80" t="s">
+      <c r="B38" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="D38" s="81" t="s">
+      <c r="D38" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="77" t="s">
+      <c r="E38" s="76" t="s">
         <v>125</v>
       </c>
       <c r="F38" s="33" t="s">
@@ -4976,21 +5223,25 @@
         <v>122</v>
       </c>
       <c r="H38" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="I38" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="I38" s="88" t="s">
         <v>122</v>
       </c>
       <c r="J38" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="K38" s="29"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="66"/>
+        <v>216</v>
+      </c>
+      <c r="K38" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="L38" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="M38" s="52"/>
+      <c r="N38" s="65"/>
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
-      <c r="Q38" s="74"/>
+      <c r="Q38" s="73"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
       <c r="T38" s="13"/>
@@ -4999,44 +5250,48 @@
       <c r="W38" s="13"/>
       <c r="X38" s="13"/>
     </row>
-    <row r="39" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A39" s="80">
+    <row r="39" spans="1:24" s="6" customFormat="1" ht="75">
+      <c r="A39" s="79">
         <v>36</v>
       </c>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="81" t="s">
+      <c r="C39" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="81" t="s">
+      <c r="D39" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="76" t="s">
+      <c r="E39" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F39" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G39" s="77" t="s">
+      <c r="G39" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H39" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I39" s="77" t="s">
+      <c r="I39" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J39" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K39" s="29"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="K39" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="L39" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="M39" s="52"/>
+      <c r="N39" s="65"/>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
-      <c r="Q39" s="74"/>
+      <c r="Q39" s="73"/>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
       <c r="T39" s="13"/>
@@ -5045,44 +5300,48 @@
       <c r="W39" s="13"/>
       <c r="X39" s="13"/>
     </row>
-    <row r="40" spans="1:24" s="6" customFormat="1" ht="60">
-      <c r="A40" s="80">
+    <row r="40" spans="1:24" s="6" customFormat="1" ht="75">
+      <c r="A40" s="79">
         <v>37</v>
       </c>
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="81" t="s">
+      <c r="C40" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="81" t="s">
+      <c r="D40" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="76" t="s">
+      <c r="E40" s="75" t="s">
         <v>120</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="G40" s="77" t="s">
+      <c r="G40" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H40" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I40" s="77" t="s">
+      <c r="I40" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J40" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="K40" s="29"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="66"/>
+        <v>199</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L40" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="M40" s="52"/>
+      <c r="N40" s="65"/>
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
-      <c r="Q40" s="74"/>
+      <c r="Q40" s="73"/>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
       <c r="T40" s="13"/>
@@ -5092,42 +5351,46 @@
       <c r="X40" s="13"/>
     </row>
     <row r="41" spans="1:24" s="6" customFormat="1" ht="75">
-      <c r="A41" s="80">
+      <c r="A41" s="79">
         <v>38</v>
       </c>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="81" t="s">
+      <c r="C41" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="81" t="s">
+      <c r="D41" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="76" t="s">
+      <c r="E41" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F41" s="33" t="s">
         <v>121</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H41" s="41"/>
-      <c r="I41" s="77" t="s">
+      <c r="I41" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J41" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K41" s="29"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="K41" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L41" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="M41" s="52"/>
+      <c r="N41" s="65"/>
       <c r="O41" s="20"/>
       <c r="P41" s="20"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="59"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="58"/>
       <c r="S41" s="13"/>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
@@ -5136,43 +5399,47 @@
       <c r="X41" s="13"/>
     </row>
     <row r="42" spans="1:24" s="6" customFormat="1" ht="75">
-      <c r="A42" s="80">
+      <c r="A42" s="79">
         <v>39</v>
       </c>
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="81" t="s">
+      <c r="C42" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="81" t="s">
+      <c r="D42" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="76" t="s">
+      <c r="E42" s="75" t="s">
         <v>124</v>
       </c>
       <c r="F42" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="G42" s="77" t="s">
+      <c r="G42" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H42" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="I42" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="I42" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J42" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K42" s="29"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="L42" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="M42" s="72"/>
+      <c r="N42" s="65"/>
       <c r="O42" s="20"/>
       <c r="P42" s="20"/>
-      <c r="Q42" s="74"/>
+      <c r="Q42" s="73"/>
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
       <c r="T42" s="13"/>
@@ -5182,43 +5449,47 @@
       <c r="X42" s="13"/>
     </row>
     <row r="43" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A43" s="80">
+      <c r="A43" s="79">
         <v>40</v>
       </c>
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="81" t="s">
+      <c r="C43" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="81" t="s">
+      <c r="D43" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="77" t="s">
+      <c r="E43" s="76" t="s">
         <v>125</v>
       </c>
       <c r="F43" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="77" t="s">
+      <c r="G43" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H43" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I43" s="77" t="s">
+      <c r="I43" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J43" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K43" s="29"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="53"/>
+        <v>200</v>
+      </c>
+      <c r="K43" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="L43" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="M43" s="52"/>
       <c r="N43" s="51"/>
       <c r="O43" s="20"/>
       <c r="P43" s="20"/>
-      <c r="Q43" s="74"/>
+      <c r="Q43" s="73"/>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
       <c r="T43" s="13"/>
@@ -5228,43 +5499,47 @@
       <c r="X43" s="13"/>
     </row>
     <row r="44" spans="1:24" s="6" customFormat="1" ht="60">
-      <c r="A44" s="80">
+      <c r="A44" s="79">
         <v>41</v>
       </c>
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="81" t="s">
+      <c r="C44" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="81" t="s">
+      <c r="D44" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="76" t="s">
+      <c r="E44" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F44" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="G44" s="77" t="s">
+      <c r="G44" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H44" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="I44" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="I44" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J44" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="K44" s="29"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="53"/>
+        <v>201</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L44" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M44" s="52"/>
       <c r="N44" s="51"/>
       <c r="O44" s="20"/>
       <c r="P44" s="20"/>
-      <c r="Q44" s="74"/>
+      <c r="Q44" s="73"/>
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
       <c r="T44" s="13"/>
@@ -5274,43 +5549,47 @@
       <c r="X44" s="13"/>
     </row>
     <row r="45" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A45" s="80">
+      <c r="A45" s="79">
         <v>42</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="81" t="s">
+      <c r="C45" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="81" t="s">
+      <c r="D45" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="76" t="s">
+      <c r="E45" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F45" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="G45" s="77" t="s">
-        <v>189</v>
+      <c r="G45" s="76" t="s">
+        <v>188</v>
       </c>
       <c r="H45" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="I45" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="I45" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J45" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K45" s="37"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="K45" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="L45" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="M45" s="52"/>
+      <c r="N45" s="65"/>
       <c r="O45" s="20"/>
       <c r="P45" s="20"/>
-      <c r="Q45" s="74"/>
+      <c r="Q45" s="73"/>
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
       <c r="T45" s="13"/>
@@ -5320,43 +5599,47 @@
       <c r="X45" s="13"/>
     </row>
     <row r="46" spans="1:24" s="6" customFormat="1" ht="30">
-      <c r="A46" s="80">
+      <c r="A46" s="79">
         <v>43</v>
       </c>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="81" t="s">
+      <c r="C46" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="81" t="s">
+      <c r="D46" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="77" t="s">
+      <c r="E46" s="76" t="s">
         <v>125</v>
       </c>
       <c r="F46" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="G46" s="77" t="s">
+      <c r="G46" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H46" s="46" t="s">
         <v>146</v>
       </c>
       <c r="I46" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J46" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="K46" s="37"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="66"/>
+        <v>202</v>
+      </c>
+      <c r="K46" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="L46" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="M46" s="52"/>
+      <c r="N46" s="65"/>
       <c r="O46" s="20"/>
       <c r="P46" s="20"/>
-      <c r="Q46" s="74"/>
+      <c r="Q46" s="73"/>
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
       <c r="T46" s="13"/>
@@ -5366,43 +5649,47 @@
       <c r="X46" s="13"/>
     </row>
     <row r="47" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A47" s="80">
+      <c r="A47" s="79">
         <v>44</v>
       </c>
-      <c r="B47" s="80" t="s">
+      <c r="B47" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="81" t="s">
+      <c r="C47" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="81" t="s">
+      <c r="D47" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="76" t="s">
+      <c r="E47" s="75" t="s">
         <v>122</v>
       </c>
       <c r="F47" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="G47" s="77" t="s">
+      <c r="G47" s="76" t="s">
         <v>125</v>
       </c>
       <c r="H47" s="46" t="s">
         <v>146</v>
       </c>
       <c r="I47" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="J47" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="J47" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="K47" s="37"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="53"/>
+      <c r="K47" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="L47" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M47" s="52"/>
       <c r="N47" s="51"/>
       <c r="O47" s="20"/>
       <c r="P47" s="20"/>
-      <c r="Q47" s="74"/>
+      <c r="Q47" s="73"/>
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
       <c r="T47" s="13"/>
@@ -5412,44 +5699,48 @@
       <c r="X47" s="13"/>
     </row>
     <row r="48" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A48" s="80">
+      <c r="A48" s="79">
         <v>45</v>
       </c>
-      <c r="B48" s="80" t="s">
+      <c r="B48" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="81" t="s">
+      <c r="C48" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="81" t="s">
+      <c r="D48" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="77" t="s">
+      <c r="E48" s="76" t="s">
         <v>125</v>
       </c>
       <c r="F48" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="G48" s="77" t="s">
-        <v>189</v>
+      <c r="G48" s="76" t="s">
+        <v>188</v>
       </c>
       <c r="H48" s="46" t="s">
         <v>146</v>
       </c>
       <c r="I48" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J48" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="K48" s="36"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="66"/>
+        <v>205</v>
+      </c>
+      <c r="K48" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="L48" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="M48" s="72"/>
+      <c r="N48" s="65"/>
       <c r="O48" s="20"/>
       <c r="P48" s="20"/>
-      <c r="Q48" s="74"/>
-      <c r="R48" s="59"/>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="58"/>
       <c r="S48" s="13"/>
       <c r="T48" s="13"/>
       <c r="U48" s="13"/>
@@ -5458,43 +5749,47 @@
       <c r="X48" s="13"/>
     </row>
     <row r="49" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A49" s="80">
+      <c r="A49" s="79">
         <v>46</v>
       </c>
-      <c r="B49" s="80" t="s">
+      <c r="B49" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="81" t="s">
+      <c r="C49" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="81" t="s">
+      <c r="D49" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="76" t="s">
+      <c r="E49" s="75" t="s">
         <v>124</v>
       </c>
       <c r="F49" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G49" s="77" t="s">
-        <v>189</v>
+      <c r="G49" s="76" t="s">
+        <v>188</v>
       </c>
       <c r="H49" s="46" t="s">
         <v>146</v>
       </c>
       <c r="I49" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J49" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="K49" s="37"/>
-      <c r="L49" s="23"/>
+        <v>206</v>
+      </c>
+      <c r="K49" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="L49" s="23" t="s">
+        <v>234</v>
+      </c>
       <c r="M49" s="29"/>
       <c r="N49" s="51"/>
       <c r="O49" s="20"/>
       <c r="P49" s="20"/>
-      <c r="Q49" s="74"/>
+      <c r="Q49" s="73"/>
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
       <c r="T49" s="13"/>
@@ -5504,39 +5799,43 @@
       <c r="X49" s="13"/>
     </row>
     <row r="50" spans="1:24" s="6" customFormat="1" ht="45">
-      <c r="A50" s="80">
+      <c r="A50" s="79">
         <v>47</v>
       </c>
-      <c r="B50" s="86">
+      <c r="B50" s="85">
         <v>71117328</v>
       </c>
-      <c r="C50" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" s="80"/>
-      <c r="E50" s="76" t="s">
+      <c r="C50" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="79"/>
+      <c r="E50" s="75" t="s">
         <v>120</v>
       </c>
       <c r="F50" s="33" t="s">
         <v>137</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H50" s="44"/>
-      <c r="I50" s="77" t="s">
+      <c r="I50" s="76" t="s">
         <v>125</v>
       </c>
       <c r="J50" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="K50" s="37"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="53"/>
+        <v>200</v>
+      </c>
+      <c r="K50" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="L50" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="M50" s="52"/>
       <c r="N50" s="51"/>
       <c r="O50" s="20"/>
       <c r="P50" s="20"/>
-      <c r="Q50" s="74"/>
+      <c r="Q50" s="73"/>
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
       <c r="T50" s="13"/>
@@ -5546,13 +5845,13 @@
       <c r="X50" s="13"/>
     </row>
     <row r="51" spans="1:24" s="6" customFormat="1" ht="17">
-      <c r="A51" s="80">
+      <c r="A51" s="79">
         <v>48</v>
       </c>
-      <c r="B51" s="80"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="76"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="75"/>
       <c r="F51" s="33"/>
       <c r="G51" s="36"/>
       <c r="H51" s="38"/>
@@ -5560,11 +5859,11 @@
       <c r="J51" s="47"/>
       <c r="K51" s="29"/>
       <c r="L51" s="51"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="66"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="65"/>
       <c r="O51" s="20"/>
       <c r="P51" s="20"/>
-      <c r="Q51" s="74"/>
+      <c r="Q51" s="73"/>
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
@@ -5574,13 +5873,13 @@
       <c r="X51" s="13"/>
     </row>
     <row r="52" spans="1:24" s="7" customFormat="1" ht="17">
-      <c r="A52" s="80">
+      <c r="A52" s="79">
         <v>49</v>
       </c>
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="76"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="75"/>
       <c r="F52" s="33"/>
       <c r="G52" s="37"/>
       <c r="H52" s="45"/>
@@ -5588,11 +5887,11 @@
       <c r="J52" s="46"/>
       <c r="K52" s="37"/>
       <c r="L52" s="23"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="69"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="68"/>
       <c r="O52" s="20"/>
       <c r="P52" s="20"/>
-      <c r="Q52" s="74"/>
+      <c r="Q52" s="73"/>
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
       <c r="T52" s="13"/>
@@ -5602,13 +5901,13 @@
       <c r="X52" s="13"/>
     </row>
     <row r="53" spans="1:24" s="6" customFormat="1" ht="18" thickBot="1">
-      <c r="A53" s="80">
+      <c r="A53" s="79">
         <v>50</v>
       </c>
-      <c r="B53" s="80"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="76"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="75"/>
       <c r="F53" s="33"/>
       <c r="G53" s="36"/>
       <c r="H53" s="38"/>
@@ -5616,11 +5915,11 @@
       <c r="J53" s="46"/>
       <c r="K53" s="37"/>
       <c r="L53" s="23"/>
-      <c r="M53" s="53"/>
+      <c r="M53" s="52"/>
       <c r="N53" s="51"/>
       <c r="O53" s="20"/>
       <c r="P53" s="20"/>
-      <c r="Q53" s="74"/>
+      <c r="Q53" s="73"/>
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
       <c r="T53" s="13"/>
@@ -5630,13 +5929,13 @@
       <c r="X53" s="13"/>
     </row>
     <row r="54" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A54" s="80">
+      <c r="A54" s="79">
         <v>51</v>
       </c>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="76"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="75"/>
       <c r="F54" s="33"/>
       <c r="G54" s="29"/>
       <c r="H54" s="44"/>
@@ -5644,11 +5943,11 @@
       <c r="J54" s="50"/>
       <c r="K54" s="29"/>
       <c r="L54" s="23"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="66"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="65"/>
       <c r="O54" s="20"/>
       <c r="P54" s="20"/>
-      <c r="Q54" s="74"/>
+      <c r="Q54" s="73"/>
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
       <c r="T54" s="13"/>
@@ -5658,13 +5957,13 @@
       <c r="X54" s="13"/>
     </row>
     <row r="55" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A55" s="80">
+      <c r="A55" s="79">
         <v>52</v>
       </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="76"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="75"/>
       <c r="F55" s="33"/>
       <c r="G55" s="37"/>
       <c r="H55" s="42"/>
@@ -5672,11 +5971,11 @@
       <c r="J55" s="50"/>
       <c r="K55" s="37"/>
       <c r="L55" s="23"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="66"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="65"/>
       <c r="O55" s="20"/>
       <c r="P55" s="20"/>
-      <c r="Q55" s="74"/>
+      <c r="Q55" s="73"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
@@ -5686,25 +5985,25 @@
       <c r="X55" s="13"/>
     </row>
     <row r="56" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A56" s="80">
+      <c r="A56" s="79">
         <v>53</v>
       </c>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="76"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="75"/>
       <c r="F56" s="33"/>
       <c r="G56" s="36"/>
-      <c r="H56" s="58"/>
+      <c r="H56" s="57"/>
       <c r="I56" s="36"/>
       <c r="J56" s="50"/>
       <c r="K56" s="29"/>
       <c r="L56" s="23"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="69"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="68"/>
       <c r="O56" s="20"/>
       <c r="P56" s="20"/>
-      <c r="Q56" s="74"/>
+      <c r="Q56" s="73"/>
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
       <c r="T56" s="13"/>
@@ -5714,13 +6013,13 @@
       <c r="X56" s="13"/>
     </row>
     <row r="57" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A57" s="80">
+      <c r="A57" s="79">
         <v>54</v>
       </c>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="76"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="75"/>
       <c r="F57" s="21"/>
       <c r="G57" s="37"/>
       <c r="H57" s="45"/>
@@ -5728,11 +6027,11 @@
       <c r="J57" s="50"/>
       <c r="K57" s="29"/>
       <c r="L57" s="23"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="69"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="68"/>
       <c r="O57" s="20"/>
       <c r="P57" s="20"/>
-      <c r="Q57" s="74"/>
+      <c r="Q57" s="73"/>
       <c r="R57" s="13"/>
       <c r="S57" s="13"/>
       <c r="T57" s="13"/>
@@ -5742,13 +6041,13 @@
       <c r="X57" s="13"/>
     </row>
     <row r="58" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A58" s="80">
+      <c r="A58" s="79">
         <v>55</v>
       </c>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="76"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="75"/>
       <c r="F58" s="21"/>
       <c r="G58" s="40"/>
       <c r="H58" s="44"/>
@@ -5757,10 +6056,10 @@
       <c r="K58" s="29"/>
       <c r="L58" s="23"/>
       <c r="M58" s="29"/>
-      <c r="N58" s="69"/>
+      <c r="N58" s="68"/>
       <c r="O58" s="20"/>
       <c r="P58" s="20"/>
-      <c r="Q58" s="74"/>
+      <c r="Q58" s="73"/>
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
       <c r="T58" s="13"/>
@@ -5770,25 +6069,25 @@
       <c r="X58" s="13"/>
     </row>
     <row r="59" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A59" s="80">
+      <c r="A59" s="79">
         <v>56</v>
       </c>
-      <c r="B59" s="80"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="76"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="75"/>
       <c r="F59" s="21"/>
       <c r="G59" s="37"/>
-      <c r="H59" s="62"/>
+      <c r="H59" s="61"/>
       <c r="I59" s="36"/>
       <c r="J59" s="50"/>
       <c r="K59" s="29"/>
       <c r="L59" s="23"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="66"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="65"/>
       <c r="O59" s="20"/>
       <c r="P59" s="20"/>
-      <c r="Q59" s="74"/>
+      <c r="Q59" s="73"/>
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
       <c r="T59" s="13"/>
@@ -5798,13 +6097,13 @@
       <c r="X59" s="13"/>
     </row>
     <row r="60" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A60" s="80">
+      <c r="A60" s="79">
         <v>57</v>
       </c>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="76"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="75"/>
       <c r="F60" s="21"/>
       <c r="G60" s="29"/>
       <c r="H60" s="44"/>
@@ -5813,10 +6112,10 @@
       <c r="K60" s="29"/>
       <c r="L60" s="20"/>
       <c r="M60" s="20"/>
-      <c r="N60" s="69"/>
+      <c r="N60" s="68"/>
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
-      <c r="Q60" s="74"/>
+      <c r="Q60" s="73"/>
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
       <c r="T60" s="13"/>
@@ -5826,25 +6125,25 @@
       <c r="X60" s="13"/>
     </row>
     <row r="61" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A61" s="80">
+      <c r="A61" s="79">
         <v>58</v>
       </c>
-      <c r="B61" s="80"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="76"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="75"/>
       <c r="F61" s="21"/>
       <c r="G61" s="29"/>
-      <c r="H61" s="62"/>
+      <c r="H61" s="61"/>
       <c r="I61" s="36"/>
       <c r="J61" s="50"/>
       <c r="K61" s="29"/>
       <c r="L61" s="23"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="66"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="65"/>
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
-      <c r="Q61" s="74"/>
+      <c r="Q61" s="73"/>
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
       <c r="T61" s="13"/>
@@ -5854,25 +6153,25 @@
       <c r="X61" s="13"/>
     </row>
     <row r="62" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A62" s="80">
+      <c r="A62" s="79">
         <v>59</v>
       </c>
-      <c r="B62" s="80"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="76"/>
+      <c r="B62" s="79"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="75"/>
       <c r="F62" s="21"/>
       <c r="G62" s="36"/>
-      <c r="H62" s="62"/>
+      <c r="H62" s="61"/>
       <c r="I62" s="36"/>
       <c r="J62" s="50"/>
       <c r="K62" s="29"/>
       <c r="L62" s="23"/>
       <c r="M62" s="29"/>
-      <c r="N62" s="69"/>
+      <c r="N62" s="68"/>
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
-      <c r="Q62" s="74"/>
+      <c r="Q62" s="73"/>
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
       <c r="T62" s="13"/>
@@ -5882,13 +6181,13 @@
       <c r="X62" s="13"/>
     </row>
     <row r="63" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A63" s="80">
+      <c r="A63" s="79">
         <v>60</v>
       </c>
-      <c r="B63" s="80"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="78"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="77"/>
       <c r="F63" s="34"/>
       <c r="G63" s="29"/>
       <c r="H63" s="44"/>
@@ -5897,10 +6196,10 @@
       <c r="K63" s="29"/>
       <c r="L63" s="23"/>
       <c r="M63" s="29"/>
-      <c r="N63" s="69"/>
+      <c r="N63" s="68"/>
       <c r="O63" s="20"/>
       <c r="P63" s="20"/>
-      <c r="Q63" s="74"/>
+      <c r="Q63" s="73"/>
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
       <c r="T63" s="13"/>
@@ -5910,13 +6209,13 @@
       <c r="X63" s="13"/>
     </row>
     <row r="64" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A64" s="80">
+      <c r="A64" s="79">
         <v>61</v>
       </c>
-      <c r="B64" s="80"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="78"/>
+      <c r="B64" s="79"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="77"/>
       <c r="F64" s="34"/>
       <c r="G64" s="29"/>
       <c r="H64" s="44"/>
@@ -5925,10 +6224,10 @@
       <c r="K64" s="29"/>
       <c r="L64" s="23"/>
       <c r="M64" s="29"/>
-      <c r="N64" s="69"/>
+      <c r="N64" s="68"/>
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
-      <c r="Q64" s="74"/>
+      <c r="Q64" s="73"/>
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
       <c r="T64" s="13"/>
@@ -5938,25 +6237,25 @@
       <c r="X64" s="13"/>
     </row>
     <row r="65" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A65" s="80">
+      <c r="A65" s="79">
         <v>62</v>
       </c>
-      <c r="B65" s="80"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="76"/>
+      <c r="B65" s="79"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="75"/>
       <c r="F65" s="22"/>
       <c r="G65" s="29"/>
-      <c r="H65" s="62"/>
+      <c r="H65" s="61"/>
       <c r="I65" s="36"/>
       <c r="J65" s="46"/>
       <c r="K65" s="29"/>
       <c r="L65" s="23"/>
       <c r="M65" s="29"/>
-      <c r="N65" s="69"/>
+      <c r="N65" s="68"/>
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
-      <c r="Q65" s="74"/>
+      <c r="Q65" s="73"/>
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
       <c r="T65" s="13"/>
@@ -5966,25 +6265,25 @@
       <c r="X65" s="13"/>
     </row>
     <row r="66" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A66" s="80">
+      <c r="A66" s="79">
         <v>63</v>
       </c>
-      <c r="B66" s="80"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="76"/>
+      <c r="B66" s="79"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="75"/>
       <c r="F66" s="21"/>
       <c r="G66" s="32"/>
-      <c r="H66" s="62"/>
+      <c r="H66" s="61"/>
       <c r="I66" s="29"/>
       <c r="J66" s="46"/>
       <c r="K66" s="29"/>
       <c r="L66" s="23"/>
       <c r="M66" s="29"/>
-      <c r="N66" s="69"/>
+      <c r="N66" s="68"/>
       <c r="O66" s="20"/>
       <c r="P66" s="20"/>
-      <c r="Q66" s="74"/>
+      <c r="Q66" s="73"/>
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
       <c r="T66" s="13"/>
@@ -5994,13 +6293,13 @@
       <c r="X66" s="13"/>
     </row>
     <row r="67" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A67" s="80">
+      <c r="A67" s="79">
         <v>64</v>
       </c>
-      <c r="B67" s="80"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="76"/>
+      <c r="B67" s="79"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="75"/>
       <c r="F67" s="21"/>
       <c r="G67" s="37"/>
       <c r="H67" s="45"/>
@@ -6009,10 +6308,10 @@
       <c r="K67" s="29"/>
       <c r="L67" s="23"/>
       <c r="M67" s="29"/>
-      <c r="N67" s="69"/>
+      <c r="N67" s="68"/>
       <c r="O67" s="20"/>
       <c r="P67" s="20"/>
-      <c r="Q67" s="74"/>
+      <c r="Q67" s="73"/>
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
       <c r="T67" s="13"/>
@@ -6022,25 +6321,25 @@
       <c r="X67" s="13"/>
     </row>
     <row r="68" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A68" s="80">
+      <c r="A68" s="79">
         <v>65</v>
       </c>
-      <c r="B68" s="80"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="79"/>
+      <c r="B68" s="79"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="78"/>
       <c r="F68" s="21"/>
       <c r="G68" s="37"/>
-      <c r="H68" s="62"/>
+      <c r="H68" s="61"/>
       <c r="I68" s="37"/>
       <c r="J68" s="50"/>
       <c r="K68" s="29"/>
       <c r="L68" s="23"/>
       <c r="M68" s="29"/>
-      <c r="N68" s="69"/>
+      <c r="N68" s="68"/>
       <c r="O68" s="20"/>
       <c r="P68" s="20"/>
-      <c r="Q68" s="74"/>
+      <c r="Q68" s="73"/>
       <c r="R68" s="13"/>
       <c r="S68" s="13"/>
       <c r="T68" s="13"/>
@@ -6050,13 +6349,13 @@
       <c r="X68" s="13"/>
     </row>
     <row r="69" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A69" s="80">
+      <c r="A69" s="79">
         <v>66</v>
       </c>
-      <c r="B69" s="80"/>
-      <c r="C69" s="80"/>
-      <c r="D69" s="80"/>
-      <c r="E69" s="78"/>
+      <c r="B69" s="79"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="77"/>
       <c r="F69" s="34"/>
       <c r="G69" s="29"/>
       <c r="H69" s="44"/>
@@ -6065,10 +6364,10 @@
       <c r="K69" s="29"/>
       <c r="L69" s="23"/>
       <c r="M69" s="29"/>
-      <c r="N69" s="69"/>
+      <c r="N69" s="68"/>
       <c r="O69" s="20"/>
       <c r="P69" s="20"/>
-      <c r="Q69" s="74"/>
+      <c r="Q69" s="73"/>
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
       <c r="T69" s="13"/>
@@ -6078,13 +6377,13 @@
       <c r="X69" s="13"/>
     </row>
     <row r="70" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A70" s="80">
+      <c r="A70" s="79">
         <v>67</v>
       </c>
-      <c r="B70" s="80"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="78"/>
+      <c r="B70" s="79"/>
+      <c r="C70" s="79"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="77"/>
       <c r="F70" s="35"/>
       <c r="G70" s="29"/>
       <c r="H70" s="44"/>
@@ -6093,10 +6392,10 @@
       <c r="K70" s="29"/>
       <c r="L70" s="23"/>
       <c r="M70" s="29"/>
-      <c r="N70" s="69"/>
+      <c r="N70" s="68"/>
       <c r="O70" s="20"/>
       <c r="P70" s="20"/>
-      <c r="Q70" s="74"/>
+      <c r="Q70" s="73"/>
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
       <c r="T70" s="13"/>
@@ -6106,13 +6405,13 @@
       <c r="X70" s="13"/>
     </row>
     <row r="71" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A71" s="80">
+      <c r="A71" s="79">
         <v>68</v>
       </c>
-      <c r="B71" s="80"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="78"/>
+      <c r="B71" s="79"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="77"/>
       <c r="F71" s="34"/>
       <c r="G71" s="29"/>
       <c r="H71" s="39"/>
@@ -6124,7 +6423,7 @@
       <c r="N71" s="46"/>
       <c r="O71" s="20"/>
       <c r="P71" s="20"/>
-      <c r="Q71" s="74"/>
+      <c r="Q71" s="73"/>
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
       <c r="T71" s="13"/>
@@ -6134,13 +6433,13 @@
       <c r="X71" s="13"/>
     </row>
     <row r="72" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A72" s="80">
+      <c r="A72" s="79">
         <v>69</v>
       </c>
-      <c r="B72" s="80"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="76"/>
+      <c r="B72" s="79"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="75"/>
       <c r="F72" s="21"/>
       <c r="G72" s="40"/>
       <c r="H72" s="44"/>
@@ -6152,7 +6451,7 @@
       <c r="N72" s="46"/>
       <c r="O72" s="20"/>
       <c r="P72" s="20"/>
-      <c r="Q72" s="74"/>
+      <c r="Q72" s="73"/>
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
       <c r="T72" s="13"/>
@@ -6162,13 +6461,13 @@
       <c r="X72" s="13"/>
     </row>
     <row r="73" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A73" s="80">
+      <c r="A73" s="79">
         <v>70</v>
       </c>
-      <c r="B73" s="80"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="76"/>
+      <c r="B73" s="79"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="75"/>
       <c r="F73" s="21"/>
       <c r="G73" s="29"/>
       <c r="H73" s="44"/>
@@ -6180,7 +6479,7 @@
       <c r="N73" s="46"/>
       <c r="O73" s="20"/>
       <c r="P73" s="20"/>
-      <c r="Q73" s="74"/>
+      <c r="Q73" s="73"/>
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
       <c r="T73" s="13"/>
@@ -6190,13 +6489,13 @@
       <c r="X73" s="13"/>
     </row>
     <row r="74" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A74" s="80">
+      <c r="A74" s="79">
         <v>71</v>
       </c>
-      <c r="B74" s="80"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="76"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="75"/>
       <c r="F74" s="21"/>
       <c r="G74" s="40"/>
       <c r="H74" s="44"/>
@@ -6204,11 +6503,11 @@
       <c r="J74" s="50"/>
       <c r="K74" s="29"/>
       <c r="L74" s="46"/>
-      <c r="M74" s="70"/>
+      <c r="M74" s="69"/>
       <c r="N74" s="46"/>
       <c r="O74" s="20"/>
       <c r="P74" s="20"/>
-      <c r="Q74" s="74"/>
+      <c r="Q74" s="73"/>
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
       <c r="T74" s="13"/>
@@ -6218,15 +6517,15 @@
       <c r="X74" s="13"/>
     </row>
     <row r="75" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A75" s="80">
+      <c r="A75" s="79">
         <v>72</v>
       </c>
-      <c r="B75" s="80"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="76"/>
+      <c r="B75" s="79"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="75"/>
       <c r="F75" s="21"/>
-      <c r="G75" s="63"/>
+      <c r="G75" s="62"/>
       <c r="H75" s="39"/>
       <c r="I75" s="29"/>
       <c r="J75" s="46"/>
@@ -6236,7 +6535,7 @@
       <c r="N75" s="46"/>
       <c r="O75" s="20"/>
       <c r="P75" s="20"/>
-      <c r="Q75" s="74"/>
+      <c r="Q75" s="73"/>
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
       <c r="T75" s="13"/>
@@ -6246,13 +6545,13 @@
       <c r="X75" s="13"/>
     </row>
     <row r="76" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A76" s="80">
+      <c r="A76" s="79">
         <v>73</v>
       </c>
-      <c r="B76" s="80"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="76"/>
+      <c r="B76" s="79"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="75"/>
       <c r="F76" s="21"/>
       <c r="G76" s="29"/>
       <c r="H76" s="44"/>
@@ -6264,7 +6563,7 @@
       <c r="N76" s="46"/>
       <c r="O76" s="20"/>
       <c r="P76" s="20"/>
-      <c r="Q76" s="74"/>
+      <c r="Q76" s="73"/>
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
       <c r="T76" s="13"/>
@@ -6274,13 +6573,13 @@
       <c r="X76" s="13"/>
     </row>
     <row r="77" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A77" s="80">
+      <c r="A77" s="79">
         <v>74</v>
       </c>
-      <c r="B77" s="80"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="76"/>
+      <c r="B77" s="79"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="75"/>
       <c r="F77" s="21"/>
       <c r="G77" s="29"/>
       <c r="H77" s="44"/>
@@ -6292,7 +6591,7 @@
       <c r="N77" s="46"/>
       <c r="O77" s="20"/>
       <c r="P77" s="20"/>
-      <c r="Q77" s="74"/>
+      <c r="Q77" s="73"/>
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
       <c r="T77" s="13"/>
@@ -6302,14 +6601,14 @@
       <c r="X77" s="13"/>
     </row>
     <row r="78" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A78" s="80">
+      <c r="A78" s="79">
         <v>75</v>
       </c>
-      <c r="B78" s="80"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="80"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="61"/>
+      <c r="B78" s="79"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="60"/>
       <c r="G78" s="29"/>
       <c r="H78" s="44"/>
       <c r="I78" s="29"/>
@@ -6317,10 +6616,10 @@
       <c r="K78" s="29"/>
       <c r="L78" s="49"/>
       <c r="M78" s="29"/>
-      <c r="N78" s="71"/>
+      <c r="N78" s="70"/>
       <c r="O78" s="20"/>
       <c r="P78" s="20"/>
-      <c r="Q78" s="74"/>
+      <c r="Q78" s="73"/>
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
       <c r="T78" s="13"/>
@@ -6330,14 +6629,14 @@
       <c r="X78" s="13"/>
     </row>
     <row r="79" spans="1:24" s="6" customFormat="1" ht="17" hidden="1">
-      <c r="A79" s="80">
+      <c r="A79" s="79">
         <v>76</v>
       </c>
-      <c r="B79" s="80"/>
-      <c r="C79" s="80"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="61"/>
+      <c r="B79" s="79"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="75"/>
+      <c r="F79" s="60"/>
       <c r="G79" s="29"/>
       <c r="H79" s="44"/>
       <c r="I79" s="40"/>
@@ -6345,10 +6644,10 @@
       <c r="K79" s="29"/>
       <c r="L79" s="49"/>
       <c r="M79" s="29"/>
-      <c r="N79" s="72"/>
+      <c r="N79" s="71"/>
       <c r="O79" s="20"/>
       <c r="P79" s="20"/>
-      <c r="Q79" s="74"/>
+      <c r="Q79" s="73"/>
       <c r="R79" s="13"/>
       <c r="S79" s="13"/>
       <c r="T79" s="13"/>
@@ -6384,26 +6683,30 @@
       <c r="X80" s="13"/>
     </row>
     <row r="81" spans="1:24" ht="76" customHeight="1" thickBot="1">
-      <c r="A81" s="99" t="s">
+      <c r="A81" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B81" s="100"/>
-      <c r="C81" s="100"/>
-      <c r="D81" s="101"/>
-      <c r="E81" s="102" t="s">
+      <c r="B81" s="95"/>
+      <c r="C81" s="95"/>
+      <c r="D81" s="96"/>
+      <c r="E81" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="F81" s="103"/>
-      <c r="G81" s="102" t="s">
-        <v>198</v>
-      </c>
-      <c r="H81" s="103"/>
-      <c r="I81" s="102"/>
-      <c r="J81" s="103"/>
-      <c r="K81" s="115"/>
-      <c r="L81" s="116"/>
-      <c r="M81" s="115"/>
-      <c r="N81" s="116"/>
+      <c r="F81" s="98"/>
+      <c r="G81" s="97" t="s">
+        <v>197</v>
+      </c>
+      <c r="H81" s="98"/>
+      <c r="I81" s="97" t="s">
+        <v>225</v>
+      </c>
+      <c r="J81" s="98"/>
+      <c r="K81" s="112" t="s">
+        <v>254</v>
+      </c>
+      <c r="L81" s="113"/>
+      <c r="M81" s="112"/>
+      <c r="N81" s="113"/>
       <c r="O81" s="16"/>
       <c r="P81" s="17"/>
       <c r="Q81" s="18"/>
@@ -6416,32 +6719,34 @@
       <c r="X81" s="18"/>
     </row>
     <row r="82" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A82" s="91" t="s">
+      <c r="A82" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="110"/>
-      <c r="D82" s="110"/>
-      <c r="E82" s="108" t="s">
+      <c r="B82" s="106"/>
+      <c r="C82" s="107"/>
+      <c r="D82" s="107"/>
+      <c r="E82" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="F82" s="108"/>
-      <c r="G82" s="106" t="s">
-        <v>185</v>
-      </c>
-      <c r="H82" s="106"/>
-      <c r="I82" s="106" t="s">
-        <v>199</v>
-      </c>
-      <c r="J82" s="106"/>
-      <c r="K82" s="104"/>
-      <c r="L82" s="104"/>
-      <c r="M82" s="105"/>
-      <c r="N82" s="105"/>
-      <c r="O82" s="104" t="s">
+      <c r="F82" s="105"/>
+      <c r="G82" s="99" t="s">
+        <v>184</v>
+      </c>
+      <c r="H82" s="99"/>
+      <c r="I82" s="99" t="s">
+        <v>198</v>
+      </c>
+      <c r="J82" s="99"/>
+      <c r="K82" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="L82" s="99"/>
+      <c r="M82" s="101"/>
+      <c r="N82" s="101"/>
+      <c r="O82" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="P82" s="104"/>
+      <c r="P82" s="100"/>
       <c r="Q82" s="18"/>
       <c r="R82" s="18"/>
       <c r="S82" s="18"/>
@@ -6452,22 +6757,22 @@
       <c r="X82" s="18"/>
     </row>
     <row r="83" spans="1:24">
-      <c r="A83" s="92"/>
-      <c r="B83" s="111"/>
-      <c r="C83" s="112"/>
-      <c r="D83" s="112"/>
-      <c r="E83" s="108"/>
-      <c r="F83" s="108"/>
-      <c r="G83" s="106"/>
-      <c r="H83" s="106"/>
-      <c r="I83" s="106"/>
-      <c r="J83" s="106"/>
-      <c r="K83" s="104"/>
-      <c r="L83" s="104"/>
-      <c r="M83" s="105"/>
-      <c r="N83" s="105"/>
-      <c r="O83" s="104"/>
-      <c r="P83" s="104"/>
+      <c r="A83" s="103"/>
+      <c r="B83" s="108"/>
+      <c r="C83" s="109"/>
+      <c r="D83" s="109"/>
+      <c r="E83" s="105"/>
+      <c r="F83" s="105"/>
+      <c r="G83" s="99"/>
+      <c r="H83" s="99"/>
+      <c r="I83" s="99"/>
+      <c r="J83" s="99"/>
+      <c r="K83" s="99"/>
+      <c r="L83" s="99"/>
+      <c r="M83" s="101"/>
+      <c r="N83" s="101"/>
+      <c r="O83" s="100"/>
+      <c r="P83" s="100"/>
       <c r="Q83" s="18"/>
       <c r="R83" s="18"/>
       <c r="S83" s="18"/>
@@ -6478,22 +6783,22 @@
       <c r="X83" s="18"/>
     </row>
     <row r="84" spans="1:24" ht="261" customHeight="1" thickBot="1">
-      <c r="A84" s="107"/>
-      <c r="B84" s="113"/>
-      <c r="C84" s="114"/>
-      <c r="D84" s="114"/>
-      <c r="E84" s="108"/>
-      <c r="F84" s="108"/>
-      <c r="G84" s="106"/>
-      <c r="H84" s="106"/>
-      <c r="I84" s="106"/>
-      <c r="J84" s="106"/>
-      <c r="K84" s="104"/>
-      <c r="L84" s="104"/>
-      <c r="M84" s="105"/>
-      <c r="N84" s="105"/>
-      <c r="O84" s="104"/>
-      <c r="P84" s="104"/>
+      <c r="A84" s="104"/>
+      <c r="B84" s="110"/>
+      <c r="C84" s="111"/>
+      <c r="D84" s="111"/>
+      <c r="E84" s="105"/>
+      <c r="F84" s="105"/>
+      <c r="G84" s="99"/>
+      <c r="H84" s="99"/>
+      <c r="I84" s="99"/>
+      <c r="J84" s="99"/>
+      <c r="K84" s="99"/>
+      <c r="L84" s="99"/>
+      <c r="M84" s="101"/>
+      <c r="N84" s="101"/>
+      <c r="O84" s="100"/>
+      <c r="P84" s="100"/>
       <c r="Q84" s="18"/>
       <c r="R84" s="18"/>
       <c r="S84" s="18"/>
@@ -6503,214 +6808,232 @@
       <c r="W84" s="18"/>
       <c r="X84" s="18"/>
     </row>
-    <row r="86" spans="1:24" s="98" customFormat="1">
-      <c r="A86" s="98" t="s">
+    <row r="86" spans="1:24" s="93" customFormat="1">
+      <c r="A86" s="93" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:24" s="98" customFormat="1">
-      <c r="A87" s="98" t="s">
+    <row r="87" spans="1:24" s="93" customFormat="1">
+      <c r="A87" s="93" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:24">
-      <c r="A88" s="55" t="s">
+      <c r="A88" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="55"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="55"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="55"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54"/>
     </row>
     <row r="92" spans="1:24">
       <c r="A92" t="s">
         <v>129</v>
       </c>
-      <c r="B92" s="84">
+      <c r="B92" s="83">
         <v>71118307</v>
       </c>
       <c r="C92" t="s">
         <v>130</v>
       </c>
       <c r="D92" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:24">
-      <c r="B93" s="83" t="s">
+      <c r="B93" s="82" t="s">
         <v>107</v>
       </c>
       <c r="C93" t="s">
         <v>127</v>
       </c>
       <c r="D93" t="s">
-        <v>169</v>
-      </c>
-      <c r="E93" s="87"/>
+        <v>223</v>
+      </c>
+      <c r="E93" s="86"/>
     </row>
     <row r="94" spans="1:24">
-      <c r="B94" s="84" t="s">
+      <c r="B94" s="83" t="s">
         <v>86</v>
       </c>
       <c r="C94" t="s">
         <v>168</v>
       </c>
       <c r="D94" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
+      <c r="B95" s="83">
+        <v>71118314</v>
+      </c>
+      <c r="C95" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="95" spans="1:24">
-      <c r="B95" s="84">
-        <v>71118314</v>
-      </c>
-      <c r="C95" t="s">
-        <v>172</v>
-      </c>
       <c r="D95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:24">
-      <c r="B96" s="84">
+      <c r="B96" s="83">
         <v>71118402</v>
       </c>
       <c r="C96" t="s">
         <v>72</v>
       </c>
       <c r="D96" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="2:4">
-      <c r="B97" s="84" t="s">
+      <c r="B97" s="83" t="s">
         <v>80</v>
       </c>
       <c r="C97" t="s">
+        <v>173</v>
+      </c>
+      <c r="D97" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" t="s">
         <v>174</v>
       </c>
-      <c r="D97" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="C98" t="s">
-        <v>175</v>
-      </c>
       <c r="D98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="2:4">
-      <c r="B99" s="84" t="s">
+      <c r="B99" s="83" t="s">
         <v>84</v>
       </c>
       <c r="C99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="84" t="s">
+      <c r="B100" s="83" t="s">
         <v>41</v>
       </c>
       <c r="C100" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="2:4">
-      <c r="B101" s="84" t="s">
+      <c r="B101" s="83" t="s">
         <v>60</v>
       </c>
       <c r="C101" t="s">
         <v>151</v>
       </c>
       <c r="D101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="2:4">
-      <c r="B102" s="84" t="s">
+      <c r="B102" s="83" t="s">
         <v>63</v>
       </c>
       <c r="C102" t="s">
+        <v>179</v>
+      </c>
+      <c r="D102" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103" t="s">
         <v>180</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D103" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
-      <c r="B103" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="C103" t="s">
+    <row r="104" spans="2:4">
+      <c r="B104" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C104" t="s">
         <v>181</v>
       </c>
-      <c r="D103" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="B104" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="C104" t="s">
-        <v>182</v>
-      </c>
       <c r="D104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="2:4">
-      <c r="B105" s="84" t="s">
-        <v>178</v>
+      <c r="B105" s="83" t="s">
+        <v>177</v>
       </c>
       <c r="C105" t="s">
         <v>135</v>
       </c>
       <c r="D105" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="2:4">
-      <c r="B106" s="84" t="s">
+      <c r="B106" s="83" t="s">
         <v>78</v>
       </c>
       <c r="C106" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="2:4">
-      <c r="B107" s="84" t="s">
+      <c r="B107" s="83" t="s">
         <v>74</v>
       </c>
       <c r="C107" t="s">
         <v>161</v>
       </c>
       <c r="D107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="2:4">
-      <c r="B108" s="84"/>
+      <c r="B108" s="83">
+        <v>71118411</v>
+      </c>
+      <c r="C108" t="s">
+        <v>83</v>
+      </c>
+      <c r="D108" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A86:XFD86"/>
     <mergeCell ref="A87:XFD87"/>
     <mergeCell ref="A81:D81"/>
@@ -6727,16 +7050,6 @@
     <mergeCell ref="G81:H81"/>
     <mergeCell ref="I81:J81"/>
     <mergeCell ref="K81:L81"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
